--- a/docs/management/Gantt chart.xlsx
+++ b/docs/management/Gantt chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -247,13 +247,46 @@
     <t>2.1.2</t>
   </si>
   <si>
-    <t>Design use-case model by StarUML, Visio and other tool</t>
+    <t>Design use-case model by Figma</t>
+  </si>
+  <si>
+    <t>Whole team</t>
   </si>
   <si>
     <t>2.1.3</t>
   </si>
   <si>
     <t>Use-case Specifications</t>
+  </si>
+  <si>
+    <t>2.1.3.1</t>
+  </si>
+  <si>
+    <t>Use-case from 1 -&gt; 4</t>
+  </si>
+  <si>
+    <t>2.1.3.2</t>
+  </si>
+  <si>
+    <t>Use-case from 5 -&gt; 8</t>
+  </si>
+  <si>
+    <t>2.1.3.3</t>
+  </si>
+  <si>
+    <t>Use-case from 9 -&gt; 12</t>
+  </si>
+  <si>
+    <t>2.1.3.4</t>
+  </si>
+  <si>
+    <t>Use-case from 13 -&gt; 16</t>
+  </si>
+  <si>
+    <t>2.1.3.5</t>
+  </si>
+  <si>
+    <t>Use-case from 17 -&gt; 20</t>
   </si>
   <si>
     <t>2.2</t>
@@ -1032,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1391,6 +1424,9 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="19" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2288,7 +2324,7 @@
       <c r="CJ7" s="53"/>
       <c r="CK7" s="53"/>
     </row>
-    <row r="8" ht="21.0" customHeight="1">
+    <row r="8" ht="21.0" customHeight="1" collapsed="1">
       <c r="A8" s="54">
         <v>44927.0</v>
       </c>
@@ -2387,7 +2423,7 @@
       <c r="CJ8" s="62"/>
       <c r="CK8" s="62"/>
     </row>
-    <row r="9" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="9" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="63" t="s">
         <v>36</v>
       </c>
@@ -2482,7 +2518,7 @@
       <c r="CJ9" s="70"/>
       <c r="CK9" s="70"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="10" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A10" s="71" t="s">
         <v>38</v>
       </c>
@@ -2579,7 +2615,7 @@
       <c r="CJ10" s="84"/>
       <c r="CK10" s="85"/>
     </row>
-    <row r="11" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="11" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A11" s="86" t="s">
         <v>41</v>
       </c>
@@ -2674,7 +2710,7 @@
       <c r="CJ11" s="94"/>
       <c r="CK11" s="95"/>
     </row>
-    <row r="12" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="12" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A12" s="71" t="s">
         <v>43</v>
       </c>
@@ -2773,7 +2809,7 @@
       <c r="CJ12" s="84"/>
       <c r="CK12" s="85"/>
     </row>
-    <row r="13" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="13" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A13" s="71" t="s">
         <v>46</v>
       </c>
@@ -2872,7 +2908,7 @@
       <c r="CJ13" s="84"/>
       <c r="CK13" s="85"/>
     </row>
-    <row r="14" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="14" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A14" s="71" t="s">
         <v>49</v>
       </c>
@@ -2971,7 +3007,7 @@
       <c r="CJ14" s="84"/>
       <c r="CK14" s="85"/>
     </row>
-    <row r="15" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="15" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A15" s="96" t="s">
         <v>51</v>
       </c>
@@ -3070,7 +3106,7 @@
       <c r="CJ15" s="84"/>
       <c r="CK15" s="85"/>
     </row>
-    <row r="16" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="16" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A16" s="71" t="s">
         <v>54</v>
       </c>
@@ -3169,7 +3205,7 @@
       <c r="CJ16" s="84"/>
       <c r="CK16" s="85"/>
     </row>
-    <row r="17" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="17" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A17" s="71" t="s">
         <v>57</v>
       </c>
@@ -3268,7 +3304,7 @@
       <c r="CJ17" s="84"/>
       <c r="CK17" s="85"/>
     </row>
-    <row r="18" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="18" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A18" s="71" t="s">
         <v>59</v>
       </c>
@@ -3367,7 +3403,7 @@
       <c r="CJ18" s="84"/>
       <c r="CK18" s="85"/>
     </row>
-    <row r="19" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="19" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A19" s="86" t="s">
         <v>61</v>
       </c>
@@ -3462,7 +3498,7 @@
       <c r="CJ19" s="105"/>
       <c r="CK19" s="106"/>
     </row>
-    <row r="20" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="20" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A20" s="71" t="s">
         <v>63</v>
       </c>
@@ -3561,7 +3597,7 @@
       <c r="CJ20" s="84"/>
       <c r="CK20" s="85"/>
     </row>
-    <row r="21" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="21" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A21" s="71" t="s">
         <v>65</v>
       </c>
@@ -3660,7 +3696,7 @@
       <c r="CJ21" s="84"/>
       <c r="CK21" s="85"/>
     </row>
-    <row r="22" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="22" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A22" s="71" t="s">
         <v>67</v>
       </c>
@@ -3759,7 +3795,7 @@
       <c r="CJ22" s="84"/>
       <c r="CK22" s="85"/>
     </row>
-    <row r="23" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="23" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A23" s="71" t="s">
         <v>69</v>
       </c>
@@ -3858,7 +3894,7 @@
       <c r="CJ23" s="84"/>
       <c r="CK23" s="84"/>
     </row>
-    <row r="24" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="24" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A24" s="71" t="s">
         <v>71</v>
       </c>
@@ -3965,8 +4001,12 @@
         <v>73</v>
       </c>
       <c r="C25" s="47"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
+      <c r="D25" s="108">
+        <v>45232.0</v>
+      </c>
+      <c r="E25" s="108">
+        <v>45245.0</v>
+      </c>
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
       <c r="H25" s="51"/>
@@ -4052,7 +4092,7 @@
       <c r="CJ25" s="53"/>
       <c r="CK25" s="53"/>
     </row>
-    <row r="26" ht="21.0" customHeight="1">
+    <row r="26" ht="21.0" customHeight="1" collapsed="1">
       <c r="A26" s="54">
         <v>44928.0</v>
       </c>
@@ -4147,7 +4187,7 @@
       <c r="CJ26" s="62"/>
       <c r="CK26" s="62"/>
     </row>
-    <row r="27" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="27" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A27" s="71" t="s">
         <v>75</v>
       </c>
@@ -4157,7 +4197,9 @@
       <c r="C27" s="72"/>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="F27" s="74">
+        <v>0.0</v>
+      </c>
       <c r="G27" s="110"/>
       <c r="H27" s="111"/>
       <c r="I27" s="112"/>
@@ -4242,17 +4284,21 @@
       <c r="CJ27" s="122"/>
       <c r="CK27" s="123"/>
     </row>
-    <row r="28" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="28" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A28" s="71" t="s">
         <v>77</v>
       </c>
       <c r="B28" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="72" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
+      <c r="F28" s="74">
+        <v>1.0</v>
+      </c>
       <c r="G28" s="124"/>
       <c r="H28" s="125"/>
       <c r="I28" s="126"/>
@@ -4266,1508 +4312,1528 @@
       <c r="Q28" s="129"/>
       <c r="R28" s="129"/>
       <c r="S28" s="129"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="130"/>
       <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
       <c r="Z28" s="76"/>
-      <c r="AA28" s="79"/>
+      <c r="AA28" s="130"/>
       <c r="AB28" s="79"/>
       <c r="AC28" s="79"/>
       <c r="AD28" s="79"/>
       <c r="AE28" s="79"/>
       <c r="AF28" s="79"/>
       <c r="AG28" s="79"/>
-      <c r="AH28" s="130"/>
-      <c r="AI28" s="130"/>
-      <c r="AJ28" s="130"/>
-      <c r="AK28" s="130"/>
-      <c r="AL28" s="130"/>
-      <c r="AM28" s="131"/>
-      <c r="AN28" s="131"/>
-      <c r="AO28" s="132"/>
-      <c r="AP28" s="132"/>
-      <c r="AQ28" s="132"/>
-      <c r="AR28" s="132"/>
-      <c r="AS28" s="132"/>
-      <c r="AT28" s="132"/>
-      <c r="AU28" s="132"/>
-      <c r="AV28" s="131"/>
-      <c r="AW28" s="131"/>
-      <c r="AX28" s="131"/>
-      <c r="AY28" s="131"/>
-      <c r="AZ28" s="131"/>
-      <c r="BA28" s="130"/>
-      <c r="BB28" s="130"/>
-      <c r="BC28" s="133"/>
-      <c r="BD28" s="133"/>
-      <c r="BE28" s="133"/>
-      <c r="BF28" s="133"/>
-      <c r="BG28" s="133"/>
-      <c r="BH28" s="133"/>
-      <c r="BI28" s="133"/>
-      <c r="BJ28" s="131"/>
-      <c r="BK28" s="131"/>
-      <c r="BL28" s="131"/>
-      <c r="BM28" s="131"/>
-      <c r="BN28" s="131"/>
-      <c r="BO28" s="131"/>
-      <c r="BP28" s="131"/>
-      <c r="BQ28" s="134"/>
-      <c r="BR28" s="134"/>
-      <c r="BS28" s="134"/>
-      <c r="BT28" s="134"/>
-      <c r="BU28" s="134"/>
-      <c r="BV28" s="134"/>
-      <c r="BW28" s="134"/>
-      <c r="BX28" s="130"/>
-      <c r="BY28" s="130"/>
-      <c r="BZ28" s="130"/>
-      <c r="CA28" s="130"/>
-      <c r="CB28" s="130"/>
-      <c r="CC28" s="130"/>
-      <c r="CD28" s="130"/>
-      <c r="CE28" s="135"/>
-      <c r="CF28" s="135"/>
-      <c r="CG28" s="135"/>
-      <c r="CH28" s="135"/>
-      <c r="CI28" s="136"/>
-      <c r="CJ28" s="136"/>
-      <c r="CK28" s="137"/>
+      <c r="AH28" s="131"/>
+      <c r="AI28" s="131"/>
+      <c r="AJ28" s="131"/>
+      <c r="AK28" s="131"/>
+      <c r="AL28" s="131"/>
+      <c r="AM28" s="132"/>
+      <c r="AN28" s="132"/>
+      <c r="AO28" s="133"/>
+      <c r="AP28" s="133"/>
+      <c r="AQ28" s="133"/>
+      <c r="AR28" s="133"/>
+      <c r="AS28" s="133"/>
+      <c r="AT28" s="133"/>
+      <c r="AU28" s="133"/>
+      <c r="AV28" s="132"/>
+      <c r="AW28" s="132"/>
+      <c r="AX28" s="132"/>
+      <c r="AY28" s="132"/>
+      <c r="AZ28" s="132"/>
+      <c r="BA28" s="131"/>
+      <c r="BB28" s="131"/>
+      <c r="BC28" s="134"/>
+      <c r="BD28" s="134"/>
+      <c r="BE28" s="134"/>
+      <c r="BF28" s="134"/>
+      <c r="BG28" s="134"/>
+      <c r="BH28" s="134"/>
+      <c r="BI28" s="134"/>
+      <c r="BJ28" s="132"/>
+      <c r="BK28" s="132"/>
+      <c r="BL28" s="132"/>
+      <c r="BM28" s="132"/>
+      <c r="BN28" s="132"/>
+      <c r="BO28" s="132"/>
+      <c r="BP28" s="132"/>
+      <c r="BQ28" s="135"/>
+      <c r="BR28" s="135"/>
+      <c r="BS28" s="135"/>
+      <c r="BT28" s="135"/>
+      <c r="BU28" s="135"/>
+      <c r="BV28" s="135"/>
+      <c r="BW28" s="135"/>
+      <c r="BX28" s="131"/>
+      <c r="BY28" s="131"/>
+      <c r="BZ28" s="131"/>
+      <c r="CA28" s="131"/>
+      <c r="CB28" s="131"/>
+      <c r="CC28" s="131"/>
+      <c r="CD28" s="131"/>
+      <c r="CE28" s="136"/>
+      <c r="CF28" s="136"/>
+      <c r="CG28" s="136"/>
+      <c r="CH28" s="136"/>
+      <c r="CI28" s="137"/>
+      <c r="CJ28" s="137"/>
+      <c r="CK28" s="138"/>
     </row>
-    <row r="29" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A29" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="138" t="s">
         <v>80</v>
       </c>
+      <c r="B29" s="139" t="s">
+        <v>81</v>
+      </c>
       <c r="C29" s="87"/>
-      <c r="D29" s="139"/>
+      <c r="D29" s="140"/>
       <c r="E29" s="88"/>
       <c r="F29" s="89"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="143"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="144"/>
-      <c r="U29" s="144"/>
-      <c r="V29" s="144"/>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
-      <c r="AC29" s="144"/>
-      <c r="AD29" s="144"/>
-      <c r="AE29" s="144"/>
-      <c r="AF29" s="144"/>
-      <c r="AG29" s="144"/>
-      <c r="AH29" s="144"/>
-      <c r="AI29" s="144"/>
-      <c r="AJ29" s="144"/>
-      <c r="AK29" s="144"/>
-      <c r="AL29" s="144"/>
-      <c r="AM29" s="144"/>
-      <c r="AN29" s="144"/>
-      <c r="AO29" s="144"/>
-      <c r="AP29" s="144"/>
-      <c r="AQ29" s="144"/>
-      <c r="AR29" s="144"/>
-      <c r="AS29" s="144"/>
-      <c r="AT29" s="144"/>
-      <c r="AU29" s="144"/>
-      <c r="AV29" s="144"/>
-      <c r="AW29" s="144"/>
-      <c r="AX29" s="144"/>
-      <c r="AY29" s="144"/>
-      <c r="AZ29" s="144"/>
-      <c r="BA29" s="144"/>
-      <c r="BB29" s="144"/>
-      <c r="BC29" s="144"/>
-      <c r="BD29" s="144"/>
-      <c r="BE29" s="144"/>
-      <c r="BF29" s="144"/>
-      <c r="BG29" s="144"/>
-      <c r="BH29" s="144"/>
-      <c r="BI29" s="144"/>
-      <c r="BJ29" s="144"/>
-      <c r="BK29" s="144"/>
-      <c r="BL29" s="144"/>
-      <c r="BM29" s="144"/>
-      <c r="BN29" s="144"/>
-      <c r="BO29" s="144"/>
-      <c r="BP29" s="144"/>
-      <c r="BQ29" s="144"/>
-      <c r="BR29" s="144"/>
-      <c r="BS29" s="144"/>
-      <c r="BT29" s="144"/>
-      <c r="BU29" s="144"/>
-      <c r="BV29" s="144"/>
-      <c r="BW29" s="144"/>
-      <c r="BX29" s="144"/>
-      <c r="BY29" s="144"/>
-      <c r="BZ29" s="144"/>
-      <c r="CA29" s="144"/>
-      <c r="CB29" s="144"/>
-      <c r="CC29" s="144"/>
-      <c r="CD29" s="144"/>
-      <c r="CE29" s="144"/>
-      <c r="CF29" s="144"/>
-      <c r="CG29" s="144"/>
-      <c r="CH29" s="144"/>
-      <c r="CI29" s="146"/>
-      <c r="CJ29" s="146"/>
-      <c r="CK29" s="147"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="144"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="145"/>
+      <c r="AK29" s="145"/>
+      <c r="AL29" s="145"/>
+      <c r="AM29" s="145"/>
+      <c r="AN29" s="145"/>
+      <c r="AO29" s="145"/>
+      <c r="AP29" s="145"/>
+      <c r="AQ29" s="145"/>
+      <c r="AR29" s="145"/>
+      <c r="AS29" s="145"/>
+      <c r="AT29" s="145"/>
+      <c r="AU29" s="145"/>
+      <c r="AV29" s="145"/>
+      <c r="AW29" s="145"/>
+      <c r="AX29" s="145"/>
+      <c r="AY29" s="145"/>
+      <c r="AZ29" s="145"/>
+      <c r="BA29" s="145"/>
+      <c r="BB29" s="145"/>
+      <c r="BC29" s="145"/>
+      <c r="BD29" s="145"/>
+      <c r="BE29" s="145"/>
+      <c r="BF29" s="145"/>
+      <c r="BG29" s="145"/>
+      <c r="BH29" s="145"/>
+      <c r="BI29" s="145"/>
+      <c r="BJ29" s="145"/>
+      <c r="BK29" s="145"/>
+      <c r="BL29" s="145"/>
+      <c r="BM29" s="145"/>
+      <c r="BN29" s="145"/>
+      <c r="BO29" s="145"/>
+      <c r="BP29" s="145"/>
+      <c r="BQ29" s="145"/>
+      <c r="BR29" s="145"/>
+      <c r="BS29" s="145"/>
+      <c r="BT29" s="145"/>
+      <c r="BU29" s="145"/>
+      <c r="BV29" s="145"/>
+      <c r="BW29" s="145"/>
+      <c r="BX29" s="145"/>
+      <c r="BY29" s="145"/>
+      <c r="BZ29" s="145"/>
+      <c r="CA29" s="145"/>
+      <c r="CB29" s="145"/>
+      <c r="CC29" s="145"/>
+      <c r="CD29" s="145"/>
+      <c r="CE29" s="145"/>
+      <c r="CF29" s="145"/>
+      <c r="CG29" s="145"/>
+      <c r="CH29" s="145"/>
+      <c r="CI29" s="147"/>
+      <c r="CJ29" s="147"/>
+      <c r="CK29" s="148"/>
     </row>
-    <row r="30" ht="21.0" customHeight="1" collapsed="1">
-      <c r="A30" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="55" t="s">
+    <row r="30" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A30" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
-      <c r="AX30" s="62"/>
-      <c r="AY30" s="62"/>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
-      <c r="BB30" s="62"/>
-      <c r="BC30" s="62"/>
-      <c r="BD30" s="62"/>
-      <c r="BE30" s="62"/>
-      <c r="BF30" s="62"/>
-      <c r="BG30" s="62"/>
-      <c r="BH30" s="62"/>
-      <c r="BI30" s="62"/>
-      <c r="BJ30" s="62"/>
-      <c r="BK30" s="62"/>
-      <c r="BL30" s="62"/>
-      <c r="BM30" s="62"/>
-      <c r="BN30" s="62"/>
-      <c r="BO30" s="62"/>
-      <c r="BP30" s="62"/>
-      <c r="BQ30" s="62"/>
-      <c r="BR30" s="62"/>
-      <c r="BS30" s="62"/>
-      <c r="BT30" s="62"/>
-      <c r="BU30" s="62"/>
-      <c r="BV30" s="62"/>
-      <c r="BW30" s="62"/>
-      <c r="BX30" s="62"/>
-      <c r="BY30" s="62"/>
-      <c r="BZ30" s="62"/>
-      <c r="CA30" s="62"/>
-      <c r="CB30" s="62"/>
-      <c r="CC30" s="62"/>
-      <c r="CD30" s="62"/>
-      <c r="CE30" s="62"/>
-      <c r="CF30" s="62"/>
-      <c r="CG30" s="62"/>
-      <c r="CH30" s="62"/>
-      <c r="CI30" s="62"/>
-      <c r="CJ30" s="62"/>
-      <c r="CK30" s="62"/>
+      <c r="B30" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="131"/>
+      <c r="AI30" s="131"/>
+      <c r="AJ30" s="131"/>
+      <c r="AK30" s="131"/>
+      <c r="AL30" s="131"/>
+      <c r="AM30" s="132"/>
+      <c r="AN30" s="132"/>
+      <c r="AO30" s="133"/>
+      <c r="AP30" s="133"/>
+      <c r="AQ30" s="133"/>
+      <c r="AR30" s="133"/>
+      <c r="AS30" s="133"/>
+      <c r="AT30" s="133"/>
+      <c r="AU30" s="133"/>
+      <c r="AV30" s="132"/>
+      <c r="AW30" s="132"/>
+      <c r="AX30" s="132"/>
+      <c r="AY30" s="132"/>
+      <c r="AZ30" s="132"/>
+      <c r="BA30" s="131"/>
+      <c r="BB30" s="131"/>
+      <c r="BC30" s="134"/>
+      <c r="BD30" s="134"/>
+      <c r="BE30" s="134"/>
+      <c r="BF30" s="134"/>
+      <c r="BG30" s="134"/>
+      <c r="BH30" s="134"/>
+      <c r="BI30" s="134"/>
+      <c r="BJ30" s="132"/>
+      <c r="BK30" s="132"/>
+      <c r="BL30" s="132"/>
+      <c r="BM30" s="132"/>
+      <c r="BN30" s="132"/>
+      <c r="BO30" s="132"/>
+      <c r="BP30" s="132"/>
+      <c r="BQ30" s="135"/>
+      <c r="BR30" s="135"/>
+      <c r="BS30" s="135"/>
+      <c r="BT30" s="135"/>
+      <c r="BU30" s="135"/>
+      <c r="BV30" s="135"/>
+      <c r="BW30" s="135"/>
+      <c r="BX30" s="131"/>
+      <c r="BY30" s="131"/>
+      <c r="BZ30" s="131"/>
+      <c r="CA30" s="131"/>
+      <c r="CB30" s="131"/>
+      <c r="CC30" s="131"/>
+      <c r="CD30" s="131"/>
+      <c r="CE30" s="136"/>
+      <c r="CF30" s="136"/>
+      <c r="CG30" s="136"/>
+      <c r="CH30" s="136"/>
+      <c r="CI30" s="137"/>
+      <c r="CJ30" s="137"/>
+      <c r="CK30" s="138"/>
     </row>
     <row r="31" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A31" s="71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="154"/>
-      <c r="U31" s="157"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="157"/>
-      <c r="Z31" s="157"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="158"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="158"/>
+        <v>85</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="124"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
       <c r="AH31" s="131"/>
       <c r="AI31" s="131"/>
       <c r="AJ31" s="131"/>
       <c r="AK31" s="131"/>
       <c r="AL31" s="131"/>
-      <c r="AM31" s="131"/>
-      <c r="AN31" s="131"/>
-      <c r="AO31" s="159"/>
-      <c r="AP31" s="159"/>
-      <c r="AQ31" s="159"/>
-      <c r="AR31" s="159"/>
-      <c r="AS31" s="159"/>
-      <c r="AT31" s="159"/>
-      <c r="AU31" s="159"/>
-      <c r="AV31" s="157"/>
-      <c r="AW31" s="157"/>
-      <c r="AX31" s="157"/>
-      <c r="AY31" s="157"/>
-      <c r="AZ31" s="157"/>
-      <c r="BA31" s="160"/>
-      <c r="BB31" s="160"/>
-      <c r="BC31" s="161"/>
-      <c r="BD31" s="161"/>
-      <c r="BE31" s="161"/>
-      <c r="BF31" s="161"/>
-      <c r="BG31" s="161"/>
-      <c r="BH31" s="161"/>
-      <c r="BI31" s="161"/>
-      <c r="BJ31" s="157"/>
-      <c r="BK31" s="157"/>
-      <c r="BL31" s="157"/>
-      <c r="BM31" s="157"/>
-      <c r="BN31" s="157"/>
-      <c r="BO31" s="157"/>
-      <c r="BP31" s="157"/>
-      <c r="BQ31" s="162"/>
-      <c r="BR31" s="162"/>
-      <c r="BS31" s="162"/>
-      <c r="BT31" s="162"/>
-      <c r="BU31" s="162"/>
-      <c r="BV31" s="162"/>
-      <c r="BW31" s="162"/>
-      <c r="BX31" s="160"/>
-      <c r="BY31" s="160"/>
-      <c r="BZ31" s="160"/>
-      <c r="CA31" s="160"/>
-      <c r="CB31" s="160"/>
-      <c r="CC31" s="160"/>
-      <c r="CD31" s="160"/>
-      <c r="CE31" s="163"/>
-      <c r="CF31" s="163"/>
-      <c r="CG31" s="163"/>
-      <c r="CH31" s="163"/>
-      <c r="CI31" s="163"/>
-      <c r="CJ31" s="163"/>
-      <c r="CK31" s="163"/>
+      <c r="AM31" s="132"/>
+      <c r="AN31" s="132"/>
+      <c r="AO31" s="133"/>
+      <c r="AP31" s="133"/>
+      <c r="AQ31" s="133"/>
+      <c r="AR31" s="133"/>
+      <c r="AS31" s="133"/>
+      <c r="AT31" s="133"/>
+      <c r="AU31" s="133"/>
+      <c r="AV31" s="132"/>
+      <c r="AW31" s="132"/>
+      <c r="AX31" s="132"/>
+      <c r="AY31" s="132"/>
+      <c r="AZ31" s="132"/>
+      <c r="BA31" s="131"/>
+      <c r="BB31" s="131"/>
+      <c r="BC31" s="134"/>
+      <c r="BD31" s="134"/>
+      <c r="BE31" s="134"/>
+      <c r="BF31" s="134"/>
+      <c r="BG31" s="134"/>
+      <c r="BH31" s="134"/>
+      <c r="BI31" s="134"/>
+      <c r="BJ31" s="132"/>
+      <c r="BK31" s="132"/>
+      <c r="BL31" s="132"/>
+      <c r="BM31" s="132"/>
+      <c r="BN31" s="132"/>
+      <c r="BO31" s="132"/>
+      <c r="BP31" s="132"/>
+      <c r="BQ31" s="135"/>
+      <c r="BR31" s="135"/>
+      <c r="BS31" s="135"/>
+      <c r="BT31" s="135"/>
+      <c r="BU31" s="135"/>
+      <c r="BV31" s="135"/>
+      <c r="BW31" s="135"/>
+      <c r="BX31" s="131"/>
+      <c r="BY31" s="131"/>
+      <c r="BZ31" s="131"/>
+      <c r="CA31" s="131"/>
+      <c r="CB31" s="131"/>
+      <c r="CC31" s="131"/>
+      <c r="CD31" s="131"/>
+      <c r="CE31" s="136"/>
+      <c r="CF31" s="136"/>
+      <c r="CG31" s="136"/>
+      <c r="CH31" s="136"/>
+      <c r="CI31" s="137"/>
+      <c r="CJ31" s="137"/>
+      <c r="CK31" s="138"/>
     </row>
     <row r="32" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A32" s="71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="157"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="158"/>
+        <v>87</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="130"/>
       <c r="AH32" s="131"/>
       <c r="AI32" s="131"/>
       <c r="AJ32" s="131"/>
       <c r="AK32" s="131"/>
       <c r="AL32" s="131"/>
-      <c r="AM32" s="131"/>
-      <c r="AN32" s="131"/>
-      <c r="AO32" s="159"/>
-      <c r="AP32" s="159"/>
-      <c r="AQ32" s="159"/>
-      <c r="AR32" s="159"/>
-      <c r="AS32" s="159"/>
-      <c r="AT32" s="159"/>
-      <c r="AU32" s="159"/>
-      <c r="AV32" s="157"/>
-      <c r="AW32" s="157"/>
-      <c r="AX32" s="157"/>
-      <c r="AY32" s="157"/>
-      <c r="AZ32" s="157"/>
-      <c r="BA32" s="160"/>
-      <c r="BB32" s="160"/>
-      <c r="BC32" s="161"/>
-      <c r="BD32" s="161"/>
-      <c r="BE32" s="161"/>
-      <c r="BF32" s="161"/>
-      <c r="BG32" s="161"/>
-      <c r="BH32" s="161"/>
-      <c r="BI32" s="161"/>
-      <c r="BJ32" s="157"/>
-      <c r="BK32" s="157"/>
-      <c r="BL32" s="157"/>
-      <c r="BM32" s="157"/>
-      <c r="BN32" s="157"/>
-      <c r="BO32" s="157"/>
-      <c r="BP32" s="157"/>
-      <c r="BQ32" s="162"/>
-      <c r="BR32" s="162"/>
-      <c r="BS32" s="162"/>
-      <c r="BT32" s="162"/>
-      <c r="BU32" s="162"/>
-      <c r="BV32" s="162"/>
-      <c r="BW32" s="162"/>
-      <c r="BX32" s="160"/>
-      <c r="BY32" s="160"/>
-      <c r="BZ32" s="160"/>
-      <c r="CA32" s="160"/>
-      <c r="CB32" s="160"/>
-      <c r="CC32" s="160"/>
-      <c r="CD32" s="160"/>
-      <c r="CE32" s="163"/>
-      <c r="CF32" s="163"/>
-      <c r="CG32" s="163"/>
-      <c r="CH32" s="163"/>
-      <c r="CI32" s="163"/>
-      <c r="CJ32" s="163"/>
-      <c r="CK32" s="163"/>
+      <c r="AM32" s="132"/>
+      <c r="AN32" s="132"/>
+      <c r="AO32" s="133"/>
+      <c r="AP32" s="133"/>
+      <c r="AQ32" s="133"/>
+      <c r="AR32" s="133"/>
+      <c r="AS32" s="133"/>
+      <c r="AT32" s="133"/>
+      <c r="AU32" s="133"/>
+      <c r="AV32" s="132"/>
+      <c r="AW32" s="132"/>
+      <c r="AX32" s="132"/>
+      <c r="AY32" s="132"/>
+      <c r="AZ32" s="132"/>
+      <c r="BA32" s="131"/>
+      <c r="BB32" s="131"/>
+      <c r="BC32" s="134"/>
+      <c r="BD32" s="134"/>
+      <c r="BE32" s="134"/>
+      <c r="BF32" s="134"/>
+      <c r="BG32" s="134"/>
+      <c r="BH32" s="134"/>
+      <c r="BI32" s="134"/>
+      <c r="BJ32" s="132"/>
+      <c r="BK32" s="132"/>
+      <c r="BL32" s="132"/>
+      <c r="BM32" s="132"/>
+      <c r="BN32" s="132"/>
+      <c r="BO32" s="132"/>
+      <c r="BP32" s="132"/>
+      <c r="BQ32" s="135"/>
+      <c r="BR32" s="135"/>
+      <c r="BS32" s="135"/>
+      <c r="BT32" s="135"/>
+      <c r="BU32" s="135"/>
+      <c r="BV32" s="135"/>
+      <c r="BW32" s="135"/>
+      <c r="BX32" s="131"/>
+      <c r="BY32" s="131"/>
+      <c r="BZ32" s="131"/>
+      <c r="CA32" s="131"/>
+      <c r="CB32" s="131"/>
+      <c r="CC32" s="131"/>
+      <c r="CD32" s="131"/>
+      <c r="CE32" s="136"/>
+      <c r="CF32" s="136"/>
+      <c r="CG32" s="136"/>
+      <c r="CH32" s="136"/>
+      <c r="CI32" s="137"/>
+      <c r="CJ32" s="137"/>
+      <c r="CK32" s="138"/>
     </row>
     <row r="33" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A33" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="149"/>
+      <c r="B33" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="73"/>
       <c r="E33" s="73"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="154"/>
-      <c r="U33" s="157"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="158"/>
+      <c r="F33" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="130"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="130"/>
+      <c r="AC33" s="130"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="79"/>
       <c r="AH33" s="131"/>
       <c r="AI33" s="131"/>
       <c r="AJ33" s="131"/>
       <c r="AK33" s="131"/>
       <c r="AL33" s="131"/>
-      <c r="AM33" s="131"/>
-      <c r="AN33" s="131"/>
-      <c r="AO33" s="159"/>
-      <c r="AP33" s="159"/>
-      <c r="AQ33" s="159"/>
-      <c r="AR33" s="159"/>
-      <c r="AS33" s="159"/>
-      <c r="AT33" s="159"/>
-      <c r="AU33" s="159"/>
-      <c r="AV33" s="157"/>
-      <c r="AW33" s="157"/>
-      <c r="AX33" s="157"/>
-      <c r="AY33" s="157"/>
-      <c r="AZ33" s="157"/>
-      <c r="BA33" s="160"/>
-      <c r="BB33" s="160"/>
-      <c r="BC33" s="161"/>
-      <c r="BD33" s="161"/>
-      <c r="BE33" s="161"/>
-      <c r="BF33" s="161"/>
-      <c r="BG33" s="161"/>
-      <c r="BH33" s="161"/>
-      <c r="BI33" s="161"/>
-      <c r="BJ33" s="157"/>
-      <c r="BK33" s="157"/>
-      <c r="BL33" s="157"/>
-      <c r="BM33" s="157"/>
-      <c r="BN33" s="157"/>
-      <c r="BO33" s="157"/>
-      <c r="BP33" s="157"/>
-      <c r="BQ33" s="162"/>
-      <c r="BR33" s="162"/>
-      <c r="BS33" s="162"/>
-      <c r="BT33" s="162"/>
-      <c r="BU33" s="162"/>
-      <c r="BV33" s="162"/>
-      <c r="BW33" s="162"/>
-      <c r="BX33" s="160"/>
-      <c r="BY33" s="160"/>
-      <c r="BZ33" s="160"/>
-      <c r="CA33" s="160"/>
-      <c r="CB33" s="160"/>
-      <c r="CC33" s="160"/>
-      <c r="CD33" s="160"/>
-      <c r="CE33" s="163"/>
-      <c r="CF33" s="163"/>
-      <c r="CG33" s="163"/>
-      <c r="CH33" s="163"/>
-      <c r="CI33" s="163"/>
-      <c r="CJ33" s="163"/>
-      <c r="CK33" s="163"/>
+      <c r="AM33" s="132"/>
+      <c r="AN33" s="132"/>
+      <c r="AO33" s="133"/>
+      <c r="AP33" s="133"/>
+      <c r="AQ33" s="133"/>
+      <c r="AR33" s="133"/>
+      <c r="AS33" s="133"/>
+      <c r="AT33" s="133"/>
+      <c r="AU33" s="133"/>
+      <c r="AV33" s="132"/>
+      <c r="AW33" s="132"/>
+      <c r="AX33" s="132"/>
+      <c r="AY33" s="132"/>
+      <c r="AZ33" s="132"/>
+      <c r="BA33" s="131"/>
+      <c r="BB33" s="131"/>
+      <c r="BC33" s="134"/>
+      <c r="BD33" s="134"/>
+      <c r="BE33" s="134"/>
+      <c r="BF33" s="134"/>
+      <c r="BG33" s="134"/>
+      <c r="BH33" s="134"/>
+      <c r="BI33" s="134"/>
+      <c r="BJ33" s="132"/>
+      <c r="BK33" s="132"/>
+      <c r="BL33" s="132"/>
+      <c r="BM33" s="132"/>
+      <c r="BN33" s="132"/>
+      <c r="BO33" s="132"/>
+      <c r="BP33" s="132"/>
+      <c r="BQ33" s="135"/>
+      <c r="BR33" s="135"/>
+      <c r="BS33" s="135"/>
+      <c r="BT33" s="135"/>
+      <c r="BU33" s="135"/>
+      <c r="BV33" s="135"/>
+      <c r="BW33" s="135"/>
+      <c r="BX33" s="131"/>
+      <c r="BY33" s="131"/>
+      <c r="BZ33" s="131"/>
+      <c r="CA33" s="131"/>
+      <c r="CB33" s="131"/>
+      <c r="CC33" s="131"/>
+      <c r="CD33" s="131"/>
+      <c r="CE33" s="136"/>
+      <c r="CF33" s="136"/>
+      <c r="CG33" s="136"/>
+      <c r="CH33" s="136"/>
+      <c r="CI33" s="137"/>
+      <c r="CJ33" s="137"/>
+      <c r="CK33" s="138"/>
     </row>
     <row r="34" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A34" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="149"/>
+      <c r="B34" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="73"/>
       <c r="E34" s="73"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="156"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="156"/>
-      <c r="S34" s="156"/>
-      <c r="T34" s="154"/>
-      <c r="U34" s="157"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="157"/>
-      <c r="Z34" s="157"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="158"/>
-      <c r="AC34" s="158"/>
-      <c r="AD34" s="158"/>
-      <c r="AE34" s="158"/>
-      <c r="AF34" s="158"/>
-      <c r="AG34" s="158"/>
+      <c r="F34" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="130"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="130"/>
+      <c r="AF34" s="130"/>
+      <c r="AG34" s="130"/>
       <c r="AH34" s="131"/>
       <c r="AI34" s="131"/>
       <c r="AJ34" s="131"/>
       <c r="AK34" s="131"/>
       <c r="AL34" s="131"/>
-      <c r="AM34" s="131"/>
-      <c r="AN34" s="131"/>
-      <c r="AO34" s="159"/>
-      <c r="AP34" s="159"/>
-      <c r="AQ34" s="159"/>
-      <c r="AR34" s="159"/>
-      <c r="AS34" s="159"/>
-      <c r="AT34" s="159"/>
-      <c r="AU34" s="159"/>
-      <c r="AV34" s="157"/>
-      <c r="AW34" s="157"/>
-      <c r="AX34" s="157"/>
-      <c r="AY34" s="157"/>
-      <c r="AZ34" s="157"/>
-      <c r="BA34" s="160"/>
-      <c r="BB34" s="160"/>
-      <c r="BC34" s="161"/>
-      <c r="BD34" s="161"/>
-      <c r="BE34" s="161"/>
-      <c r="BF34" s="161"/>
-      <c r="BG34" s="161"/>
-      <c r="BH34" s="161"/>
-      <c r="BI34" s="161"/>
-      <c r="BJ34" s="157"/>
-      <c r="BK34" s="157"/>
-      <c r="BL34" s="157"/>
-      <c r="BM34" s="157"/>
-      <c r="BN34" s="157"/>
-      <c r="BO34" s="157"/>
-      <c r="BP34" s="157"/>
-      <c r="BQ34" s="162"/>
-      <c r="BR34" s="162"/>
-      <c r="BS34" s="162"/>
-      <c r="BT34" s="162"/>
-      <c r="BU34" s="162"/>
-      <c r="BV34" s="162"/>
-      <c r="BW34" s="162"/>
-      <c r="BX34" s="160"/>
-      <c r="BY34" s="160"/>
-      <c r="BZ34" s="160"/>
-      <c r="CA34" s="160"/>
-      <c r="CB34" s="160"/>
-      <c r="CC34" s="160"/>
-      <c r="CD34" s="160"/>
-      <c r="CE34" s="163"/>
-      <c r="CF34" s="163"/>
-      <c r="CG34" s="163"/>
-      <c r="CH34" s="163"/>
-      <c r="CI34" s="163"/>
-      <c r="CJ34" s="163"/>
-      <c r="CK34" s="163"/>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="132"/>
+      <c r="AO34" s="133"/>
+      <c r="AP34" s="133"/>
+      <c r="AQ34" s="133"/>
+      <c r="AR34" s="133"/>
+      <c r="AS34" s="133"/>
+      <c r="AT34" s="133"/>
+      <c r="AU34" s="133"/>
+      <c r="AV34" s="132"/>
+      <c r="AW34" s="132"/>
+      <c r="AX34" s="132"/>
+      <c r="AY34" s="132"/>
+      <c r="AZ34" s="132"/>
+      <c r="BA34" s="131"/>
+      <c r="BB34" s="131"/>
+      <c r="BC34" s="134"/>
+      <c r="BD34" s="134"/>
+      <c r="BE34" s="134"/>
+      <c r="BF34" s="134"/>
+      <c r="BG34" s="134"/>
+      <c r="BH34" s="134"/>
+      <c r="BI34" s="134"/>
+      <c r="BJ34" s="132"/>
+      <c r="BK34" s="132"/>
+      <c r="BL34" s="132"/>
+      <c r="BM34" s="132"/>
+      <c r="BN34" s="132"/>
+      <c r="BO34" s="132"/>
+      <c r="BP34" s="132"/>
+      <c r="BQ34" s="135"/>
+      <c r="BR34" s="135"/>
+      <c r="BS34" s="135"/>
+      <c r="BT34" s="135"/>
+      <c r="BU34" s="135"/>
+      <c r="BV34" s="135"/>
+      <c r="BW34" s="135"/>
+      <c r="BX34" s="131"/>
+      <c r="BY34" s="131"/>
+      <c r="BZ34" s="131"/>
+      <c r="CA34" s="131"/>
+      <c r="CB34" s="131"/>
+      <c r="CC34" s="131"/>
+      <c r="CD34" s="131"/>
+      <c r="CE34" s="136"/>
+      <c r="CF34" s="136"/>
+      <c r="CG34" s="136"/>
+      <c r="CH34" s="136"/>
+      <c r="CI34" s="137"/>
+      <c r="CJ34" s="137"/>
+      <c r="CK34" s="138"/>
     </row>
-    <row r="35" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A35" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="148" t="s">
+    <row r="35" ht="21.0" customHeight="1">
+      <c r="A35" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="156"/>
-      <c r="S35" s="156"/>
-      <c r="T35" s="154"/>
-      <c r="U35" s="157"/>
-      <c r="V35" s="157"/>
-      <c r="W35" s="157"/>
-      <c r="X35" s="157"/>
-      <c r="Y35" s="157"/>
-      <c r="Z35" s="157"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="158"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="158"/>
-      <c r="AE35" s="158"/>
-      <c r="AF35" s="158"/>
-      <c r="AG35" s="158"/>
-      <c r="AH35" s="131"/>
-      <c r="AI35" s="131"/>
-      <c r="AJ35" s="131"/>
-      <c r="AK35" s="131"/>
-      <c r="AL35" s="131"/>
-      <c r="AM35" s="131"/>
-      <c r="AN35" s="131"/>
-      <c r="AO35" s="159"/>
-      <c r="AP35" s="159"/>
-      <c r="AQ35" s="159"/>
-      <c r="AR35" s="159"/>
-      <c r="AS35" s="159"/>
-      <c r="AT35" s="159"/>
-      <c r="AU35" s="159"/>
-      <c r="AV35" s="157"/>
-      <c r="AW35" s="157"/>
-      <c r="AX35" s="157"/>
-      <c r="AY35" s="157"/>
-      <c r="AZ35" s="157"/>
-      <c r="BA35" s="160"/>
-      <c r="BB35" s="160"/>
-      <c r="BC35" s="161"/>
-      <c r="BD35" s="161"/>
-      <c r="BE35" s="161"/>
-      <c r="BF35" s="161"/>
-      <c r="BG35" s="161"/>
-      <c r="BH35" s="161"/>
-      <c r="BI35" s="161"/>
-      <c r="BJ35" s="157"/>
-      <c r="BK35" s="157"/>
-      <c r="BL35" s="157"/>
-      <c r="BM35" s="157"/>
-      <c r="BN35" s="157"/>
-      <c r="BO35" s="157"/>
-      <c r="BP35" s="157"/>
-      <c r="BQ35" s="162"/>
-      <c r="BR35" s="162"/>
-      <c r="BS35" s="162"/>
-      <c r="BT35" s="162"/>
-      <c r="BU35" s="162"/>
-      <c r="BV35" s="162"/>
-      <c r="BW35" s="162"/>
-      <c r="BX35" s="160"/>
-      <c r="BY35" s="160"/>
-      <c r="BZ35" s="160"/>
-      <c r="CA35" s="160"/>
-      <c r="CB35" s="160"/>
-      <c r="CC35" s="160"/>
-      <c r="CD35" s="160"/>
-      <c r="CE35" s="163"/>
-      <c r="CF35" s="163"/>
-      <c r="CG35" s="163"/>
-      <c r="CH35" s="163"/>
-      <c r="CI35" s="163"/>
-      <c r="CJ35" s="163"/>
-      <c r="CK35" s="163"/>
+      <c r="B35" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
+      <c r="AH35" s="62"/>
+      <c r="AI35" s="62"/>
+      <c r="AJ35" s="62"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="62"/>
+      <c r="AM35" s="62"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="62"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="62"/>
+      <c r="AT35" s="62"/>
+      <c r="AU35" s="62"/>
+      <c r="AV35" s="62"/>
+      <c r="AW35" s="62"/>
+      <c r="AX35" s="62"/>
+      <c r="AY35" s="62"/>
+      <c r="AZ35" s="62"/>
+      <c r="BA35" s="62"/>
+      <c r="BB35" s="62"/>
+      <c r="BC35" s="62"/>
+      <c r="BD35" s="62"/>
+      <c r="BE35" s="62"/>
+      <c r="BF35" s="62"/>
+      <c r="BG35" s="62"/>
+      <c r="BH35" s="62"/>
+      <c r="BI35" s="62"/>
+      <c r="BJ35" s="62"/>
+      <c r="BK35" s="62"/>
+      <c r="BL35" s="62"/>
+      <c r="BM35" s="62"/>
+      <c r="BN35" s="62"/>
+      <c r="BO35" s="62"/>
+      <c r="BP35" s="62"/>
+      <c r="BQ35" s="62"/>
+      <c r="BR35" s="62"/>
+      <c r="BS35" s="62"/>
+      <c r="BT35" s="62"/>
+      <c r="BU35" s="62"/>
+      <c r="BV35" s="62"/>
+      <c r="BW35" s="62"/>
+      <c r="BX35" s="62"/>
+      <c r="BY35" s="62"/>
+      <c r="BZ35" s="62"/>
+      <c r="CA35" s="62"/>
+      <c r="CB35" s="62"/>
+      <c r="CC35" s="62"/>
+      <c r="CD35" s="62"/>
+      <c r="CE35" s="62"/>
+      <c r="CF35" s="62"/>
+      <c r="CG35" s="62"/>
+      <c r="CH35" s="62"/>
+      <c r="CI35" s="62"/>
+      <c r="CJ35" s="62"/>
+      <c r="CK35" s="62"/>
     </row>
-    <row r="36" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="36" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A36" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="156"/>
-      <c r="P36" s="156"/>
-      <c r="Q36" s="156"/>
-      <c r="R36" s="156"/>
-      <c r="S36" s="156"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="157"/>
-      <c r="W36" s="157"/>
-      <c r="X36" s="157"/>
-      <c r="Y36" s="157"/>
-      <c r="Z36" s="157"/>
-      <c r="AA36" s="158"/>
-      <c r="AB36" s="158"/>
-      <c r="AC36" s="158"/>
-      <c r="AD36" s="158"/>
-      <c r="AE36" s="158"/>
-      <c r="AF36" s="158"/>
-      <c r="AG36" s="158"/>
-      <c r="AH36" s="131"/>
-      <c r="AI36" s="131"/>
-      <c r="AJ36" s="131"/>
-      <c r="AK36" s="131"/>
-      <c r="AL36" s="131"/>
-      <c r="AM36" s="131"/>
-      <c r="AN36" s="131"/>
-      <c r="AO36" s="159"/>
-      <c r="AP36" s="159"/>
-      <c r="AQ36" s="159"/>
-      <c r="AR36" s="159"/>
-      <c r="AS36" s="159"/>
-      <c r="AT36" s="159"/>
-      <c r="AU36" s="159"/>
-      <c r="AV36" s="157"/>
-      <c r="AW36" s="157"/>
-      <c r="AX36" s="157"/>
-      <c r="AY36" s="157"/>
-      <c r="AZ36" s="157"/>
-      <c r="BA36" s="160"/>
-      <c r="BB36" s="160"/>
-      <c r="BC36" s="161"/>
-      <c r="BD36" s="161"/>
-      <c r="BE36" s="161"/>
-      <c r="BF36" s="161"/>
-      <c r="BG36" s="161"/>
-      <c r="BH36" s="161"/>
-      <c r="BI36" s="161"/>
-      <c r="BJ36" s="157"/>
-      <c r="BK36" s="157"/>
-      <c r="BL36" s="157"/>
-      <c r="BM36" s="157"/>
-      <c r="BN36" s="157"/>
-      <c r="BO36" s="157"/>
-      <c r="BP36" s="157"/>
-      <c r="BQ36" s="162"/>
-      <c r="BR36" s="162"/>
-      <c r="BS36" s="162"/>
-      <c r="BT36" s="162"/>
-      <c r="BU36" s="162"/>
-      <c r="BV36" s="162"/>
-      <c r="BW36" s="162"/>
-      <c r="BX36" s="160"/>
-      <c r="BY36" s="160"/>
-      <c r="BZ36" s="160"/>
-      <c r="CA36" s="160"/>
-      <c r="CB36" s="160"/>
-      <c r="CC36" s="160"/>
-      <c r="CD36" s="160"/>
-      <c r="CE36" s="163"/>
-      <c r="CF36" s="163"/>
-      <c r="CG36" s="163"/>
-      <c r="CH36" s="163"/>
-      <c r="CI36" s="163"/>
-      <c r="CJ36" s="163"/>
-      <c r="CK36" s="163"/>
+      <c r="B36" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="155"/>
+      <c r="U36" s="158"/>
+      <c r="V36" s="158"/>
+      <c r="W36" s="158"/>
+      <c r="X36" s="158"/>
+      <c r="Y36" s="158"/>
+      <c r="Z36" s="158"/>
+      <c r="AA36" s="159"/>
+      <c r="AB36" s="159"/>
+      <c r="AC36" s="159"/>
+      <c r="AD36" s="159"/>
+      <c r="AE36" s="159"/>
+      <c r="AF36" s="159"/>
+      <c r="AG36" s="159"/>
+      <c r="AH36" s="132"/>
+      <c r="AI36" s="132"/>
+      <c r="AJ36" s="132"/>
+      <c r="AK36" s="132"/>
+      <c r="AL36" s="132"/>
+      <c r="AM36" s="132"/>
+      <c r="AN36" s="132"/>
+      <c r="AO36" s="160"/>
+      <c r="AP36" s="160"/>
+      <c r="AQ36" s="160"/>
+      <c r="AR36" s="160"/>
+      <c r="AS36" s="160"/>
+      <c r="AT36" s="160"/>
+      <c r="AU36" s="160"/>
+      <c r="AV36" s="158"/>
+      <c r="AW36" s="158"/>
+      <c r="AX36" s="158"/>
+      <c r="AY36" s="158"/>
+      <c r="AZ36" s="158"/>
+      <c r="BA36" s="161"/>
+      <c r="BB36" s="161"/>
+      <c r="BC36" s="162"/>
+      <c r="BD36" s="162"/>
+      <c r="BE36" s="162"/>
+      <c r="BF36" s="162"/>
+      <c r="BG36" s="162"/>
+      <c r="BH36" s="162"/>
+      <c r="BI36" s="162"/>
+      <c r="BJ36" s="158"/>
+      <c r="BK36" s="158"/>
+      <c r="BL36" s="158"/>
+      <c r="BM36" s="158"/>
+      <c r="BN36" s="158"/>
+      <c r="BO36" s="158"/>
+      <c r="BP36" s="158"/>
+      <c r="BQ36" s="163"/>
+      <c r="BR36" s="163"/>
+      <c r="BS36" s="163"/>
+      <c r="BT36" s="163"/>
+      <c r="BU36" s="163"/>
+      <c r="BV36" s="163"/>
+      <c r="BW36" s="163"/>
+      <c r="BX36" s="161"/>
+      <c r="BY36" s="161"/>
+      <c r="BZ36" s="161"/>
+      <c r="CA36" s="161"/>
+      <c r="CB36" s="161"/>
+      <c r="CC36" s="161"/>
+      <c r="CD36" s="161"/>
+      <c r="CE36" s="164"/>
+      <c r="CF36" s="164"/>
+      <c r="CG36" s="164"/>
+      <c r="CH36" s="164"/>
+      <c r="CI36" s="164"/>
+      <c r="CJ36" s="164"/>
+      <c r="CK36" s="164"/>
     </row>
-    <row r="37" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="37" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A37" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="156"/>
-      <c r="S37" s="156"/>
-      <c r="T37" s="154"/>
-      <c r="U37" s="157"/>
-      <c r="V37" s="157"/>
-      <c r="W37" s="157"/>
-      <c r="X37" s="157"/>
-      <c r="Y37" s="157"/>
-      <c r="Z37" s="157"/>
-      <c r="AA37" s="158"/>
-      <c r="AB37" s="158"/>
-      <c r="AC37" s="158"/>
-      <c r="AD37" s="158"/>
-      <c r="AE37" s="158"/>
-      <c r="AF37" s="158"/>
-      <c r="AG37" s="158"/>
-      <c r="AH37" s="131"/>
-      <c r="AI37" s="131"/>
-      <c r="AJ37" s="131"/>
-      <c r="AK37" s="131"/>
-      <c r="AL37" s="131"/>
-      <c r="AM37" s="131"/>
-      <c r="AN37" s="131"/>
-      <c r="AO37" s="159"/>
-      <c r="AP37" s="159"/>
-      <c r="AQ37" s="159"/>
-      <c r="AR37" s="159"/>
-      <c r="AS37" s="159"/>
-      <c r="AT37" s="159"/>
-      <c r="AU37" s="159"/>
-      <c r="AV37" s="157"/>
-      <c r="AW37" s="157"/>
-      <c r="AX37" s="157"/>
-      <c r="AY37" s="157"/>
-      <c r="AZ37" s="157"/>
-      <c r="BA37" s="160"/>
-      <c r="BB37" s="160"/>
-      <c r="BC37" s="161"/>
-      <c r="BD37" s="161"/>
-      <c r="BE37" s="161"/>
-      <c r="BF37" s="161"/>
-      <c r="BG37" s="161"/>
-      <c r="BH37" s="161"/>
-      <c r="BI37" s="161"/>
-      <c r="BJ37" s="157"/>
-      <c r="BK37" s="157"/>
-      <c r="BL37" s="157"/>
-      <c r="BM37" s="157"/>
-      <c r="BN37" s="157"/>
-      <c r="BO37" s="157"/>
-      <c r="BP37" s="157"/>
-      <c r="BQ37" s="162"/>
-      <c r="BR37" s="162"/>
-      <c r="BS37" s="162"/>
-      <c r="BT37" s="162"/>
-      <c r="BU37" s="162"/>
-      <c r="BV37" s="162"/>
-      <c r="BW37" s="162"/>
-      <c r="BX37" s="160"/>
-      <c r="BY37" s="160"/>
-      <c r="BZ37" s="160"/>
-      <c r="CA37" s="160"/>
-      <c r="CB37" s="160"/>
-      <c r="CC37" s="160"/>
-      <c r="CD37" s="160"/>
-      <c r="CE37" s="163"/>
-      <c r="CF37" s="163"/>
-      <c r="CG37" s="163"/>
-      <c r="CH37" s="163"/>
-      <c r="CI37" s="163"/>
-      <c r="CJ37" s="163"/>
-      <c r="CK37" s="163"/>
+      <c r="B37" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="149"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="155"/>
+      <c r="U37" s="158"/>
+      <c r="V37" s="158"/>
+      <c r="W37" s="158"/>
+      <c r="X37" s="158"/>
+      <c r="Y37" s="158"/>
+      <c r="Z37" s="158"/>
+      <c r="AA37" s="159"/>
+      <c r="AB37" s="159"/>
+      <c r="AC37" s="159"/>
+      <c r="AD37" s="159"/>
+      <c r="AE37" s="159"/>
+      <c r="AF37" s="159"/>
+      <c r="AG37" s="159"/>
+      <c r="AH37" s="132"/>
+      <c r="AI37" s="132"/>
+      <c r="AJ37" s="132"/>
+      <c r="AK37" s="132"/>
+      <c r="AL37" s="132"/>
+      <c r="AM37" s="132"/>
+      <c r="AN37" s="132"/>
+      <c r="AO37" s="160"/>
+      <c r="AP37" s="160"/>
+      <c r="AQ37" s="160"/>
+      <c r="AR37" s="160"/>
+      <c r="AS37" s="160"/>
+      <c r="AT37" s="160"/>
+      <c r="AU37" s="160"/>
+      <c r="AV37" s="158"/>
+      <c r="AW37" s="158"/>
+      <c r="AX37" s="158"/>
+      <c r="AY37" s="158"/>
+      <c r="AZ37" s="158"/>
+      <c r="BA37" s="161"/>
+      <c r="BB37" s="161"/>
+      <c r="BC37" s="162"/>
+      <c r="BD37" s="162"/>
+      <c r="BE37" s="162"/>
+      <c r="BF37" s="162"/>
+      <c r="BG37" s="162"/>
+      <c r="BH37" s="162"/>
+      <c r="BI37" s="162"/>
+      <c r="BJ37" s="158"/>
+      <c r="BK37" s="158"/>
+      <c r="BL37" s="158"/>
+      <c r="BM37" s="158"/>
+      <c r="BN37" s="158"/>
+      <c r="BO37" s="158"/>
+      <c r="BP37" s="158"/>
+      <c r="BQ37" s="163"/>
+      <c r="BR37" s="163"/>
+      <c r="BS37" s="163"/>
+      <c r="BT37" s="163"/>
+      <c r="BU37" s="163"/>
+      <c r="BV37" s="163"/>
+      <c r="BW37" s="163"/>
+      <c r="BX37" s="161"/>
+      <c r="BY37" s="161"/>
+      <c r="BZ37" s="161"/>
+      <c r="CA37" s="161"/>
+      <c r="CB37" s="161"/>
+      <c r="CC37" s="161"/>
+      <c r="CD37" s="161"/>
+      <c r="CE37" s="164"/>
+      <c r="CF37" s="164"/>
+      <c r="CG37" s="164"/>
+      <c r="CH37" s="164"/>
+      <c r="CI37" s="164"/>
+      <c r="CJ37" s="164"/>
+      <c r="CK37" s="164"/>
     </row>
-    <row r="38" ht="21.0" customHeight="1">
-      <c r="A38" s="47">
+    <row r="38" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A38" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="155"/>
+      <c r="U38" s="158"/>
+      <c r="V38" s="158"/>
+      <c r="W38" s="158"/>
+      <c r="X38" s="158"/>
+      <c r="Y38" s="158"/>
+      <c r="Z38" s="158"/>
+      <c r="AA38" s="159"/>
+      <c r="AB38" s="159"/>
+      <c r="AC38" s="159"/>
+      <c r="AD38" s="159"/>
+      <c r="AE38" s="159"/>
+      <c r="AF38" s="159"/>
+      <c r="AG38" s="159"/>
+      <c r="AH38" s="132"/>
+      <c r="AI38" s="132"/>
+      <c r="AJ38" s="132"/>
+      <c r="AK38" s="132"/>
+      <c r="AL38" s="132"/>
+      <c r="AM38" s="132"/>
+      <c r="AN38" s="132"/>
+      <c r="AO38" s="160"/>
+      <c r="AP38" s="160"/>
+      <c r="AQ38" s="160"/>
+      <c r="AR38" s="160"/>
+      <c r="AS38" s="160"/>
+      <c r="AT38" s="160"/>
+      <c r="AU38" s="160"/>
+      <c r="AV38" s="158"/>
+      <c r="AW38" s="158"/>
+      <c r="AX38" s="158"/>
+      <c r="AY38" s="158"/>
+      <c r="AZ38" s="158"/>
+      <c r="BA38" s="161"/>
+      <c r="BB38" s="161"/>
+      <c r="BC38" s="162"/>
+      <c r="BD38" s="162"/>
+      <c r="BE38" s="162"/>
+      <c r="BF38" s="162"/>
+      <c r="BG38" s="162"/>
+      <c r="BH38" s="162"/>
+      <c r="BI38" s="162"/>
+      <c r="BJ38" s="158"/>
+      <c r="BK38" s="158"/>
+      <c r="BL38" s="158"/>
+      <c r="BM38" s="158"/>
+      <c r="BN38" s="158"/>
+      <c r="BO38" s="158"/>
+      <c r="BP38" s="158"/>
+      <c r="BQ38" s="163"/>
+      <c r="BR38" s="163"/>
+      <c r="BS38" s="163"/>
+      <c r="BT38" s="163"/>
+      <c r="BU38" s="163"/>
+      <c r="BV38" s="163"/>
+      <c r="BW38" s="163"/>
+      <c r="BX38" s="161"/>
+      <c r="BY38" s="161"/>
+      <c r="BZ38" s="161"/>
+      <c r="CA38" s="161"/>
+      <c r="CB38" s="161"/>
+      <c r="CC38" s="161"/>
+      <c r="CD38" s="161"/>
+      <c r="CE38" s="164"/>
+      <c r="CF38" s="164"/>
+      <c r="CG38" s="164"/>
+      <c r="CH38" s="164"/>
+      <c r="CI38" s="164"/>
+      <c r="CJ38" s="164"/>
+      <c r="CK38" s="164"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A39" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="157"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="155"/>
+      <c r="U39" s="158"/>
+      <c r="V39" s="158"/>
+      <c r="W39" s="158"/>
+      <c r="X39" s="158"/>
+      <c r="Y39" s="158"/>
+      <c r="Z39" s="158"/>
+      <c r="AA39" s="159"/>
+      <c r="AB39" s="159"/>
+      <c r="AC39" s="159"/>
+      <c r="AD39" s="159"/>
+      <c r="AE39" s="159"/>
+      <c r="AF39" s="159"/>
+      <c r="AG39" s="159"/>
+      <c r="AH39" s="132"/>
+      <c r="AI39" s="132"/>
+      <c r="AJ39" s="132"/>
+      <c r="AK39" s="132"/>
+      <c r="AL39" s="132"/>
+      <c r="AM39" s="132"/>
+      <c r="AN39" s="132"/>
+      <c r="AO39" s="160"/>
+      <c r="AP39" s="160"/>
+      <c r="AQ39" s="160"/>
+      <c r="AR39" s="160"/>
+      <c r="AS39" s="160"/>
+      <c r="AT39" s="160"/>
+      <c r="AU39" s="160"/>
+      <c r="AV39" s="158"/>
+      <c r="AW39" s="158"/>
+      <c r="AX39" s="158"/>
+      <c r="AY39" s="158"/>
+      <c r="AZ39" s="158"/>
+      <c r="BA39" s="161"/>
+      <c r="BB39" s="161"/>
+      <c r="BC39" s="162"/>
+      <c r="BD39" s="162"/>
+      <c r="BE39" s="162"/>
+      <c r="BF39" s="162"/>
+      <c r="BG39" s="162"/>
+      <c r="BH39" s="162"/>
+      <c r="BI39" s="162"/>
+      <c r="BJ39" s="158"/>
+      <c r="BK39" s="158"/>
+      <c r="BL39" s="158"/>
+      <c r="BM39" s="158"/>
+      <c r="BN39" s="158"/>
+      <c r="BO39" s="158"/>
+      <c r="BP39" s="158"/>
+      <c r="BQ39" s="163"/>
+      <c r="BR39" s="163"/>
+      <c r="BS39" s="163"/>
+      <c r="BT39" s="163"/>
+      <c r="BU39" s="163"/>
+      <c r="BV39" s="163"/>
+      <c r="BW39" s="163"/>
+      <c r="BX39" s="161"/>
+      <c r="BY39" s="161"/>
+      <c r="BZ39" s="161"/>
+      <c r="CA39" s="161"/>
+      <c r="CB39" s="161"/>
+      <c r="CC39" s="161"/>
+      <c r="CD39" s="161"/>
+      <c r="CE39" s="164"/>
+      <c r="CF39" s="164"/>
+      <c r="CG39" s="164"/>
+      <c r="CH39" s="164"/>
+      <c r="CI39" s="164"/>
+      <c r="CJ39" s="164"/>
+      <c r="CK39" s="164"/>
+    </row>
+    <row r="40" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A40" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="72"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="157"/>
+      <c r="R40" s="157"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="155"/>
+      <c r="U40" s="158"/>
+      <c r="V40" s="158"/>
+      <c r="W40" s="158"/>
+      <c r="X40" s="158"/>
+      <c r="Y40" s="158"/>
+      <c r="Z40" s="158"/>
+      <c r="AA40" s="159"/>
+      <c r="AB40" s="159"/>
+      <c r="AC40" s="159"/>
+      <c r="AD40" s="159"/>
+      <c r="AE40" s="159"/>
+      <c r="AF40" s="159"/>
+      <c r="AG40" s="159"/>
+      <c r="AH40" s="132"/>
+      <c r="AI40" s="132"/>
+      <c r="AJ40" s="132"/>
+      <c r="AK40" s="132"/>
+      <c r="AL40" s="132"/>
+      <c r="AM40" s="132"/>
+      <c r="AN40" s="132"/>
+      <c r="AO40" s="160"/>
+      <c r="AP40" s="160"/>
+      <c r="AQ40" s="160"/>
+      <c r="AR40" s="160"/>
+      <c r="AS40" s="160"/>
+      <c r="AT40" s="160"/>
+      <c r="AU40" s="160"/>
+      <c r="AV40" s="158"/>
+      <c r="AW40" s="158"/>
+      <c r="AX40" s="158"/>
+      <c r="AY40" s="158"/>
+      <c r="AZ40" s="158"/>
+      <c r="BA40" s="161"/>
+      <c r="BB40" s="161"/>
+      <c r="BC40" s="162"/>
+      <c r="BD40" s="162"/>
+      <c r="BE40" s="162"/>
+      <c r="BF40" s="162"/>
+      <c r="BG40" s="162"/>
+      <c r="BH40" s="162"/>
+      <c r="BI40" s="162"/>
+      <c r="BJ40" s="158"/>
+      <c r="BK40" s="158"/>
+      <c r="BL40" s="158"/>
+      <c r="BM40" s="158"/>
+      <c r="BN40" s="158"/>
+      <c r="BO40" s="158"/>
+      <c r="BP40" s="158"/>
+      <c r="BQ40" s="163"/>
+      <c r="BR40" s="163"/>
+      <c r="BS40" s="163"/>
+      <c r="BT40" s="163"/>
+      <c r="BU40" s="163"/>
+      <c r="BV40" s="163"/>
+      <c r="BW40" s="163"/>
+      <c r="BX40" s="161"/>
+      <c r="BY40" s="161"/>
+      <c r="BZ40" s="161"/>
+      <c r="CA40" s="161"/>
+      <c r="CB40" s="161"/>
+      <c r="CC40" s="161"/>
+      <c r="CD40" s="161"/>
+      <c r="CE40" s="164"/>
+      <c r="CF40" s="164"/>
+      <c r="CG40" s="164"/>
+      <c r="CH40" s="164"/>
+      <c r="CI40" s="164"/>
+      <c r="CJ40" s="164"/>
+      <c r="CK40" s="164"/>
+    </row>
+    <row r="41" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A41" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="149" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="72"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="157"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="157"/>
+      <c r="R41" s="157"/>
+      <c r="S41" s="157"/>
+      <c r="T41" s="155"/>
+      <c r="U41" s="158"/>
+      <c r="V41" s="158"/>
+      <c r="W41" s="158"/>
+      <c r="X41" s="158"/>
+      <c r="Y41" s="158"/>
+      <c r="Z41" s="158"/>
+      <c r="AA41" s="159"/>
+      <c r="AB41" s="159"/>
+      <c r="AC41" s="159"/>
+      <c r="AD41" s="159"/>
+      <c r="AE41" s="159"/>
+      <c r="AF41" s="159"/>
+      <c r="AG41" s="159"/>
+      <c r="AH41" s="132"/>
+      <c r="AI41" s="132"/>
+      <c r="AJ41" s="132"/>
+      <c r="AK41" s="132"/>
+      <c r="AL41" s="132"/>
+      <c r="AM41" s="132"/>
+      <c r="AN41" s="132"/>
+      <c r="AO41" s="160"/>
+      <c r="AP41" s="160"/>
+      <c r="AQ41" s="160"/>
+      <c r="AR41" s="160"/>
+      <c r="AS41" s="160"/>
+      <c r="AT41" s="160"/>
+      <c r="AU41" s="160"/>
+      <c r="AV41" s="158"/>
+      <c r="AW41" s="158"/>
+      <c r="AX41" s="158"/>
+      <c r="AY41" s="158"/>
+      <c r="AZ41" s="158"/>
+      <c r="BA41" s="161"/>
+      <c r="BB41" s="161"/>
+      <c r="BC41" s="162"/>
+      <c r="BD41" s="162"/>
+      <c r="BE41" s="162"/>
+      <c r="BF41" s="162"/>
+      <c r="BG41" s="162"/>
+      <c r="BH41" s="162"/>
+      <c r="BI41" s="162"/>
+      <c r="BJ41" s="158"/>
+      <c r="BK41" s="158"/>
+      <c r="BL41" s="158"/>
+      <c r="BM41" s="158"/>
+      <c r="BN41" s="158"/>
+      <c r="BO41" s="158"/>
+      <c r="BP41" s="158"/>
+      <c r="BQ41" s="163"/>
+      <c r="BR41" s="163"/>
+      <c r="BS41" s="163"/>
+      <c r="BT41" s="163"/>
+      <c r="BU41" s="163"/>
+      <c r="BV41" s="163"/>
+      <c r="BW41" s="163"/>
+      <c r="BX41" s="161"/>
+      <c r="BY41" s="161"/>
+      <c r="BZ41" s="161"/>
+      <c r="CA41" s="161"/>
+      <c r="CB41" s="161"/>
+      <c r="CC41" s="161"/>
+      <c r="CD41" s="161"/>
+      <c r="CE41" s="164"/>
+      <c r="CF41" s="164"/>
+      <c r="CG41" s="164"/>
+      <c r="CH41" s="164"/>
+      <c r="CI41" s="164"/>
+      <c r="CJ41" s="164"/>
+      <c r="CK41" s="164"/>
+    </row>
+    <row r="42" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A42" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="149" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="157"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="157"/>
+      <c r="S42" s="157"/>
+      <c r="T42" s="155"/>
+      <c r="U42" s="158"/>
+      <c r="V42" s="158"/>
+      <c r="W42" s="158"/>
+      <c r="X42" s="158"/>
+      <c r="Y42" s="158"/>
+      <c r="Z42" s="158"/>
+      <c r="AA42" s="159"/>
+      <c r="AB42" s="159"/>
+      <c r="AC42" s="159"/>
+      <c r="AD42" s="159"/>
+      <c r="AE42" s="159"/>
+      <c r="AF42" s="159"/>
+      <c r="AG42" s="159"/>
+      <c r="AH42" s="132"/>
+      <c r="AI42" s="132"/>
+      <c r="AJ42" s="132"/>
+      <c r="AK42" s="132"/>
+      <c r="AL42" s="132"/>
+      <c r="AM42" s="132"/>
+      <c r="AN42" s="132"/>
+      <c r="AO42" s="160"/>
+      <c r="AP42" s="160"/>
+      <c r="AQ42" s="160"/>
+      <c r="AR42" s="160"/>
+      <c r="AS42" s="160"/>
+      <c r="AT42" s="160"/>
+      <c r="AU42" s="160"/>
+      <c r="AV42" s="158"/>
+      <c r="AW42" s="158"/>
+      <c r="AX42" s="158"/>
+      <c r="AY42" s="158"/>
+      <c r="AZ42" s="158"/>
+      <c r="BA42" s="161"/>
+      <c r="BB42" s="161"/>
+      <c r="BC42" s="162"/>
+      <c r="BD42" s="162"/>
+      <c r="BE42" s="162"/>
+      <c r="BF42" s="162"/>
+      <c r="BG42" s="162"/>
+      <c r="BH42" s="162"/>
+      <c r="BI42" s="162"/>
+      <c r="BJ42" s="158"/>
+      <c r="BK42" s="158"/>
+      <c r="BL42" s="158"/>
+      <c r="BM42" s="158"/>
+      <c r="BN42" s="158"/>
+      <c r="BO42" s="158"/>
+      <c r="BP42" s="158"/>
+      <c r="BQ42" s="163"/>
+      <c r="BR42" s="163"/>
+      <c r="BS42" s="163"/>
+      <c r="BT42" s="163"/>
+      <c r="BU42" s="163"/>
+      <c r="BV42" s="163"/>
+      <c r="BW42" s="163"/>
+      <c r="BX42" s="161"/>
+      <c r="BY42" s="161"/>
+      <c r="BZ42" s="161"/>
+      <c r="CA42" s="161"/>
+      <c r="CB42" s="161"/>
+      <c r="CC42" s="161"/>
+      <c r="CD42" s="161"/>
+      <c r="CE42" s="164"/>
+      <c r="CF42" s="164"/>
+      <c r="CG42" s="164"/>
+      <c r="CH42" s="164"/>
+      <c r="CI42" s="164"/>
+      <c r="CJ42" s="164"/>
+      <c r="CK42" s="164"/>
+    </row>
+    <row r="43" ht="21.0" customHeight="1">
+      <c r="A43" s="47">
         <v>3.0</v>
       </c>
-      <c r="B38" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="53"/>
-      <c r="AK38" s="53"/>
-      <c r="AL38" s="53"/>
-      <c r="AM38" s="53"/>
-      <c r="AN38" s="53"/>
-      <c r="AO38" s="53"/>
-      <c r="AP38" s="53"/>
-      <c r="AQ38" s="53"/>
-      <c r="AR38" s="53"/>
-      <c r="AS38" s="53"/>
-      <c r="AT38" s="53"/>
-      <c r="AU38" s="53"/>
-      <c r="AV38" s="53"/>
-      <c r="AW38" s="53"/>
-      <c r="AX38" s="53"/>
-      <c r="AY38" s="53"/>
-      <c r="AZ38" s="53"/>
-      <c r="BA38" s="53"/>
-      <c r="BB38" s="53"/>
-      <c r="BC38" s="53"/>
-      <c r="BD38" s="53"/>
-      <c r="BE38" s="53"/>
-      <c r="BF38" s="53"/>
-      <c r="BG38" s="53"/>
-      <c r="BH38" s="53"/>
-      <c r="BI38" s="53"/>
-      <c r="BJ38" s="53"/>
-      <c r="BK38" s="53"/>
-      <c r="BL38" s="53"/>
-      <c r="BM38" s="53"/>
-      <c r="BN38" s="53"/>
-      <c r="BO38" s="53"/>
-      <c r="BP38" s="53"/>
-      <c r="BQ38" s="53"/>
-      <c r="BR38" s="53"/>
-      <c r="BS38" s="53"/>
-      <c r="BT38" s="53"/>
-      <c r="BU38" s="53"/>
-      <c r="BV38" s="53"/>
-      <c r="BW38" s="53"/>
-      <c r="BX38" s="53"/>
-      <c r="BY38" s="53"/>
-      <c r="BZ38" s="53"/>
-      <c r="CA38" s="53"/>
-      <c r="CB38" s="53"/>
-      <c r="CC38" s="53"/>
-      <c r="CD38" s="53"/>
-      <c r="CE38" s="53"/>
-      <c r="CF38" s="53"/>
-      <c r="CG38" s="53"/>
-      <c r="CH38" s="53"/>
-      <c r="CI38" s="53"/>
-      <c r="CJ38" s="53"/>
-      <c r="CK38" s="53"/>
-    </row>
-    <row r="39" ht="21.0" customHeight="1" collapsed="1">
-      <c r="A39" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="62"/>
-      <c r="AH39" s="62"/>
-      <c r="AI39" s="62"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="62"/>
-      <c r="AL39" s="62"/>
-      <c r="AM39" s="62"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="62"/>
-      <c r="AP39" s="62"/>
-      <c r="AQ39" s="62"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="62"/>
-      <c r="AU39" s="62"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="62"/>
-      <c r="AX39" s="62"/>
-      <c r="AY39" s="62"/>
-      <c r="AZ39" s="62"/>
-      <c r="BA39" s="62"/>
-      <c r="BB39" s="62"/>
-      <c r="BC39" s="62"/>
-      <c r="BD39" s="62"/>
-      <c r="BE39" s="62"/>
-      <c r="BF39" s="62"/>
-      <c r="BG39" s="62"/>
-      <c r="BH39" s="62"/>
-      <c r="BI39" s="62"/>
-      <c r="BJ39" s="62"/>
-      <c r="BK39" s="62"/>
-      <c r="BL39" s="62"/>
-      <c r="BM39" s="62"/>
-      <c r="BN39" s="62"/>
-      <c r="BO39" s="62"/>
-      <c r="BP39" s="62"/>
-      <c r="BQ39" s="62"/>
-      <c r="BR39" s="62"/>
-      <c r="BS39" s="62"/>
-      <c r="BT39" s="62"/>
-      <c r="BU39" s="62"/>
-      <c r="BV39" s="62"/>
-      <c r="BW39" s="62"/>
-      <c r="BX39" s="62"/>
-      <c r="BY39" s="62"/>
-      <c r="BZ39" s="62"/>
-      <c r="CA39" s="62"/>
-      <c r="CB39" s="62"/>
-      <c r="CC39" s="62"/>
-      <c r="CD39" s="62"/>
-      <c r="CE39" s="62"/>
-      <c r="CF39" s="62"/>
-      <c r="CG39" s="62"/>
-      <c r="CH39" s="62"/>
-      <c r="CI39" s="62"/>
-      <c r="CJ39" s="62"/>
-      <c r="CK39" s="62"/>
-    </row>
-    <row r="40" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="164" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="154"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
-      <c r="N40" s="156"/>
-      <c r="O40" s="156"/>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="156"/>
-      <c r="R40" s="156"/>
-      <c r="S40" s="156"/>
-      <c r="T40" s="154"/>
-      <c r="U40" s="157"/>
-      <c r="V40" s="157"/>
-      <c r="W40" s="157"/>
-      <c r="X40" s="157"/>
-      <c r="Y40" s="157"/>
-      <c r="Z40" s="157"/>
-      <c r="AA40" s="158"/>
-      <c r="AB40" s="158"/>
-      <c r="AC40" s="158"/>
-      <c r="AD40" s="158"/>
-      <c r="AE40" s="158"/>
-      <c r="AF40" s="158"/>
-      <c r="AG40" s="158"/>
-      <c r="AH40" s="160"/>
-      <c r="AI40" s="160"/>
-      <c r="AJ40" s="160"/>
-      <c r="AK40" s="160"/>
-      <c r="AL40" s="160"/>
-      <c r="AM40" s="157"/>
-      <c r="AN40" s="157"/>
-      <c r="AO40" s="159"/>
-      <c r="AP40" s="159"/>
-      <c r="AQ40" s="159"/>
-      <c r="AR40" s="159"/>
-      <c r="AS40" s="159"/>
-      <c r="AT40" s="159"/>
-      <c r="AU40" s="159"/>
-      <c r="AV40" s="160"/>
-      <c r="AW40" s="160"/>
-      <c r="AX40" s="160"/>
-      <c r="AY40" s="160"/>
-      <c r="AZ40" s="160"/>
-      <c r="BA40" s="160"/>
-      <c r="BB40" s="160"/>
-      <c r="BC40" s="161"/>
-      <c r="BD40" s="161"/>
-      <c r="BE40" s="161"/>
-      <c r="BF40" s="161"/>
-      <c r="BG40" s="161"/>
-      <c r="BH40" s="161"/>
-      <c r="BI40" s="161"/>
-      <c r="BJ40" s="157"/>
-      <c r="BK40" s="157"/>
-      <c r="BL40" s="157"/>
-      <c r="BM40" s="157"/>
-      <c r="BN40" s="157"/>
-      <c r="BO40" s="157"/>
-      <c r="BP40" s="157"/>
-      <c r="BQ40" s="162"/>
-      <c r="BR40" s="162"/>
-      <c r="BS40" s="162"/>
-      <c r="BT40" s="162"/>
-      <c r="BU40" s="162"/>
-      <c r="BV40" s="162"/>
-      <c r="BW40" s="162"/>
-      <c r="BX40" s="160"/>
-      <c r="BY40" s="160"/>
-      <c r="BZ40" s="160"/>
-      <c r="CA40" s="160"/>
-      <c r="CB40" s="160"/>
-      <c r="CC40" s="160"/>
-      <c r="CD40" s="160"/>
-      <c r="CE40" s="163"/>
-      <c r="CF40" s="163"/>
-      <c r="CG40" s="163"/>
-      <c r="CH40" s="163"/>
-      <c r="CI40" s="163"/>
-      <c r="CJ40" s="163"/>
-      <c r="CK40" s="163"/>
-    </row>
-    <row r="41" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="148" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="154"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="156"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="156"/>
-      <c r="T41" s="154"/>
-      <c r="U41" s="157"/>
-      <c r="V41" s="157"/>
-      <c r="W41" s="157"/>
-      <c r="X41" s="157"/>
-      <c r="Y41" s="157"/>
-      <c r="Z41" s="157"/>
-      <c r="AA41" s="158"/>
-      <c r="AB41" s="158"/>
-      <c r="AC41" s="158"/>
-      <c r="AD41" s="158"/>
-      <c r="AE41" s="158"/>
-      <c r="AF41" s="158"/>
-      <c r="AG41" s="158"/>
-      <c r="AH41" s="160"/>
-      <c r="AI41" s="160"/>
-      <c r="AJ41" s="160"/>
-      <c r="AK41" s="160"/>
-      <c r="AL41" s="160"/>
-      <c r="AM41" s="157"/>
-      <c r="AN41" s="157"/>
-      <c r="AO41" s="159"/>
-      <c r="AP41" s="159"/>
-      <c r="AQ41" s="159"/>
-      <c r="AR41" s="159"/>
-      <c r="AS41" s="159"/>
-      <c r="AT41" s="159"/>
-      <c r="AU41" s="159"/>
-      <c r="AV41" s="160"/>
-      <c r="AW41" s="160"/>
-      <c r="AX41" s="160"/>
-      <c r="AY41" s="160"/>
-      <c r="AZ41" s="160"/>
-      <c r="BA41" s="160"/>
-      <c r="BB41" s="160"/>
-      <c r="BC41" s="161"/>
-      <c r="BD41" s="161"/>
-      <c r="BE41" s="161"/>
-      <c r="BF41" s="161"/>
-      <c r="BG41" s="161"/>
-      <c r="BH41" s="161"/>
-      <c r="BI41" s="161"/>
-      <c r="BJ41" s="157"/>
-      <c r="BK41" s="157"/>
-      <c r="BL41" s="157"/>
-      <c r="BM41" s="157"/>
-      <c r="BN41" s="157"/>
-      <c r="BO41" s="157"/>
-      <c r="BP41" s="157"/>
-      <c r="BQ41" s="162"/>
-      <c r="BR41" s="162"/>
-      <c r="BS41" s="162"/>
-      <c r="BT41" s="162"/>
-      <c r="BU41" s="162"/>
-      <c r="BV41" s="162"/>
-      <c r="BW41" s="162"/>
-      <c r="BX41" s="160"/>
-      <c r="BY41" s="160"/>
-      <c r="BZ41" s="160"/>
-      <c r="CA41" s="160"/>
-      <c r="CB41" s="160"/>
-      <c r="CC41" s="160"/>
-      <c r="CD41" s="160"/>
-      <c r="CE41" s="163"/>
-      <c r="CF41" s="163"/>
-      <c r="CG41" s="163"/>
-      <c r="CH41" s="163"/>
-      <c r="CI41" s="163"/>
-      <c r="CJ41" s="163"/>
-      <c r="CK41" s="163"/>
-    </row>
-    <row r="42" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A42" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="148" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="154"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="156"/>
-      <c r="R42" s="156"/>
-      <c r="S42" s="156"/>
-      <c r="T42" s="154"/>
-      <c r="U42" s="157"/>
-      <c r="V42" s="157"/>
-      <c r="W42" s="157"/>
-      <c r="X42" s="157"/>
-      <c r="Y42" s="157"/>
-      <c r="Z42" s="157"/>
-      <c r="AA42" s="158"/>
-      <c r="AB42" s="158"/>
-      <c r="AC42" s="158"/>
-      <c r="AD42" s="158"/>
-      <c r="AE42" s="158"/>
-      <c r="AF42" s="158"/>
-      <c r="AG42" s="158"/>
-      <c r="AH42" s="160"/>
-      <c r="AI42" s="160"/>
-      <c r="AJ42" s="160"/>
-      <c r="AK42" s="160"/>
-      <c r="AL42" s="160"/>
-      <c r="AM42" s="157"/>
-      <c r="AN42" s="157"/>
-      <c r="AO42" s="159"/>
-      <c r="AP42" s="159"/>
-      <c r="AQ42" s="159"/>
-      <c r="AR42" s="159"/>
-      <c r="AS42" s="159"/>
-      <c r="AT42" s="159"/>
-      <c r="AU42" s="159"/>
-      <c r="AV42" s="160"/>
-      <c r="AW42" s="160"/>
-      <c r="AX42" s="160"/>
-      <c r="AY42" s="160"/>
-      <c r="AZ42" s="160"/>
-      <c r="BA42" s="160"/>
-      <c r="BB42" s="160"/>
-      <c r="BC42" s="161"/>
-      <c r="BD42" s="161"/>
-      <c r="BE42" s="161"/>
-      <c r="BF42" s="161"/>
-      <c r="BG42" s="161"/>
-      <c r="BH42" s="161"/>
-      <c r="BI42" s="161"/>
-      <c r="BJ42" s="157"/>
-      <c r="BK42" s="157"/>
-      <c r="BL42" s="157"/>
-      <c r="BM42" s="157"/>
-      <c r="BN42" s="157"/>
-      <c r="BO42" s="157"/>
-      <c r="BP42" s="157"/>
-      <c r="BQ42" s="162"/>
-      <c r="BR42" s="162"/>
-      <c r="BS42" s="162"/>
-      <c r="BT42" s="162"/>
-      <c r="BU42" s="162"/>
-      <c r="BV42" s="162"/>
-      <c r="BW42" s="162"/>
-      <c r="BX42" s="160"/>
-      <c r="BY42" s="160"/>
-      <c r="BZ42" s="160"/>
-      <c r="CA42" s="160"/>
-      <c r="CB42" s="160"/>
-      <c r="CC42" s="160"/>
-      <c r="CD42" s="160"/>
-      <c r="CE42" s="163"/>
-      <c r="CF42" s="163"/>
-      <c r="CG42" s="163"/>
-      <c r="CH42" s="163"/>
-      <c r="CI42" s="163"/>
-      <c r="CJ42" s="163"/>
-      <c r="CK42" s="163"/>
-    </row>
-    <row r="43" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A43" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="165" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="148"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="154"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="156"/>
-      <c r="P43" s="156"/>
-      <c r="Q43" s="156"/>
-      <c r="R43" s="156"/>
-      <c r="S43" s="156"/>
-      <c r="T43" s="154"/>
-      <c r="U43" s="157"/>
-      <c r="V43" s="157"/>
-      <c r="W43" s="157"/>
-      <c r="X43" s="157"/>
-      <c r="Y43" s="157"/>
-      <c r="Z43" s="157"/>
-      <c r="AA43" s="158"/>
-      <c r="AB43" s="158"/>
-      <c r="AC43" s="158"/>
-      <c r="AD43" s="158"/>
-      <c r="AE43" s="158"/>
-      <c r="AF43" s="158"/>
-      <c r="AG43" s="158"/>
-      <c r="AH43" s="160"/>
-      <c r="AI43" s="160"/>
-      <c r="AJ43" s="160"/>
-      <c r="AK43" s="160"/>
-      <c r="AL43" s="160"/>
-      <c r="AM43" s="157"/>
-      <c r="AN43" s="157"/>
-      <c r="AO43" s="159"/>
-      <c r="AP43" s="159"/>
-      <c r="AQ43" s="159"/>
-      <c r="AR43" s="159"/>
-      <c r="AS43" s="159"/>
-      <c r="AT43" s="159"/>
-      <c r="AU43" s="159"/>
-      <c r="AV43" s="160"/>
-      <c r="AW43" s="160"/>
-      <c r="AX43" s="160"/>
-      <c r="AY43" s="160"/>
-      <c r="AZ43" s="160"/>
-      <c r="BA43" s="160"/>
-      <c r="BB43" s="160"/>
-      <c r="BC43" s="161"/>
-      <c r="BD43" s="161"/>
-      <c r="BE43" s="161"/>
-      <c r="BF43" s="161"/>
-      <c r="BG43" s="161"/>
-      <c r="BH43" s="161"/>
-      <c r="BI43" s="161"/>
-      <c r="BJ43" s="157"/>
-      <c r="BK43" s="157"/>
-      <c r="BL43" s="157"/>
-      <c r="BM43" s="157"/>
-      <c r="BN43" s="157"/>
-      <c r="BO43" s="157"/>
-      <c r="BP43" s="157"/>
-      <c r="BQ43" s="162"/>
-      <c r="BR43" s="162"/>
-      <c r="BS43" s="162"/>
-      <c r="BT43" s="162"/>
-      <c r="BU43" s="162"/>
-      <c r="BV43" s="162"/>
-      <c r="BW43" s="162"/>
-      <c r="BX43" s="160"/>
-      <c r="BY43" s="160"/>
-      <c r="BZ43" s="160"/>
-      <c r="CA43" s="160"/>
-      <c r="CB43" s="160"/>
-      <c r="CC43" s="160"/>
-      <c r="CD43" s="160"/>
-      <c r="CE43" s="163"/>
-      <c r="CF43" s="163"/>
-      <c r="CG43" s="163"/>
-      <c r="CH43" s="163"/>
-      <c r="CI43" s="163"/>
-      <c r="CJ43" s="163"/>
-      <c r="CK43" s="163"/>
+      <c r="B43" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="53"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="53"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="53"/>
+      <c r="AS43" s="53"/>
+      <c r="AT43" s="53"/>
+      <c r="AU43" s="53"/>
+      <c r="AV43" s="53"/>
+      <c r="AW43" s="53"/>
+      <c r="AX43" s="53"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="53"/>
+      <c r="BA43" s="53"/>
+      <c r="BB43" s="53"/>
+      <c r="BC43" s="53"/>
+      <c r="BD43" s="53"/>
+      <c r="BE43" s="53"/>
+      <c r="BF43" s="53"/>
+      <c r="BG43" s="53"/>
+      <c r="BH43" s="53"/>
+      <c r="BI43" s="53"/>
+      <c r="BJ43" s="53"/>
+      <c r="BK43" s="53"/>
+      <c r="BL43" s="53"/>
+      <c r="BM43" s="53"/>
+      <c r="BN43" s="53"/>
+      <c r="BO43" s="53"/>
+      <c r="BP43" s="53"/>
+      <c r="BQ43" s="53"/>
+      <c r="BR43" s="53"/>
+      <c r="BS43" s="53"/>
+      <c r="BT43" s="53"/>
+      <c r="BU43" s="53"/>
+      <c r="BV43" s="53"/>
+      <c r="BW43" s="53"/>
+      <c r="BX43" s="53"/>
+      <c r="BY43" s="53"/>
+      <c r="BZ43" s="53"/>
+      <c r="CA43" s="53"/>
+      <c r="CB43" s="53"/>
+      <c r="CC43" s="53"/>
+      <c r="CD43" s="53"/>
+      <c r="CE43" s="53"/>
+      <c r="CF43" s="53"/>
+      <c r="CG43" s="53"/>
+      <c r="CH43" s="53"/>
+      <c r="CI43" s="53"/>
+      <c r="CJ43" s="53"/>
+      <c r="CK43" s="53"/>
     </row>
     <row r="44" ht="21.0" customHeight="1" collapsed="1">
       <c r="A44" s="57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" s="56"/>
       <c r="D44" s="109"/>
@@ -5859,960 +5925,960 @@
     </row>
     <row r="45" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A45" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="72" t="s">
         <v>111</v>
+      </c>
+      <c r="B45" s="165" t="s">
+        <v>112</v>
       </c>
       <c r="C45" s="72"/>
       <c r="D45" s="73"/>
       <c r="E45" s="73"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="166"/>
-      <c r="O45" s="166"/>
-      <c r="P45" s="166"/>
-      <c r="Q45" s="166"/>
-      <c r="R45" s="166"/>
-      <c r="S45" s="166"/>
-      <c r="T45" s="117"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="117"/>
-      <c r="X45" s="117"/>
-      <c r="Y45" s="117"/>
-      <c r="Z45" s="117"/>
-      <c r="AA45" s="167"/>
-      <c r="AB45" s="167"/>
-      <c r="AC45" s="167"/>
-      <c r="AD45" s="167"/>
-      <c r="AE45" s="167"/>
-      <c r="AF45" s="167"/>
-      <c r="AG45" s="167"/>
-      <c r="AH45" s="116"/>
-      <c r="AI45" s="116"/>
-      <c r="AJ45" s="116"/>
-      <c r="AK45" s="116"/>
-      <c r="AL45" s="116"/>
-      <c r="AM45" s="117"/>
-      <c r="AN45" s="117"/>
-      <c r="AO45" s="118"/>
-      <c r="AP45" s="118"/>
-      <c r="AQ45" s="118"/>
-      <c r="AR45" s="118"/>
-      <c r="AS45" s="118"/>
-      <c r="AT45" s="118"/>
-      <c r="AU45" s="118"/>
-      <c r="AV45" s="117"/>
-      <c r="AW45" s="117"/>
-      <c r="AX45" s="117"/>
-      <c r="AY45" s="117"/>
-      <c r="AZ45" s="117"/>
-      <c r="BA45" s="116"/>
-      <c r="BB45" s="116"/>
-      <c r="BC45" s="119"/>
-      <c r="BD45" s="119"/>
-      <c r="BE45" s="119"/>
-      <c r="BF45" s="119"/>
-      <c r="BG45" s="119"/>
-      <c r="BH45" s="119"/>
-      <c r="BI45" s="119"/>
-      <c r="BJ45" s="157"/>
-      <c r="BK45" s="157"/>
-      <c r="BL45" s="157"/>
-      <c r="BM45" s="157"/>
-      <c r="BN45" s="157"/>
-      <c r="BO45" s="157"/>
-      <c r="BP45" s="157"/>
-      <c r="BQ45" s="120"/>
-      <c r="BR45" s="120"/>
-      <c r="BS45" s="120"/>
-      <c r="BT45" s="120"/>
-      <c r="BU45" s="120"/>
-      <c r="BV45" s="120"/>
-      <c r="BW45" s="120"/>
-      <c r="BX45" s="116"/>
-      <c r="BY45" s="116"/>
-      <c r="BZ45" s="116"/>
-      <c r="CA45" s="116"/>
-      <c r="CB45" s="116"/>
-      <c r="CC45" s="116"/>
-      <c r="CD45" s="116"/>
-      <c r="CE45" s="121"/>
-      <c r="CF45" s="121"/>
-      <c r="CG45" s="121"/>
-      <c r="CH45" s="121"/>
-      <c r="CI45" s="122"/>
-      <c r="CJ45" s="122"/>
-      <c r="CK45" s="123"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="157"/>
+      <c r="P45" s="157"/>
+      <c r="Q45" s="157"/>
+      <c r="R45" s="157"/>
+      <c r="S45" s="157"/>
+      <c r="T45" s="155"/>
+      <c r="U45" s="158"/>
+      <c r="V45" s="158"/>
+      <c r="W45" s="158"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="158"/>
+      <c r="Z45" s="158"/>
+      <c r="AA45" s="159"/>
+      <c r="AB45" s="159"/>
+      <c r="AC45" s="159"/>
+      <c r="AD45" s="159"/>
+      <c r="AE45" s="159"/>
+      <c r="AF45" s="159"/>
+      <c r="AG45" s="159"/>
+      <c r="AH45" s="161"/>
+      <c r="AI45" s="161"/>
+      <c r="AJ45" s="161"/>
+      <c r="AK45" s="161"/>
+      <c r="AL45" s="161"/>
+      <c r="AM45" s="158"/>
+      <c r="AN45" s="158"/>
+      <c r="AO45" s="160"/>
+      <c r="AP45" s="160"/>
+      <c r="AQ45" s="160"/>
+      <c r="AR45" s="160"/>
+      <c r="AS45" s="160"/>
+      <c r="AT45" s="160"/>
+      <c r="AU45" s="160"/>
+      <c r="AV45" s="161"/>
+      <c r="AW45" s="161"/>
+      <c r="AX45" s="161"/>
+      <c r="AY45" s="161"/>
+      <c r="AZ45" s="161"/>
+      <c r="BA45" s="161"/>
+      <c r="BB45" s="161"/>
+      <c r="BC45" s="162"/>
+      <c r="BD45" s="162"/>
+      <c r="BE45" s="162"/>
+      <c r="BF45" s="162"/>
+      <c r="BG45" s="162"/>
+      <c r="BH45" s="162"/>
+      <c r="BI45" s="162"/>
+      <c r="BJ45" s="158"/>
+      <c r="BK45" s="158"/>
+      <c r="BL45" s="158"/>
+      <c r="BM45" s="158"/>
+      <c r="BN45" s="158"/>
+      <c r="BO45" s="158"/>
+      <c r="BP45" s="158"/>
+      <c r="BQ45" s="163"/>
+      <c r="BR45" s="163"/>
+      <c r="BS45" s="163"/>
+      <c r="BT45" s="163"/>
+      <c r="BU45" s="163"/>
+      <c r="BV45" s="163"/>
+      <c r="BW45" s="163"/>
+      <c r="BX45" s="161"/>
+      <c r="BY45" s="161"/>
+      <c r="BZ45" s="161"/>
+      <c r="CA45" s="161"/>
+      <c r="CB45" s="161"/>
+      <c r="CC45" s="161"/>
+      <c r="CD45" s="161"/>
+      <c r="CE45" s="164"/>
+      <c r="CF45" s="164"/>
+      <c r="CG45" s="164"/>
+      <c r="CH45" s="164"/>
+      <c r="CI45" s="164"/>
+      <c r="CJ45" s="164"/>
+      <c r="CK45" s="164"/>
     </row>
     <row r="46" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A46" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="87" t="s">
+      <c r="A46" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="93"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="93"/>
-      <c r="AA46" s="93"/>
-      <c r="AB46" s="93"/>
-      <c r="AC46" s="93"/>
-      <c r="AD46" s="93"/>
-      <c r="AE46" s="93"/>
-      <c r="AF46" s="93"/>
-      <c r="AG46" s="93"/>
-      <c r="AH46" s="93"/>
-      <c r="AI46" s="93"/>
-      <c r="AJ46" s="93"/>
-      <c r="AK46" s="93"/>
-      <c r="AL46" s="93"/>
-      <c r="AM46" s="93"/>
-      <c r="AN46" s="93"/>
-      <c r="AO46" s="93"/>
-      <c r="AP46" s="93"/>
-      <c r="AQ46" s="93"/>
-      <c r="AR46" s="93"/>
-      <c r="AS46" s="93"/>
-      <c r="AT46" s="93"/>
-      <c r="AU46" s="93"/>
-      <c r="AV46" s="93"/>
-      <c r="AW46" s="93"/>
-      <c r="AX46" s="93"/>
-      <c r="AY46" s="93"/>
-      <c r="AZ46" s="93"/>
-      <c r="BA46" s="93"/>
-      <c r="BB46" s="93"/>
-      <c r="BC46" s="93"/>
-      <c r="BD46" s="93"/>
-      <c r="BE46" s="93"/>
-      <c r="BF46" s="93"/>
-      <c r="BG46" s="93"/>
-      <c r="BH46" s="93"/>
-      <c r="BI46" s="93"/>
-      <c r="BJ46" s="168"/>
-      <c r="BK46" s="168"/>
-      <c r="BL46" s="168"/>
-      <c r="BM46" s="168"/>
-      <c r="BN46" s="168"/>
-      <c r="BO46" s="168"/>
-      <c r="BP46" s="168"/>
-      <c r="BQ46" s="168"/>
-      <c r="BR46" s="168"/>
-      <c r="BS46" s="168"/>
-      <c r="BT46" s="168"/>
-      <c r="BU46" s="168"/>
-      <c r="BV46" s="93"/>
-      <c r="BW46" s="93"/>
-      <c r="BX46" s="93"/>
-      <c r="BY46" s="93"/>
-      <c r="BZ46" s="93"/>
-      <c r="CA46" s="93"/>
-      <c r="CB46" s="93"/>
-      <c r="CC46" s="93"/>
-      <c r="CD46" s="93"/>
-      <c r="CE46" s="93"/>
-      <c r="CF46" s="93"/>
-      <c r="CG46" s="93"/>
-      <c r="CH46" s="93"/>
-      <c r="CI46" s="94"/>
-      <c r="CJ46" s="94"/>
-      <c r="CK46" s="95"/>
+      <c r="B46" s="149" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="72"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="157"/>
+      <c r="O46" s="157"/>
+      <c r="P46" s="157"/>
+      <c r="Q46" s="157"/>
+      <c r="R46" s="157"/>
+      <c r="S46" s="157"/>
+      <c r="T46" s="155"/>
+      <c r="U46" s="158"/>
+      <c r="V46" s="158"/>
+      <c r="W46" s="158"/>
+      <c r="X46" s="158"/>
+      <c r="Y46" s="158"/>
+      <c r="Z46" s="158"/>
+      <c r="AA46" s="159"/>
+      <c r="AB46" s="159"/>
+      <c r="AC46" s="159"/>
+      <c r="AD46" s="159"/>
+      <c r="AE46" s="159"/>
+      <c r="AF46" s="159"/>
+      <c r="AG46" s="159"/>
+      <c r="AH46" s="161"/>
+      <c r="AI46" s="161"/>
+      <c r="AJ46" s="161"/>
+      <c r="AK46" s="161"/>
+      <c r="AL46" s="161"/>
+      <c r="AM46" s="158"/>
+      <c r="AN46" s="158"/>
+      <c r="AO46" s="160"/>
+      <c r="AP46" s="160"/>
+      <c r="AQ46" s="160"/>
+      <c r="AR46" s="160"/>
+      <c r="AS46" s="160"/>
+      <c r="AT46" s="160"/>
+      <c r="AU46" s="160"/>
+      <c r="AV46" s="161"/>
+      <c r="AW46" s="161"/>
+      <c r="AX46" s="161"/>
+      <c r="AY46" s="161"/>
+      <c r="AZ46" s="161"/>
+      <c r="BA46" s="161"/>
+      <c r="BB46" s="161"/>
+      <c r="BC46" s="162"/>
+      <c r="BD46" s="162"/>
+      <c r="BE46" s="162"/>
+      <c r="BF46" s="162"/>
+      <c r="BG46" s="162"/>
+      <c r="BH46" s="162"/>
+      <c r="BI46" s="162"/>
+      <c r="BJ46" s="158"/>
+      <c r="BK46" s="158"/>
+      <c r="BL46" s="158"/>
+      <c r="BM46" s="158"/>
+      <c r="BN46" s="158"/>
+      <c r="BO46" s="158"/>
+      <c r="BP46" s="158"/>
+      <c r="BQ46" s="163"/>
+      <c r="BR46" s="163"/>
+      <c r="BS46" s="163"/>
+      <c r="BT46" s="163"/>
+      <c r="BU46" s="163"/>
+      <c r="BV46" s="163"/>
+      <c r="BW46" s="163"/>
+      <c r="BX46" s="161"/>
+      <c r="BY46" s="161"/>
+      <c r="BZ46" s="161"/>
+      <c r="CA46" s="161"/>
+      <c r="CB46" s="161"/>
+      <c r="CC46" s="161"/>
+      <c r="CD46" s="161"/>
+      <c r="CE46" s="164"/>
+      <c r="CF46" s="164"/>
+      <c r="CG46" s="164"/>
+      <c r="CH46" s="164"/>
+      <c r="CI46" s="164"/>
+      <c r="CJ46" s="164"/>
+      <c r="CK46" s="164"/>
     </row>
     <row r="47" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A47" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="87" t="s">
+      <c r="A47" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="93"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="93"/>
-      <c r="V47" s="93"/>
-      <c r="W47" s="93"/>
-      <c r="X47" s="93"/>
-      <c r="Y47" s="93"/>
-      <c r="Z47" s="93"/>
-      <c r="AA47" s="93"/>
-      <c r="AB47" s="93"/>
-      <c r="AC47" s="93"/>
-      <c r="AD47" s="93"/>
-      <c r="AE47" s="93"/>
-      <c r="AF47" s="93"/>
-      <c r="AG47" s="93"/>
-      <c r="AH47" s="93"/>
-      <c r="AI47" s="93"/>
-      <c r="AJ47" s="93"/>
-      <c r="AK47" s="93"/>
-      <c r="AL47" s="93"/>
-      <c r="AM47" s="93"/>
-      <c r="AN47" s="93"/>
-      <c r="AO47" s="93"/>
-      <c r="AP47" s="93"/>
-      <c r="AQ47" s="93"/>
-      <c r="AR47" s="93"/>
-      <c r="AS47" s="93"/>
-      <c r="AT47" s="93"/>
-      <c r="AU47" s="93"/>
-      <c r="AV47" s="93"/>
-      <c r="AW47" s="93"/>
-      <c r="AX47" s="93"/>
-      <c r="AY47" s="93"/>
-      <c r="AZ47" s="93"/>
-      <c r="BA47" s="93"/>
-      <c r="BB47" s="93"/>
-      <c r="BC47" s="93"/>
-      <c r="BD47" s="93"/>
-      <c r="BE47" s="93"/>
-      <c r="BF47" s="93"/>
-      <c r="BG47" s="93"/>
-      <c r="BH47" s="93"/>
-      <c r="BI47" s="93"/>
-      <c r="BJ47" s="168"/>
-      <c r="BK47" s="168"/>
-      <c r="BL47" s="168"/>
-      <c r="BM47" s="168"/>
-      <c r="BN47" s="168"/>
-      <c r="BO47" s="168"/>
-      <c r="BP47" s="168"/>
-      <c r="BQ47" s="168"/>
-      <c r="BR47" s="168"/>
-      <c r="BS47" s="168"/>
-      <c r="BT47" s="168"/>
-      <c r="BU47" s="168"/>
-      <c r="BV47" s="93"/>
-      <c r="BW47" s="93"/>
-      <c r="BX47" s="93"/>
-      <c r="BY47" s="93"/>
-      <c r="BZ47" s="93"/>
-      <c r="CA47" s="93"/>
-      <c r="CB47" s="93"/>
-      <c r="CC47" s="93"/>
-      <c r="CD47" s="93"/>
-      <c r="CE47" s="93"/>
-      <c r="CF47" s="93"/>
-      <c r="CG47" s="93"/>
-      <c r="CH47" s="93"/>
-      <c r="CI47" s="94"/>
-      <c r="CJ47" s="94"/>
-      <c r="CK47" s="95"/>
+      <c r="B47" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="156"/>
+      <c r="M47" s="156"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="157"/>
+      <c r="P47" s="157"/>
+      <c r="Q47" s="157"/>
+      <c r="R47" s="157"/>
+      <c r="S47" s="157"/>
+      <c r="T47" s="155"/>
+      <c r="U47" s="158"/>
+      <c r="V47" s="158"/>
+      <c r="W47" s="158"/>
+      <c r="X47" s="158"/>
+      <c r="Y47" s="158"/>
+      <c r="Z47" s="158"/>
+      <c r="AA47" s="159"/>
+      <c r="AB47" s="159"/>
+      <c r="AC47" s="159"/>
+      <c r="AD47" s="159"/>
+      <c r="AE47" s="159"/>
+      <c r="AF47" s="159"/>
+      <c r="AG47" s="159"/>
+      <c r="AH47" s="161"/>
+      <c r="AI47" s="161"/>
+      <c r="AJ47" s="161"/>
+      <c r="AK47" s="161"/>
+      <c r="AL47" s="161"/>
+      <c r="AM47" s="158"/>
+      <c r="AN47" s="158"/>
+      <c r="AO47" s="160"/>
+      <c r="AP47" s="160"/>
+      <c r="AQ47" s="160"/>
+      <c r="AR47" s="160"/>
+      <c r="AS47" s="160"/>
+      <c r="AT47" s="160"/>
+      <c r="AU47" s="160"/>
+      <c r="AV47" s="161"/>
+      <c r="AW47" s="161"/>
+      <c r="AX47" s="161"/>
+      <c r="AY47" s="161"/>
+      <c r="AZ47" s="161"/>
+      <c r="BA47" s="161"/>
+      <c r="BB47" s="161"/>
+      <c r="BC47" s="162"/>
+      <c r="BD47" s="162"/>
+      <c r="BE47" s="162"/>
+      <c r="BF47" s="162"/>
+      <c r="BG47" s="162"/>
+      <c r="BH47" s="162"/>
+      <c r="BI47" s="162"/>
+      <c r="BJ47" s="158"/>
+      <c r="BK47" s="158"/>
+      <c r="BL47" s="158"/>
+      <c r="BM47" s="158"/>
+      <c r="BN47" s="158"/>
+      <c r="BO47" s="158"/>
+      <c r="BP47" s="158"/>
+      <c r="BQ47" s="163"/>
+      <c r="BR47" s="163"/>
+      <c r="BS47" s="163"/>
+      <c r="BT47" s="163"/>
+      <c r="BU47" s="163"/>
+      <c r="BV47" s="163"/>
+      <c r="BW47" s="163"/>
+      <c r="BX47" s="161"/>
+      <c r="BY47" s="161"/>
+      <c r="BZ47" s="161"/>
+      <c r="CA47" s="161"/>
+      <c r="CB47" s="161"/>
+      <c r="CC47" s="161"/>
+      <c r="CD47" s="161"/>
+      <c r="CE47" s="164"/>
+      <c r="CF47" s="164"/>
+      <c r="CG47" s="164"/>
+      <c r="CH47" s="164"/>
+      <c r="CI47" s="164"/>
+      <c r="CJ47" s="164"/>
+      <c r="CK47" s="164"/>
     </row>
-    <row r="48" ht="21.0" customHeight="1" collapsed="1">
-      <c r="A48" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="55" t="s">
+    <row r="48" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A48" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="62"/>
-      <c r="AA48" s="62"/>
-      <c r="AB48" s="62"/>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="62"/>
-      <c r="AE48" s="62"/>
-      <c r="AF48" s="62"/>
-      <c r="AG48" s="62"/>
-      <c r="AH48" s="62"/>
-      <c r="AI48" s="62"/>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="62"/>
-      <c r="AL48" s="62"/>
-      <c r="AM48" s="62"/>
-      <c r="AN48" s="62"/>
-      <c r="AO48" s="62"/>
-      <c r="AP48" s="62"/>
-      <c r="AQ48" s="62"/>
-      <c r="AR48" s="62"/>
-      <c r="AS48" s="62"/>
-      <c r="AT48" s="62"/>
-      <c r="AU48" s="62"/>
-      <c r="AV48" s="62"/>
-      <c r="AW48" s="62"/>
-      <c r="AX48" s="62"/>
-      <c r="AY48" s="62"/>
-      <c r="AZ48" s="62"/>
-      <c r="BA48" s="62"/>
-      <c r="BB48" s="62"/>
-      <c r="BC48" s="62"/>
-      <c r="BD48" s="62"/>
-      <c r="BE48" s="62"/>
-      <c r="BF48" s="62"/>
-      <c r="BG48" s="62"/>
-      <c r="BH48" s="62"/>
-      <c r="BI48" s="62"/>
-      <c r="BJ48" s="62"/>
-      <c r="BK48" s="62"/>
-      <c r="BL48" s="62"/>
-      <c r="BM48" s="62"/>
-      <c r="BN48" s="62"/>
-      <c r="BO48" s="62"/>
-      <c r="BP48" s="62"/>
-      <c r="BQ48" s="62"/>
-      <c r="BR48" s="62"/>
-      <c r="BS48" s="62"/>
-      <c r="BT48" s="62"/>
-      <c r="BU48" s="62"/>
-      <c r="BV48" s="62"/>
-      <c r="BW48" s="62"/>
-      <c r="BX48" s="62"/>
-      <c r="BY48" s="62"/>
-      <c r="BZ48" s="62"/>
-      <c r="CA48" s="62"/>
-      <c r="CB48" s="62"/>
-      <c r="CC48" s="62"/>
-      <c r="CD48" s="62"/>
-      <c r="CE48" s="62"/>
-      <c r="CF48" s="62"/>
-      <c r="CG48" s="62"/>
-      <c r="CH48" s="62"/>
-      <c r="CI48" s="62"/>
-      <c r="CJ48" s="62"/>
-      <c r="CK48" s="62"/>
+      <c r="B48" s="166" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="149"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="156"/>
+      <c r="N48" s="157"/>
+      <c r="O48" s="157"/>
+      <c r="P48" s="157"/>
+      <c r="Q48" s="157"/>
+      <c r="R48" s="157"/>
+      <c r="S48" s="157"/>
+      <c r="T48" s="155"/>
+      <c r="U48" s="158"/>
+      <c r="V48" s="158"/>
+      <c r="W48" s="158"/>
+      <c r="X48" s="158"/>
+      <c r="Y48" s="158"/>
+      <c r="Z48" s="158"/>
+      <c r="AA48" s="159"/>
+      <c r="AB48" s="159"/>
+      <c r="AC48" s="159"/>
+      <c r="AD48" s="159"/>
+      <c r="AE48" s="159"/>
+      <c r="AF48" s="159"/>
+      <c r="AG48" s="159"/>
+      <c r="AH48" s="161"/>
+      <c r="AI48" s="161"/>
+      <c r="AJ48" s="161"/>
+      <c r="AK48" s="161"/>
+      <c r="AL48" s="161"/>
+      <c r="AM48" s="158"/>
+      <c r="AN48" s="158"/>
+      <c r="AO48" s="160"/>
+      <c r="AP48" s="160"/>
+      <c r="AQ48" s="160"/>
+      <c r="AR48" s="160"/>
+      <c r="AS48" s="160"/>
+      <c r="AT48" s="160"/>
+      <c r="AU48" s="160"/>
+      <c r="AV48" s="161"/>
+      <c r="AW48" s="161"/>
+      <c r="AX48" s="161"/>
+      <c r="AY48" s="161"/>
+      <c r="AZ48" s="161"/>
+      <c r="BA48" s="161"/>
+      <c r="BB48" s="161"/>
+      <c r="BC48" s="162"/>
+      <c r="BD48" s="162"/>
+      <c r="BE48" s="162"/>
+      <c r="BF48" s="162"/>
+      <c r="BG48" s="162"/>
+      <c r="BH48" s="162"/>
+      <c r="BI48" s="162"/>
+      <c r="BJ48" s="158"/>
+      <c r="BK48" s="158"/>
+      <c r="BL48" s="158"/>
+      <c r="BM48" s="158"/>
+      <c r="BN48" s="158"/>
+      <c r="BO48" s="158"/>
+      <c r="BP48" s="158"/>
+      <c r="BQ48" s="163"/>
+      <c r="BR48" s="163"/>
+      <c r="BS48" s="163"/>
+      <c r="BT48" s="163"/>
+      <c r="BU48" s="163"/>
+      <c r="BV48" s="163"/>
+      <c r="BW48" s="163"/>
+      <c r="BX48" s="161"/>
+      <c r="BY48" s="161"/>
+      <c r="BZ48" s="161"/>
+      <c r="CA48" s="161"/>
+      <c r="CB48" s="161"/>
+      <c r="CC48" s="161"/>
+      <c r="CD48" s="161"/>
+      <c r="CE48" s="164"/>
+      <c r="CF48" s="164"/>
+      <c r="CG48" s="164"/>
+      <c r="CH48" s="164"/>
+      <c r="CI48" s="164"/>
+      <c r="CJ48" s="164"/>
+      <c r="CK48" s="164"/>
     </row>
-    <row r="49" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="169" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="87" t="s">
+    <row r="49" ht="21.0" customHeight="1" collapsed="1">
+      <c r="A49" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="104"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="104"/>
-      <c r="Q49" s="104"/>
-      <c r="R49" s="104"/>
-      <c r="S49" s="104"/>
-      <c r="T49" s="104"/>
-      <c r="U49" s="104"/>
-      <c r="V49" s="104"/>
-      <c r="W49" s="104"/>
-      <c r="X49" s="104"/>
-      <c r="Y49" s="104"/>
-      <c r="Z49" s="104"/>
-      <c r="AA49" s="104"/>
-      <c r="AB49" s="104"/>
-      <c r="AC49" s="104"/>
-      <c r="AD49" s="104"/>
-      <c r="AE49" s="104"/>
-      <c r="AF49" s="104"/>
-      <c r="AG49" s="104"/>
-      <c r="AH49" s="104"/>
-      <c r="AI49" s="104"/>
-      <c r="AJ49" s="104"/>
-      <c r="AK49" s="104"/>
-      <c r="AL49" s="104"/>
-      <c r="AM49" s="104"/>
-      <c r="AN49" s="104"/>
-      <c r="AO49" s="104"/>
-      <c r="AP49" s="104"/>
-      <c r="AQ49" s="104"/>
-      <c r="AR49" s="104"/>
-      <c r="AS49" s="104"/>
-      <c r="AT49" s="104"/>
-      <c r="AU49" s="104"/>
-      <c r="AV49" s="104"/>
-      <c r="AW49" s="104"/>
-      <c r="AX49" s="104"/>
-      <c r="AY49" s="104"/>
-      <c r="AZ49" s="104"/>
-      <c r="BA49" s="104"/>
-      <c r="BB49" s="104"/>
-      <c r="BC49" s="104"/>
-      <c r="BD49" s="104"/>
-      <c r="BE49" s="104"/>
-      <c r="BF49" s="104"/>
-      <c r="BG49" s="104"/>
-      <c r="BH49" s="104"/>
-      <c r="BI49" s="104"/>
-      <c r="BJ49" s="104"/>
-      <c r="BK49" s="104"/>
-      <c r="BL49" s="104"/>
-      <c r="BM49" s="104"/>
-      <c r="BN49" s="104"/>
-      <c r="BO49" s="104"/>
-      <c r="BP49" s="104"/>
-      <c r="BQ49" s="104"/>
-      <c r="BR49" s="104"/>
-      <c r="BS49" s="144"/>
-      <c r="BT49" s="104"/>
-      <c r="BU49" s="104"/>
-      <c r="BV49" s="104"/>
-      <c r="BW49" s="104"/>
-      <c r="BX49" s="168"/>
-      <c r="BY49" s="168"/>
-      <c r="BZ49" s="168"/>
-      <c r="CA49" s="168"/>
-      <c r="CB49" s="168"/>
-      <c r="CC49" s="104"/>
-      <c r="CD49" s="104"/>
-      <c r="CE49" s="104"/>
-      <c r="CF49" s="104"/>
-      <c r="CG49" s="104"/>
-      <c r="CH49" s="105"/>
-      <c r="CI49" s="105"/>
-      <c r="CJ49" s="105"/>
-      <c r="CK49" s="106"/>
+      <c r="B49" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="62"/>
+      <c r="AA49" s="62"/>
+      <c r="AB49" s="62"/>
+      <c r="AC49" s="62"/>
+      <c r="AD49" s="62"/>
+      <c r="AE49" s="62"/>
+      <c r="AF49" s="62"/>
+      <c r="AG49" s="62"/>
+      <c r="AH49" s="62"/>
+      <c r="AI49" s="62"/>
+      <c r="AJ49" s="62"/>
+      <c r="AK49" s="62"/>
+      <c r="AL49" s="62"/>
+      <c r="AM49" s="62"/>
+      <c r="AN49" s="62"/>
+      <c r="AO49" s="62"/>
+      <c r="AP49" s="62"/>
+      <c r="AQ49" s="62"/>
+      <c r="AR49" s="62"/>
+      <c r="AS49" s="62"/>
+      <c r="AT49" s="62"/>
+      <c r="AU49" s="62"/>
+      <c r="AV49" s="62"/>
+      <c r="AW49" s="62"/>
+      <c r="AX49" s="62"/>
+      <c r="AY49" s="62"/>
+      <c r="AZ49" s="62"/>
+      <c r="BA49" s="62"/>
+      <c r="BB49" s="62"/>
+      <c r="BC49" s="62"/>
+      <c r="BD49" s="62"/>
+      <c r="BE49" s="62"/>
+      <c r="BF49" s="62"/>
+      <c r="BG49" s="62"/>
+      <c r="BH49" s="62"/>
+      <c r="BI49" s="62"/>
+      <c r="BJ49" s="62"/>
+      <c r="BK49" s="62"/>
+      <c r="BL49" s="62"/>
+      <c r="BM49" s="62"/>
+      <c r="BN49" s="62"/>
+      <c r="BO49" s="62"/>
+      <c r="BP49" s="62"/>
+      <c r="BQ49" s="62"/>
+      <c r="BR49" s="62"/>
+      <c r="BS49" s="62"/>
+      <c r="BT49" s="62"/>
+      <c r="BU49" s="62"/>
+      <c r="BV49" s="62"/>
+      <c r="BW49" s="62"/>
+      <c r="BX49" s="62"/>
+      <c r="BY49" s="62"/>
+      <c r="BZ49" s="62"/>
+      <c r="CA49" s="62"/>
+      <c r="CB49" s="62"/>
+      <c r="CC49" s="62"/>
+      <c r="CD49" s="62"/>
+      <c r="CE49" s="62"/>
+      <c r="CF49" s="62"/>
+      <c r="CG49" s="62"/>
+      <c r="CH49" s="62"/>
+      <c r="CI49" s="62"/>
+      <c r="CJ49" s="62"/>
+      <c r="CK49" s="62"/>
     </row>
     <row r="50" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="169" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="87" t="s">
+      <c r="A50" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
-      <c r="P50" s="104"/>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="104"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="92"/>
-      <c r="U50" s="92"/>
-      <c r="V50" s="92"/>
-      <c r="W50" s="92"/>
-      <c r="X50" s="104"/>
-      <c r="Y50" s="104"/>
-      <c r="Z50" s="104"/>
-      <c r="AA50" s="104"/>
-      <c r="AB50" s="104"/>
-      <c r="AC50" s="104"/>
-      <c r="AD50" s="104"/>
-      <c r="AE50" s="104"/>
-      <c r="AF50" s="104"/>
-      <c r="AG50" s="104"/>
-      <c r="AH50" s="104"/>
-      <c r="AI50" s="104"/>
-      <c r="AJ50" s="104"/>
-      <c r="AK50" s="104"/>
-      <c r="AL50" s="104"/>
-      <c r="AM50" s="104"/>
-      <c r="AN50" s="104"/>
-      <c r="AO50" s="104"/>
-      <c r="AP50" s="104"/>
-      <c r="AQ50" s="104"/>
-      <c r="AR50" s="104"/>
-      <c r="AS50" s="104"/>
-      <c r="AT50" s="104"/>
-      <c r="AU50" s="104"/>
-      <c r="AV50" s="104"/>
-      <c r="AW50" s="104"/>
-      <c r="AX50" s="104"/>
-      <c r="AY50" s="104"/>
-      <c r="AZ50" s="104"/>
-      <c r="BA50" s="104"/>
-      <c r="BB50" s="104"/>
-      <c r="BC50" s="104"/>
-      <c r="BD50" s="104"/>
-      <c r="BE50" s="104"/>
-      <c r="BF50" s="104"/>
-      <c r="BG50" s="104"/>
-      <c r="BH50" s="104"/>
-      <c r="BI50" s="104"/>
-      <c r="BJ50" s="104"/>
-      <c r="BK50" s="104"/>
-      <c r="BL50" s="104"/>
-      <c r="BM50" s="104"/>
-      <c r="BN50" s="104"/>
-      <c r="BO50" s="104"/>
-      <c r="BP50" s="104"/>
-      <c r="BQ50" s="104"/>
-      <c r="BR50" s="104"/>
-      <c r="BS50" s="93"/>
-      <c r="BT50" s="104"/>
-      <c r="BU50" s="104"/>
-      <c r="BV50" s="104"/>
-      <c r="BW50" s="104"/>
-      <c r="BX50" s="104"/>
-      <c r="BY50" s="168"/>
-      <c r="BZ50" s="168"/>
-      <c r="CA50" s="168"/>
-      <c r="CB50" s="168"/>
-      <c r="CC50" s="168"/>
-      <c r="CD50" s="168"/>
-      <c r="CE50" s="168"/>
-      <c r="CF50" s="168"/>
-      <c r="CG50" s="168"/>
-      <c r="CH50" s="105"/>
-      <c r="CI50" s="105"/>
-      <c r="CJ50" s="105"/>
-      <c r="CK50" s="106"/>
+      <c r="B50" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
+      <c r="P50" s="167"/>
+      <c r="Q50" s="167"/>
+      <c r="R50" s="167"/>
+      <c r="S50" s="167"/>
+      <c r="T50" s="117"/>
+      <c r="U50" s="117"/>
+      <c r="V50" s="117"/>
+      <c r="W50" s="117"/>
+      <c r="X50" s="117"/>
+      <c r="Y50" s="117"/>
+      <c r="Z50" s="117"/>
+      <c r="AA50" s="168"/>
+      <c r="AB50" s="168"/>
+      <c r="AC50" s="168"/>
+      <c r="AD50" s="168"/>
+      <c r="AE50" s="168"/>
+      <c r="AF50" s="168"/>
+      <c r="AG50" s="168"/>
+      <c r="AH50" s="116"/>
+      <c r="AI50" s="116"/>
+      <c r="AJ50" s="116"/>
+      <c r="AK50" s="116"/>
+      <c r="AL50" s="116"/>
+      <c r="AM50" s="117"/>
+      <c r="AN50" s="117"/>
+      <c r="AO50" s="118"/>
+      <c r="AP50" s="118"/>
+      <c r="AQ50" s="118"/>
+      <c r="AR50" s="118"/>
+      <c r="AS50" s="118"/>
+      <c r="AT50" s="118"/>
+      <c r="AU50" s="118"/>
+      <c r="AV50" s="117"/>
+      <c r="AW50" s="117"/>
+      <c r="AX50" s="117"/>
+      <c r="AY50" s="117"/>
+      <c r="AZ50" s="117"/>
+      <c r="BA50" s="116"/>
+      <c r="BB50" s="116"/>
+      <c r="BC50" s="119"/>
+      <c r="BD50" s="119"/>
+      <c r="BE50" s="119"/>
+      <c r="BF50" s="119"/>
+      <c r="BG50" s="119"/>
+      <c r="BH50" s="119"/>
+      <c r="BI50" s="119"/>
+      <c r="BJ50" s="158"/>
+      <c r="BK50" s="158"/>
+      <c r="BL50" s="158"/>
+      <c r="BM50" s="158"/>
+      <c r="BN50" s="158"/>
+      <c r="BO50" s="158"/>
+      <c r="BP50" s="158"/>
+      <c r="BQ50" s="120"/>
+      <c r="BR50" s="120"/>
+      <c r="BS50" s="120"/>
+      <c r="BT50" s="120"/>
+      <c r="BU50" s="120"/>
+      <c r="BV50" s="120"/>
+      <c r="BW50" s="120"/>
+      <c r="BX50" s="116"/>
+      <c r="BY50" s="116"/>
+      <c r="BZ50" s="116"/>
+      <c r="CA50" s="116"/>
+      <c r="CB50" s="116"/>
+      <c r="CC50" s="116"/>
+      <c r="CD50" s="116"/>
+      <c r="CE50" s="121"/>
+      <c r="CF50" s="121"/>
+      <c r="CG50" s="121"/>
+      <c r="CH50" s="121"/>
+      <c r="CI50" s="122"/>
+      <c r="CJ50" s="122"/>
+      <c r="CK50" s="123"/>
     </row>
     <row r="51" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A51" s="171" t="s">
-        <v>122</v>
+      <c r="A51" s="86" t="s">
+        <v>123</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="87"/>
       <c r="D51" s="88"/>
       <c r="E51" s="88"/>
       <c r="F51" s="89"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="104"/>
-      <c r="L51" s="104"/>
-      <c r="M51" s="104"/>
-      <c r="N51" s="104"/>
-      <c r="O51" s="104"/>
-      <c r="P51" s="104"/>
-      <c r="Q51" s="104"/>
-      <c r="R51" s="104"/>
-      <c r="S51" s="104"/>
-      <c r="T51" s="92"/>
-      <c r="U51" s="92"/>
-      <c r="V51" s="92"/>
-      <c r="W51" s="92"/>
-      <c r="X51" s="104"/>
-      <c r="Y51" s="104"/>
-      <c r="Z51" s="104"/>
-      <c r="AA51" s="104"/>
-      <c r="AB51" s="104"/>
-      <c r="AC51" s="104"/>
-      <c r="AD51" s="104"/>
-      <c r="AE51" s="104"/>
-      <c r="AF51" s="104"/>
-      <c r="AG51" s="104"/>
-      <c r="AH51" s="104"/>
-      <c r="AI51" s="104"/>
-      <c r="AJ51" s="104"/>
-      <c r="AK51" s="104"/>
-      <c r="AL51" s="104"/>
-      <c r="AM51" s="104"/>
-      <c r="AN51" s="104"/>
-      <c r="AO51" s="104"/>
-      <c r="AP51" s="104"/>
-      <c r="AQ51" s="104"/>
-      <c r="AR51" s="104"/>
-      <c r="AS51" s="104"/>
-      <c r="AT51" s="104"/>
-      <c r="AU51" s="104"/>
-      <c r="AV51" s="104"/>
-      <c r="AW51" s="104"/>
-      <c r="AX51" s="104"/>
-      <c r="AY51" s="104"/>
-      <c r="AZ51" s="104"/>
-      <c r="BA51" s="104"/>
-      <c r="BB51" s="104"/>
-      <c r="BC51" s="104"/>
-      <c r="BD51" s="104"/>
-      <c r="BE51" s="104"/>
-      <c r="BF51" s="104"/>
-      <c r="BG51" s="104"/>
-      <c r="BH51" s="104"/>
-      <c r="BI51" s="104"/>
-      <c r="BJ51" s="104"/>
-      <c r="BK51" s="104"/>
-      <c r="BL51" s="104"/>
-      <c r="BM51" s="104"/>
-      <c r="BN51" s="104"/>
-      <c r="BO51" s="104"/>
-      <c r="BP51" s="104"/>
-      <c r="BQ51" s="104"/>
-      <c r="BR51" s="105"/>
-      <c r="BS51" s="70"/>
-      <c r="BT51" s="172"/>
-      <c r="BU51" s="104"/>
-      <c r="BV51" s="104"/>
-      <c r="BW51" s="104"/>
-      <c r="BX51" s="168"/>
-      <c r="BY51" s="168"/>
-      <c r="BZ51" s="168"/>
-      <c r="CA51" s="168"/>
-      <c r="CB51" s="168"/>
-      <c r="CC51" s="104"/>
-      <c r="CD51" s="104"/>
-      <c r="CE51" s="104"/>
-      <c r="CF51" s="104"/>
-      <c r="CG51" s="104"/>
-      <c r="CH51" s="105"/>
-      <c r="CI51" s="105"/>
-      <c r="CJ51" s="105"/>
-      <c r="CK51" s="106"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="93"/>
+      <c r="X51" s="93"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="93"/>
+      <c r="AB51" s="93"/>
+      <c r="AC51" s="93"/>
+      <c r="AD51" s="93"/>
+      <c r="AE51" s="93"/>
+      <c r="AF51" s="93"/>
+      <c r="AG51" s="93"/>
+      <c r="AH51" s="93"/>
+      <c r="AI51" s="93"/>
+      <c r="AJ51" s="93"/>
+      <c r="AK51" s="93"/>
+      <c r="AL51" s="93"/>
+      <c r="AM51" s="93"/>
+      <c r="AN51" s="93"/>
+      <c r="AO51" s="93"/>
+      <c r="AP51" s="93"/>
+      <c r="AQ51" s="93"/>
+      <c r="AR51" s="93"/>
+      <c r="AS51" s="93"/>
+      <c r="AT51" s="93"/>
+      <c r="AU51" s="93"/>
+      <c r="AV51" s="93"/>
+      <c r="AW51" s="93"/>
+      <c r="AX51" s="93"/>
+      <c r="AY51" s="93"/>
+      <c r="AZ51" s="93"/>
+      <c r="BA51" s="93"/>
+      <c r="BB51" s="93"/>
+      <c r="BC51" s="93"/>
+      <c r="BD51" s="93"/>
+      <c r="BE51" s="93"/>
+      <c r="BF51" s="93"/>
+      <c r="BG51" s="93"/>
+      <c r="BH51" s="93"/>
+      <c r="BI51" s="93"/>
+      <c r="BJ51" s="169"/>
+      <c r="BK51" s="169"/>
+      <c r="BL51" s="169"/>
+      <c r="BM51" s="169"/>
+      <c r="BN51" s="169"/>
+      <c r="BO51" s="169"/>
+      <c r="BP51" s="169"/>
+      <c r="BQ51" s="169"/>
+      <c r="BR51" s="169"/>
+      <c r="BS51" s="169"/>
+      <c r="BT51" s="169"/>
+      <c r="BU51" s="169"/>
+      <c r="BV51" s="93"/>
+      <c r="BW51" s="93"/>
+      <c r="BX51" s="93"/>
+      <c r="BY51" s="93"/>
+      <c r="BZ51" s="93"/>
+      <c r="CA51" s="93"/>
+      <c r="CB51" s="93"/>
+      <c r="CC51" s="93"/>
+      <c r="CD51" s="93"/>
+      <c r="CE51" s="93"/>
+      <c r="CF51" s="93"/>
+      <c r="CG51" s="93"/>
+      <c r="CH51" s="93"/>
+      <c r="CI51" s="94"/>
+      <c r="CJ51" s="94"/>
+      <c r="CK51" s="95"/>
     </row>
-    <row r="52" ht="21.0" customHeight="1">
-      <c r="A52" s="173">
-        <v>45019.0</v>
-      </c>
-      <c r="B52" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="175"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="62"/>
-      <c r="AA52" s="62"/>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
-      <c r="AD52" s="62"/>
-      <c r="AE52" s="62"/>
-      <c r="AF52" s="62"/>
-      <c r="AG52" s="62"/>
-      <c r="AH52" s="62"/>
-      <c r="AI52" s="62"/>
-      <c r="AJ52" s="62"/>
-      <c r="AK52" s="62"/>
-      <c r="AL52" s="62"/>
-      <c r="AM52" s="62"/>
-      <c r="AN52" s="62"/>
-      <c r="AO52" s="62"/>
-      <c r="AP52" s="62"/>
-      <c r="AQ52" s="62"/>
-      <c r="AR52" s="62"/>
-      <c r="AS52" s="62"/>
-      <c r="AT52" s="62"/>
-      <c r="AU52" s="62"/>
-      <c r="AV52" s="62"/>
-      <c r="AW52" s="62"/>
-      <c r="AX52" s="62"/>
-      <c r="AY52" s="62"/>
-      <c r="AZ52" s="62"/>
-      <c r="BA52" s="62"/>
-      <c r="BB52" s="62"/>
-      <c r="BC52" s="62"/>
-      <c r="BD52" s="62"/>
-      <c r="BE52" s="62"/>
-      <c r="BF52" s="62"/>
-      <c r="BG52" s="62"/>
-      <c r="BH52" s="62"/>
-      <c r="BI52" s="62"/>
-      <c r="BJ52" s="62"/>
-      <c r="BK52" s="62"/>
-      <c r="BL52" s="62"/>
-      <c r="BM52" s="62"/>
-      <c r="BN52" s="62"/>
-      <c r="BO52" s="62"/>
-      <c r="BP52" s="62"/>
-      <c r="BQ52" s="62"/>
-      <c r="BR52" s="62"/>
-      <c r="BS52" s="62"/>
-      <c r="BT52" s="62"/>
-      <c r="BU52" s="62"/>
-      <c r="BV52" s="62"/>
-      <c r="BW52" s="62"/>
-      <c r="BX52" s="62"/>
-      <c r="BY52" s="62"/>
-      <c r="BZ52" s="62"/>
-      <c r="CA52" s="62"/>
-      <c r="CB52" s="62"/>
-      <c r="CC52" s="62"/>
-      <c r="CD52" s="62"/>
-      <c r="CE52" s="62"/>
-      <c r="CF52" s="62"/>
-      <c r="CG52" s="62"/>
-      <c r="CH52" s="62"/>
-      <c r="CI52" s="62"/>
-      <c r="CJ52" s="62"/>
-      <c r="CK52" s="62"/>
+    <row r="52" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A52" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="87"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="93"/>
+      <c r="X52" s="93"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="93"/>
+      <c r="AB52" s="93"/>
+      <c r="AC52" s="93"/>
+      <c r="AD52" s="93"/>
+      <c r="AE52" s="93"/>
+      <c r="AF52" s="93"/>
+      <c r="AG52" s="93"/>
+      <c r="AH52" s="93"/>
+      <c r="AI52" s="93"/>
+      <c r="AJ52" s="93"/>
+      <c r="AK52" s="93"/>
+      <c r="AL52" s="93"/>
+      <c r="AM52" s="93"/>
+      <c r="AN52" s="93"/>
+      <c r="AO52" s="93"/>
+      <c r="AP52" s="93"/>
+      <c r="AQ52" s="93"/>
+      <c r="AR52" s="93"/>
+      <c r="AS52" s="93"/>
+      <c r="AT52" s="93"/>
+      <c r="AU52" s="93"/>
+      <c r="AV52" s="93"/>
+      <c r="AW52" s="93"/>
+      <c r="AX52" s="93"/>
+      <c r="AY52" s="93"/>
+      <c r="AZ52" s="93"/>
+      <c r="BA52" s="93"/>
+      <c r="BB52" s="93"/>
+      <c r="BC52" s="93"/>
+      <c r="BD52" s="93"/>
+      <c r="BE52" s="93"/>
+      <c r="BF52" s="93"/>
+      <c r="BG52" s="93"/>
+      <c r="BH52" s="93"/>
+      <c r="BI52" s="93"/>
+      <c r="BJ52" s="169"/>
+      <c r="BK52" s="169"/>
+      <c r="BL52" s="169"/>
+      <c r="BM52" s="169"/>
+      <c r="BN52" s="169"/>
+      <c r="BO52" s="169"/>
+      <c r="BP52" s="169"/>
+      <c r="BQ52" s="169"/>
+      <c r="BR52" s="169"/>
+      <c r="BS52" s="169"/>
+      <c r="BT52" s="169"/>
+      <c r="BU52" s="169"/>
+      <c r="BV52" s="93"/>
+      <c r="BW52" s="93"/>
+      <c r="BX52" s="93"/>
+      <c r="BY52" s="93"/>
+      <c r="BZ52" s="93"/>
+      <c r="CA52" s="93"/>
+      <c r="CB52" s="93"/>
+      <c r="CC52" s="93"/>
+      <c r="CD52" s="93"/>
+      <c r="CE52" s="93"/>
+      <c r="CF52" s="93"/>
+      <c r="CG52" s="93"/>
+      <c r="CH52" s="93"/>
+      <c r="CI52" s="94"/>
+      <c r="CJ52" s="94"/>
+      <c r="CK52" s="95"/>
     </row>
-    <row r="53" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A53" s="169" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="104"/>
-      <c r="N53" s="104"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="104"/>
-      <c r="Q53" s="104"/>
-      <c r="R53" s="104"/>
-      <c r="S53" s="104"/>
-      <c r="T53" s="92"/>
-      <c r="U53" s="92"/>
-      <c r="V53" s="92"/>
-      <c r="W53" s="92"/>
-      <c r="X53" s="104"/>
-      <c r="Y53" s="104"/>
-      <c r="Z53" s="104"/>
-      <c r="AA53" s="104"/>
-      <c r="AB53" s="104"/>
-      <c r="AC53" s="104"/>
-      <c r="AD53" s="104"/>
-      <c r="AE53" s="104"/>
-      <c r="AF53" s="104"/>
-      <c r="AG53" s="104"/>
-      <c r="AH53" s="104"/>
-      <c r="AI53" s="104"/>
-      <c r="AJ53" s="104"/>
-      <c r="AK53" s="104"/>
-      <c r="AL53" s="104"/>
-      <c r="AM53" s="104"/>
-      <c r="AN53" s="104"/>
-      <c r="AO53" s="104"/>
-      <c r="AP53" s="104"/>
-      <c r="AQ53" s="104"/>
-      <c r="AR53" s="104"/>
-      <c r="AS53" s="104"/>
-      <c r="AT53" s="104"/>
-      <c r="AU53" s="104"/>
-      <c r="AV53" s="104"/>
-      <c r="AW53" s="104"/>
-      <c r="AX53" s="104"/>
-      <c r="AY53" s="104"/>
-      <c r="AZ53" s="104"/>
-      <c r="BA53" s="104"/>
-      <c r="BB53" s="104"/>
-      <c r="BC53" s="104"/>
-      <c r="BD53" s="104"/>
-      <c r="BE53" s="104"/>
-      <c r="BF53" s="104"/>
-      <c r="BG53" s="104"/>
-      <c r="BH53" s="104"/>
-      <c r="BI53" s="104"/>
-      <c r="BJ53" s="104"/>
-      <c r="BK53" s="104"/>
-      <c r="BL53" s="104"/>
-      <c r="BM53" s="104"/>
-      <c r="BN53" s="104"/>
-      <c r="BO53" s="104"/>
-      <c r="BP53" s="104"/>
-      <c r="BQ53" s="104"/>
-      <c r="BR53" s="104"/>
-      <c r="BS53" s="104"/>
-      <c r="BT53" s="104"/>
-      <c r="BU53" s="104"/>
-      <c r="BV53" s="104"/>
-      <c r="BW53" s="104"/>
-      <c r="BX53" s="104"/>
-      <c r="BY53" s="168"/>
-      <c r="BZ53" s="168"/>
-      <c r="CA53" s="168"/>
-      <c r="CB53" s="168"/>
-      <c r="CC53" s="168"/>
-      <c r="CD53" s="168"/>
-      <c r="CE53" s="168"/>
-      <c r="CF53" s="168"/>
-      <c r="CG53" s="168"/>
-      <c r="CH53" s="105"/>
-      <c r="CI53" s="105"/>
-      <c r="CJ53" s="105"/>
-      <c r="CK53" s="106"/>
+    <row r="53" ht="21.0" customHeight="1" collapsed="1">
+      <c r="A53" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="62"/>
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="62"/>
+      <c r="AE53" s="62"/>
+      <c r="AF53" s="62"/>
+      <c r="AG53" s="62"/>
+      <c r="AH53" s="62"/>
+      <c r="AI53" s="62"/>
+      <c r="AJ53" s="62"/>
+      <c r="AK53" s="62"/>
+      <c r="AL53" s="62"/>
+      <c r="AM53" s="62"/>
+      <c r="AN53" s="62"/>
+      <c r="AO53" s="62"/>
+      <c r="AP53" s="62"/>
+      <c r="AQ53" s="62"/>
+      <c r="AR53" s="62"/>
+      <c r="AS53" s="62"/>
+      <c r="AT53" s="62"/>
+      <c r="AU53" s="62"/>
+      <c r="AV53" s="62"/>
+      <c r="AW53" s="62"/>
+      <c r="AX53" s="62"/>
+      <c r="AY53" s="62"/>
+      <c r="AZ53" s="62"/>
+      <c r="BA53" s="62"/>
+      <c r="BB53" s="62"/>
+      <c r="BC53" s="62"/>
+      <c r="BD53" s="62"/>
+      <c r="BE53" s="62"/>
+      <c r="BF53" s="62"/>
+      <c r="BG53" s="62"/>
+      <c r="BH53" s="62"/>
+      <c r="BI53" s="62"/>
+      <c r="BJ53" s="62"/>
+      <c r="BK53" s="62"/>
+      <c r="BL53" s="62"/>
+      <c r="BM53" s="62"/>
+      <c r="BN53" s="62"/>
+      <c r="BO53" s="62"/>
+      <c r="BP53" s="62"/>
+      <c r="BQ53" s="62"/>
+      <c r="BR53" s="62"/>
+      <c r="BS53" s="62"/>
+      <c r="BT53" s="62"/>
+      <c r="BU53" s="62"/>
+      <c r="BV53" s="62"/>
+      <c r="BW53" s="62"/>
+      <c r="BX53" s="62"/>
+      <c r="BY53" s="62"/>
+      <c r="BZ53" s="62"/>
+      <c r="CA53" s="62"/>
+      <c r="CB53" s="62"/>
+      <c r="CC53" s="62"/>
+      <c r="CD53" s="62"/>
+      <c r="CE53" s="62"/>
+      <c r="CF53" s="62"/>
+      <c r="CG53" s="62"/>
+      <c r="CH53" s="62"/>
+      <c r="CI53" s="62"/>
+      <c r="CJ53" s="62"/>
+      <c r="CK53" s="62"/>
     </row>
-    <row r="54" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A54" s="178" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="179"/>
-      <c r="O54" s="179"/>
-      <c r="P54" s="179"/>
-      <c r="Q54" s="179"/>
-      <c r="R54" s="179"/>
-      <c r="S54" s="179"/>
-      <c r="T54" s="112"/>
-      <c r="U54" s="112"/>
-      <c r="V54" s="112"/>
-      <c r="W54" s="112"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
-      <c r="Z54" s="78"/>
-      <c r="AA54" s="79"/>
-      <c r="AB54" s="79"/>
-      <c r="AC54" s="79"/>
-      <c r="AD54" s="79"/>
-      <c r="AE54" s="79"/>
-      <c r="AF54" s="79"/>
-      <c r="AG54" s="79"/>
-      <c r="AH54" s="76"/>
-      <c r="AI54" s="76"/>
-      <c r="AJ54" s="76"/>
-      <c r="AK54" s="76"/>
-      <c r="AL54" s="76"/>
-      <c r="AM54" s="78"/>
-      <c r="AN54" s="78"/>
-      <c r="AO54" s="80"/>
-      <c r="AP54" s="80"/>
-      <c r="AQ54" s="80"/>
-      <c r="AR54" s="80"/>
-      <c r="AS54" s="80"/>
-      <c r="AT54" s="80"/>
-      <c r="AU54" s="80"/>
-      <c r="AV54" s="78"/>
-      <c r="AW54" s="78"/>
-      <c r="AX54" s="78"/>
-      <c r="AY54" s="78"/>
-      <c r="AZ54" s="78"/>
-      <c r="BA54" s="78"/>
-      <c r="BB54" s="78"/>
-      <c r="BC54" s="81"/>
-      <c r="BD54" s="81"/>
-      <c r="BE54" s="81"/>
-      <c r="BF54" s="81"/>
-      <c r="BG54" s="81"/>
-      <c r="BH54" s="81"/>
-      <c r="BI54" s="81"/>
-      <c r="BJ54" s="78"/>
-      <c r="BK54" s="78"/>
-      <c r="BL54" s="78"/>
-      <c r="BM54" s="78"/>
-      <c r="BN54" s="78"/>
-      <c r="BO54" s="78"/>
-      <c r="BP54" s="78"/>
-      <c r="BQ54" s="82"/>
-      <c r="BR54" s="82"/>
-      <c r="BS54" s="82"/>
-      <c r="BT54" s="82"/>
-      <c r="BU54" s="82"/>
-      <c r="BV54" s="82"/>
-      <c r="BW54" s="82"/>
-      <c r="BX54" s="76"/>
-      <c r="BY54" s="157"/>
-      <c r="BZ54" s="157"/>
-      <c r="CA54" s="157"/>
-      <c r="CB54" s="157"/>
-      <c r="CC54" s="157"/>
-      <c r="CD54" s="157"/>
-      <c r="CE54" s="84"/>
-      <c r="CF54" s="84"/>
-      <c r="CG54" s="84"/>
-      <c r="CH54" s="84"/>
-      <c r="CI54" s="84"/>
-      <c r="CJ54" s="84"/>
-      <c r="CK54" s="85"/>
+    <row r="54" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A54" s="170" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="87"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="171"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
+      <c r="X54" s="104"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="104"/>
+      <c r="AB54" s="104"/>
+      <c r="AC54" s="104"/>
+      <c r="AD54" s="104"/>
+      <c r="AE54" s="104"/>
+      <c r="AF54" s="104"/>
+      <c r="AG54" s="104"/>
+      <c r="AH54" s="104"/>
+      <c r="AI54" s="104"/>
+      <c r="AJ54" s="104"/>
+      <c r="AK54" s="104"/>
+      <c r="AL54" s="104"/>
+      <c r="AM54" s="104"/>
+      <c r="AN54" s="104"/>
+      <c r="AO54" s="104"/>
+      <c r="AP54" s="104"/>
+      <c r="AQ54" s="104"/>
+      <c r="AR54" s="104"/>
+      <c r="AS54" s="104"/>
+      <c r="AT54" s="104"/>
+      <c r="AU54" s="104"/>
+      <c r="AV54" s="104"/>
+      <c r="AW54" s="104"/>
+      <c r="AX54" s="104"/>
+      <c r="AY54" s="104"/>
+      <c r="AZ54" s="104"/>
+      <c r="BA54" s="104"/>
+      <c r="BB54" s="104"/>
+      <c r="BC54" s="104"/>
+      <c r="BD54" s="104"/>
+      <c r="BE54" s="104"/>
+      <c r="BF54" s="104"/>
+      <c r="BG54" s="104"/>
+      <c r="BH54" s="104"/>
+      <c r="BI54" s="104"/>
+      <c r="BJ54" s="104"/>
+      <c r="BK54" s="104"/>
+      <c r="BL54" s="104"/>
+      <c r="BM54" s="104"/>
+      <c r="BN54" s="104"/>
+      <c r="BO54" s="104"/>
+      <c r="BP54" s="104"/>
+      <c r="BQ54" s="104"/>
+      <c r="BR54" s="104"/>
+      <c r="BS54" s="145"/>
+      <c r="BT54" s="104"/>
+      <c r="BU54" s="104"/>
+      <c r="BV54" s="104"/>
+      <c r="BW54" s="104"/>
+      <c r="BX54" s="169"/>
+      <c r="BY54" s="169"/>
+      <c r="BZ54" s="169"/>
+      <c r="CA54" s="169"/>
+      <c r="CB54" s="169"/>
+      <c r="CC54" s="104"/>
+      <c r="CD54" s="104"/>
+      <c r="CE54" s="104"/>
+      <c r="CF54" s="104"/>
+      <c r="CG54" s="104"/>
+      <c r="CH54" s="105"/>
+      <c r="CI54" s="105"/>
+      <c r="CJ54" s="105"/>
+      <c r="CK54" s="106"/>
     </row>
-    <row r="55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A55" s="169" t="s">
-        <v>129</v>
+    <row r="55" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A55" s="170" t="s">
+        <v>131</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C55" s="87"/>
       <c r="D55" s="88"/>
@@ -6882,322 +6948,322 @@
       <c r="BP55" s="104"/>
       <c r="BQ55" s="104"/>
       <c r="BR55" s="104"/>
-      <c r="BS55" s="104"/>
+      <c r="BS55" s="93"/>
       <c r="BT55" s="104"/>
       <c r="BU55" s="104"/>
       <c r="BV55" s="104"/>
       <c r="BW55" s="104"/>
       <c r="BX55" s="104"/>
-      <c r="BY55" s="168"/>
-      <c r="BZ55" s="168"/>
-      <c r="CA55" s="168"/>
-      <c r="CB55" s="168"/>
-      <c r="CC55" s="168"/>
-      <c r="CD55" s="168"/>
-      <c r="CE55" s="168"/>
-      <c r="CF55" s="168"/>
-      <c r="CG55" s="168"/>
+      <c r="BY55" s="169"/>
+      <c r="BZ55" s="169"/>
+      <c r="CA55" s="169"/>
+      <c r="CB55" s="169"/>
+      <c r="CC55" s="169"/>
+      <c r="CD55" s="169"/>
+      <c r="CE55" s="169"/>
+      <c r="CF55" s="169"/>
+      <c r="CG55" s="169"/>
       <c r="CH55" s="105"/>
       <c r="CI55" s="105"/>
       <c r="CJ55" s="105"/>
       <c r="CK55" s="106"/>
     </row>
-    <row r="56" ht="21.0" customHeight="1">
-      <c r="A56" s="47">
-        <v>4.0</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
-      <c r="V56" s="53"/>
-      <c r="W56" s="53"/>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="53"/>
-      <c r="AA56" s="53"/>
-      <c r="AB56" s="53"/>
-      <c r="AC56" s="53"/>
-      <c r="AD56" s="53"/>
-      <c r="AE56" s="53"/>
-      <c r="AF56" s="53"/>
-      <c r="AG56" s="53"/>
-      <c r="AH56" s="53"/>
-      <c r="AI56" s="53"/>
-      <c r="AJ56" s="53"/>
-      <c r="AK56" s="53"/>
-      <c r="AL56" s="53"/>
-      <c r="AM56" s="53"/>
-      <c r="AN56" s="53"/>
-      <c r="AO56" s="53"/>
-      <c r="AP56" s="53"/>
-      <c r="AQ56" s="53"/>
-      <c r="AR56" s="53"/>
-      <c r="AS56" s="53"/>
-      <c r="AT56" s="53"/>
-      <c r="AU56" s="53"/>
-      <c r="AV56" s="53"/>
-      <c r="AW56" s="53"/>
-      <c r="AX56" s="53"/>
-      <c r="AY56" s="53"/>
-      <c r="AZ56" s="53"/>
-      <c r="BA56" s="53"/>
-      <c r="BB56" s="53"/>
-      <c r="BC56" s="53"/>
-      <c r="BD56" s="53"/>
-      <c r="BE56" s="53"/>
-      <c r="BF56" s="53"/>
-      <c r="BG56" s="53"/>
-      <c r="BH56" s="53"/>
-      <c r="BI56" s="53"/>
-      <c r="BJ56" s="53"/>
-      <c r="BK56" s="53"/>
-      <c r="BL56" s="53"/>
-      <c r="BM56" s="53"/>
-      <c r="BN56" s="53"/>
-      <c r="BO56" s="53"/>
-      <c r="BP56" s="53"/>
-      <c r="BQ56" s="53"/>
-      <c r="BR56" s="53"/>
-      <c r="BS56" s="53"/>
-      <c r="BT56" s="53"/>
-      <c r="BU56" s="53"/>
-      <c r="BV56" s="53"/>
-      <c r="BW56" s="53"/>
-      <c r="BX56" s="53"/>
-      <c r="BY56" s="53"/>
-      <c r="BZ56" s="53"/>
-      <c r="CA56" s="53"/>
-      <c r="CB56" s="53"/>
-      <c r="CC56" s="53"/>
-      <c r="CD56" s="53"/>
-      <c r="CE56" s="53"/>
-      <c r="CF56" s="53"/>
-      <c r="CG56" s="53"/>
-      <c r="CH56" s="53"/>
-      <c r="CI56" s="53"/>
-      <c r="CJ56" s="53"/>
-      <c r="CK56" s="53"/>
+    <row r="56" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A56" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="87"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="92"/>
+      <c r="U56" s="92"/>
+      <c r="V56" s="92"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
+      <c r="AB56" s="104"/>
+      <c r="AC56" s="104"/>
+      <c r="AD56" s="104"/>
+      <c r="AE56" s="104"/>
+      <c r="AF56" s="104"/>
+      <c r="AG56" s="104"/>
+      <c r="AH56" s="104"/>
+      <c r="AI56" s="104"/>
+      <c r="AJ56" s="104"/>
+      <c r="AK56" s="104"/>
+      <c r="AL56" s="104"/>
+      <c r="AM56" s="104"/>
+      <c r="AN56" s="104"/>
+      <c r="AO56" s="104"/>
+      <c r="AP56" s="104"/>
+      <c r="AQ56" s="104"/>
+      <c r="AR56" s="104"/>
+      <c r="AS56" s="104"/>
+      <c r="AT56" s="104"/>
+      <c r="AU56" s="104"/>
+      <c r="AV56" s="104"/>
+      <c r="AW56" s="104"/>
+      <c r="AX56" s="104"/>
+      <c r="AY56" s="104"/>
+      <c r="AZ56" s="104"/>
+      <c r="BA56" s="104"/>
+      <c r="BB56" s="104"/>
+      <c r="BC56" s="104"/>
+      <c r="BD56" s="104"/>
+      <c r="BE56" s="104"/>
+      <c r="BF56" s="104"/>
+      <c r="BG56" s="104"/>
+      <c r="BH56" s="104"/>
+      <c r="BI56" s="104"/>
+      <c r="BJ56" s="104"/>
+      <c r="BK56" s="104"/>
+      <c r="BL56" s="104"/>
+      <c r="BM56" s="104"/>
+      <c r="BN56" s="104"/>
+      <c r="BO56" s="104"/>
+      <c r="BP56" s="104"/>
+      <c r="BQ56" s="104"/>
+      <c r="BR56" s="105"/>
+      <c r="BS56" s="70"/>
+      <c r="BT56" s="173"/>
+      <c r="BU56" s="104"/>
+      <c r="BV56" s="104"/>
+      <c r="BW56" s="104"/>
+      <c r="BX56" s="169"/>
+      <c r="BY56" s="169"/>
+      <c r="BZ56" s="169"/>
+      <c r="CA56" s="169"/>
+      <c r="CB56" s="169"/>
+      <c r="CC56" s="104"/>
+      <c r="CD56" s="104"/>
+      <c r="CE56" s="104"/>
+      <c r="CF56" s="104"/>
+      <c r="CG56" s="104"/>
+      <c r="CH56" s="105"/>
+      <c r="CI56" s="105"/>
+      <c r="CJ56" s="105"/>
+      <c r="CK56" s="106"/>
     </row>
-    <row r="57" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A57" s="180">
-        <v>43104.0</v>
-      </c>
-      <c r="B57" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="98"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="179"/>
-      <c r="O57" s="179"/>
-      <c r="P57" s="179"/>
-      <c r="Q57" s="179"/>
-      <c r="R57" s="179"/>
-      <c r="S57" s="179"/>
-      <c r="T57" s="112"/>
-      <c r="U57" s="112"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="78"/>
-      <c r="AA57" s="79"/>
-      <c r="AB57" s="79"/>
-      <c r="AC57" s="79"/>
-      <c r="AD57" s="79"/>
-      <c r="AE57" s="79"/>
-      <c r="AF57" s="79"/>
-      <c r="AG57" s="79"/>
-      <c r="AH57" s="76"/>
-      <c r="AI57" s="76"/>
-      <c r="AJ57" s="76"/>
-      <c r="AK57" s="76"/>
-      <c r="AL57" s="76"/>
-      <c r="AM57" s="78"/>
-      <c r="AN57" s="78"/>
-      <c r="AO57" s="80"/>
-      <c r="AP57" s="80"/>
-      <c r="AQ57" s="80"/>
-      <c r="AR57" s="80"/>
-      <c r="AS57" s="80"/>
-      <c r="AT57" s="80"/>
-      <c r="AU57" s="80"/>
-      <c r="AV57" s="78"/>
-      <c r="AW57" s="78"/>
-      <c r="AX57" s="78"/>
-      <c r="AY57" s="78"/>
-      <c r="AZ57" s="78"/>
-      <c r="BA57" s="78"/>
-      <c r="BB57" s="78"/>
-      <c r="BC57" s="81"/>
-      <c r="BD57" s="81"/>
-      <c r="BE57" s="81"/>
-      <c r="BF57" s="81"/>
-      <c r="BG57" s="81"/>
-      <c r="BH57" s="81"/>
-      <c r="BI57" s="81"/>
-      <c r="BJ57" s="78"/>
-      <c r="BK57" s="78"/>
-      <c r="BL57" s="78"/>
-      <c r="BM57" s="78"/>
-      <c r="BN57" s="78"/>
-      <c r="BO57" s="78"/>
-      <c r="BP57" s="78"/>
-      <c r="BQ57" s="82"/>
-      <c r="BR57" s="82"/>
-      <c r="BS57" s="82"/>
-      <c r="BT57" s="82"/>
-      <c r="BU57" s="82"/>
-      <c r="BV57" s="82"/>
-      <c r="BW57" s="82"/>
-      <c r="BX57" s="76"/>
-      <c r="BY57" s="157"/>
-      <c r="BZ57" s="157"/>
-      <c r="CA57" s="157"/>
-      <c r="CB57" s="157"/>
-      <c r="CC57" s="157"/>
-      <c r="CD57" s="157"/>
-      <c r="CE57" s="84"/>
-      <c r="CF57" s="84"/>
-      <c r="CG57" s="84"/>
-      <c r="CH57" s="84"/>
-      <c r="CI57" s="84"/>
-      <c r="CJ57" s="84"/>
-      <c r="CK57" s="85"/>
+    <row r="57" ht="21.0" customHeight="1">
+      <c r="A57" s="174">
+        <v>45019.0</v>
+      </c>
+      <c r="B57" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="176"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="178"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="62"/>
+      <c r="Z57" s="62"/>
+      <c r="AA57" s="62"/>
+      <c r="AB57" s="62"/>
+      <c r="AC57" s="62"/>
+      <c r="AD57" s="62"/>
+      <c r="AE57" s="62"/>
+      <c r="AF57" s="62"/>
+      <c r="AG57" s="62"/>
+      <c r="AH57" s="62"/>
+      <c r="AI57" s="62"/>
+      <c r="AJ57" s="62"/>
+      <c r="AK57" s="62"/>
+      <c r="AL57" s="62"/>
+      <c r="AM57" s="62"/>
+      <c r="AN57" s="62"/>
+      <c r="AO57" s="62"/>
+      <c r="AP57" s="62"/>
+      <c r="AQ57" s="62"/>
+      <c r="AR57" s="62"/>
+      <c r="AS57" s="62"/>
+      <c r="AT57" s="62"/>
+      <c r="AU57" s="62"/>
+      <c r="AV57" s="62"/>
+      <c r="AW57" s="62"/>
+      <c r="AX57" s="62"/>
+      <c r="AY57" s="62"/>
+      <c r="AZ57" s="62"/>
+      <c r="BA57" s="62"/>
+      <c r="BB57" s="62"/>
+      <c r="BC57" s="62"/>
+      <c r="BD57" s="62"/>
+      <c r="BE57" s="62"/>
+      <c r="BF57" s="62"/>
+      <c r="BG57" s="62"/>
+      <c r="BH57" s="62"/>
+      <c r="BI57" s="62"/>
+      <c r="BJ57" s="62"/>
+      <c r="BK57" s="62"/>
+      <c r="BL57" s="62"/>
+      <c r="BM57" s="62"/>
+      <c r="BN57" s="62"/>
+      <c r="BO57" s="62"/>
+      <c r="BP57" s="62"/>
+      <c r="BQ57" s="62"/>
+      <c r="BR57" s="62"/>
+      <c r="BS57" s="62"/>
+      <c r="BT57" s="62"/>
+      <c r="BU57" s="62"/>
+      <c r="BV57" s="62"/>
+      <c r="BW57" s="62"/>
+      <c r="BX57" s="62"/>
+      <c r="BY57" s="62"/>
+      <c r="BZ57" s="62"/>
+      <c r="CA57" s="62"/>
+      <c r="CB57" s="62"/>
+      <c r="CC57" s="62"/>
+      <c r="CD57" s="62"/>
+      <c r="CE57" s="62"/>
+      <c r="CF57" s="62"/>
+      <c r="CG57" s="62"/>
+      <c r="CH57" s="62"/>
+      <c r="CI57" s="62"/>
+      <c r="CJ57" s="62"/>
+      <c r="CK57" s="62"/>
     </row>
     <row r="58" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A58" s="180">
-        <v>43135.0</v>
-      </c>
-      <c r="B58" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="181"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="150"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="98"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="179"/>
-      <c r="O58" s="179"/>
-      <c r="P58" s="179"/>
-      <c r="Q58" s="179"/>
-      <c r="R58" s="179"/>
-      <c r="S58" s="179"/>
-      <c r="T58" s="112"/>
-      <c r="U58" s="112"/>
-      <c r="V58" s="112"/>
-      <c r="W58" s="112"/>
-      <c r="X58" s="78"/>
-      <c r="Y58" s="78"/>
-      <c r="Z58" s="78"/>
-      <c r="AA58" s="79"/>
-      <c r="AB58" s="79"/>
-      <c r="AC58" s="79"/>
-      <c r="AD58" s="79"/>
-      <c r="AE58" s="79"/>
-      <c r="AF58" s="79"/>
-      <c r="AG58" s="79"/>
-      <c r="AH58" s="76"/>
-      <c r="AI58" s="76"/>
-      <c r="AJ58" s="76"/>
-      <c r="AK58" s="76"/>
-      <c r="AL58" s="76"/>
-      <c r="AM58" s="78"/>
-      <c r="AN58" s="78"/>
-      <c r="AO58" s="80"/>
-      <c r="AP58" s="80"/>
-      <c r="AQ58" s="80"/>
-      <c r="AR58" s="80"/>
-      <c r="AS58" s="80"/>
-      <c r="AT58" s="80"/>
-      <c r="AU58" s="80"/>
-      <c r="AV58" s="78"/>
-      <c r="AW58" s="78"/>
-      <c r="AX58" s="78"/>
-      <c r="AY58" s="78"/>
-      <c r="AZ58" s="78"/>
-      <c r="BA58" s="78"/>
-      <c r="BB58" s="78"/>
-      <c r="BC58" s="81"/>
-      <c r="BD58" s="81"/>
-      <c r="BE58" s="81"/>
-      <c r="BF58" s="81"/>
-      <c r="BG58" s="81"/>
-      <c r="BH58" s="81"/>
-      <c r="BI58" s="81"/>
-      <c r="BJ58" s="78"/>
-      <c r="BK58" s="78"/>
-      <c r="BL58" s="78"/>
-      <c r="BM58" s="78"/>
-      <c r="BN58" s="78"/>
-      <c r="BO58" s="78"/>
-      <c r="BP58" s="78"/>
-      <c r="BQ58" s="82"/>
-      <c r="BR58" s="82"/>
-      <c r="BS58" s="82"/>
-      <c r="BT58" s="82"/>
-      <c r="BU58" s="82"/>
-      <c r="BV58" s="82"/>
-      <c r="BW58" s="82"/>
-      <c r="BX58" s="76"/>
-      <c r="BY58" s="157"/>
-      <c r="BZ58" s="157"/>
-      <c r="CA58" s="157"/>
-      <c r="CB58" s="157"/>
-      <c r="CC58" s="157"/>
-      <c r="CD58" s="157"/>
-      <c r="CE58" s="84"/>
-      <c r="CF58" s="84"/>
-      <c r="CG58" s="84"/>
-      <c r="CH58" s="84"/>
-      <c r="CI58" s="84"/>
-      <c r="CJ58" s="84"/>
-      <c r="CK58" s="85"/>
+      <c r="A58" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="87"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="92"/>
+      <c r="U58" s="92"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="92"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="104"/>
+      <c r="Z58" s="104"/>
+      <c r="AA58" s="104"/>
+      <c r="AB58" s="104"/>
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="104"/>
+      <c r="AE58" s="104"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="104"/>
+      <c r="AI58" s="104"/>
+      <c r="AJ58" s="104"/>
+      <c r="AK58" s="104"/>
+      <c r="AL58" s="104"/>
+      <c r="AM58" s="104"/>
+      <c r="AN58" s="104"/>
+      <c r="AO58" s="104"/>
+      <c r="AP58" s="104"/>
+      <c r="AQ58" s="104"/>
+      <c r="AR58" s="104"/>
+      <c r="AS58" s="104"/>
+      <c r="AT58" s="104"/>
+      <c r="AU58" s="104"/>
+      <c r="AV58" s="104"/>
+      <c r="AW58" s="104"/>
+      <c r="AX58" s="104"/>
+      <c r="AY58" s="104"/>
+      <c r="AZ58" s="104"/>
+      <c r="BA58" s="104"/>
+      <c r="BB58" s="104"/>
+      <c r="BC58" s="104"/>
+      <c r="BD58" s="104"/>
+      <c r="BE58" s="104"/>
+      <c r="BF58" s="104"/>
+      <c r="BG58" s="104"/>
+      <c r="BH58" s="104"/>
+      <c r="BI58" s="104"/>
+      <c r="BJ58" s="104"/>
+      <c r="BK58" s="104"/>
+      <c r="BL58" s="104"/>
+      <c r="BM58" s="104"/>
+      <c r="BN58" s="104"/>
+      <c r="BO58" s="104"/>
+      <c r="BP58" s="104"/>
+      <c r="BQ58" s="104"/>
+      <c r="BR58" s="104"/>
+      <c r="BS58" s="104"/>
+      <c r="BT58" s="104"/>
+      <c r="BU58" s="104"/>
+      <c r="BV58" s="104"/>
+      <c r="BW58" s="104"/>
+      <c r="BX58" s="104"/>
+      <c r="BY58" s="169"/>
+      <c r="BZ58" s="169"/>
+      <c r="CA58" s="169"/>
+      <c r="CB58" s="169"/>
+      <c r="CC58" s="169"/>
+      <c r="CD58" s="169"/>
+      <c r="CE58" s="169"/>
+      <c r="CF58" s="169"/>
+      <c r="CG58" s="169"/>
+      <c r="CH58" s="105"/>
+      <c r="CI58" s="105"/>
+      <c r="CJ58" s="105"/>
+      <c r="CK58" s="106"/>
     </row>
     <row r="59" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A59" s="180">
-        <v>44989.0</v>
+      <c r="A59" s="179" t="s">
+        <v>138</v>
       </c>
       <c r="B59" s="72" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C59" s="72"/>
-      <c r="D59" s="181"/>
+      <c r="D59" s="73"/>
       <c r="E59" s="73"/>
-      <c r="F59" s="150"/>
+      <c r="F59" s="151"/>
       <c r="G59" s="97"/>
       <c r="H59" s="98"/>
       <c r="I59" s="99"/>
@@ -7205,12 +7271,12 @@
       <c r="K59" s="78"/>
       <c r="L59" s="76"/>
       <c r="M59" s="76"/>
-      <c r="N59" s="179"/>
-      <c r="O59" s="179"/>
-      <c r="P59" s="179"/>
-      <c r="Q59" s="179"/>
-      <c r="R59" s="179"/>
-      <c r="S59" s="179"/>
+      <c r="N59" s="180"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="180"/>
+      <c r="Q59" s="180"/>
+      <c r="R59" s="180"/>
+      <c r="S59" s="180"/>
       <c r="T59" s="112"/>
       <c r="U59" s="112"/>
       <c r="V59" s="112"/>
@@ -7268,12 +7334,12 @@
       <c r="BV59" s="82"/>
       <c r="BW59" s="82"/>
       <c r="BX59" s="76"/>
-      <c r="BY59" s="157"/>
-      <c r="BZ59" s="157"/>
-      <c r="CA59" s="157"/>
-      <c r="CB59" s="157"/>
-      <c r="CC59" s="157"/>
-      <c r="CD59" s="157"/>
+      <c r="BY59" s="158"/>
+      <c r="BZ59" s="158"/>
+      <c r="CA59" s="158"/>
+      <c r="CB59" s="158"/>
+      <c r="CC59" s="158"/>
+      <c r="CD59" s="158"/>
       <c r="CE59" s="84"/>
       <c r="CF59" s="84"/>
       <c r="CG59" s="84"/>
@@ -7282,207 +7348,207 @@
       <c r="CJ59" s="84"/>
       <c r="CK59" s="85"/>
     </row>
-    <row r="60" ht="21.0" customHeight="1">
-      <c r="A60" s="47">
-        <v>5.0</v>
-      </c>
-      <c r="B60" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="53"/>
-      <c r="Y60" s="53"/>
-      <c r="Z60" s="53"/>
-      <c r="AA60" s="53"/>
-      <c r="AB60" s="53"/>
-      <c r="AC60" s="53"/>
-      <c r="AD60" s="53"/>
-      <c r="AE60" s="53"/>
-      <c r="AF60" s="53"/>
-      <c r="AG60" s="53"/>
-      <c r="AH60" s="53"/>
-      <c r="AI60" s="53"/>
-      <c r="AJ60" s="53"/>
-      <c r="AK60" s="53"/>
-      <c r="AL60" s="53"/>
-      <c r="AM60" s="53"/>
-      <c r="AN60" s="53"/>
-      <c r="AO60" s="53"/>
-      <c r="AP60" s="53"/>
-      <c r="AQ60" s="53"/>
-      <c r="AR60" s="53"/>
-      <c r="AS60" s="53"/>
-      <c r="AT60" s="53"/>
-      <c r="AU60" s="53"/>
-      <c r="AV60" s="53"/>
-      <c r="AW60" s="53"/>
-      <c r="AX60" s="53"/>
-      <c r="AY60" s="53"/>
-      <c r="AZ60" s="53"/>
-      <c r="BA60" s="53"/>
-      <c r="BB60" s="53"/>
-      <c r="BC60" s="53"/>
-      <c r="BD60" s="53"/>
-      <c r="BE60" s="53"/>
-      <c r="BF60" s="53"/>
-      <c r="BG60" s="53"/>
-      <c r="BH60" s="53"/>
-      <c r="BI60" s="53"/>
-      <c r="BJ60" s="53"/>
-      <c r="BK60" s="53"/>
-      <c r="BL60" s="53"/>
-      <c r="BM60" s="53"/>
-      <c r="BN60" s="53"/>
-      <c r="BO60" s="53"/>
-      <c r="BP60" s="53"/>
-      <c r="BQ60" s="53"/>
-      <c r="BR60" s="53"/>
-      <c r="BS60" s="53"/>
-      <c r="BT60" s="53"/>
-      <c r="BU60" s="53"/>
-      <c r="BV60" s="53"/>
-      <c r="BW60" s="53"/>
-      <c r="BX60" s="53"/>
-      <c r="BY60" s="53"/>
-      <c r="BZ60" s="53"/>
-      <c r="CA60" s="53"/>
-      <c r="CB60" s="53"/>
-      <c r="CC60" s="53"/>
-      <c r="CD60" s="53"/>
-      <c r="CE60" s="53"/>
-      <c r="CF60" s="53"/>
-      <c r="CG60" s="53"/>
-      <c r="CH60" s="53"/>
-      <c r="CI60" s="53"/>
-      <c r="CJ60" s="53"/>
-      <c r="CK60" s="53"/>
+    <row r="60" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A60" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="87"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="104"/>
+      <c r="Q60" s="104"/>
+      <c r="R60" s="104"/>
+      <c r="S60" s="104"/>
+      <c r="T60" s="92"/>
+      <c r="U60" s="92"/>
+      <c r="V60" s="92"/>
+      <c r="W60" s="92"/>
+      <c r="X60" s="104"/>
+      <c r="Y60" s="104"/>
+      <c r="Z60" s="104"/>
+      <c r="AA60" s="104"/>
+      <c r="AB60" s="104"/>
+      <c r="AC60" s="104"/>
+      <c r="AD60" s="104"/>
+      <c r="AE60" s="104"/>
+      <c r="AF60" s="104"/>
+      <c r="AG60" s="104"/>
+      <c r="AH60" s="104"/>
+      <c r="AI60" s="104"/>
+      <c r="AJ60" s="104"/>
+      <c r="AK60" s="104"/>
+      <c r="AL60" s="104"/>
+      <c r="AM60" s="104"/>
+      <c r="AN60" s="104"/>
+      <c r="AO60" s="104"/>
+      <c r="AP60" s="104"/>
+      <c r="AQ60" s="104"/>
+      <c r="AR60" s="104"/>
+      <c r="AS60" s="104"/>
+      <c r="AT60" s="104"/>
+      <c r="AU60" s="104"/>
+      <c r="AV60" s="104"/>
+      <c r="AW60" s="104"/>
+      <c r="AX60" s="104"/>
+      <c r="AY60" s="104"/>
+      <c r="AZ60" s="104"/>
+      <c r="BA60" s="104"/>
+      <c r="BB60" s="104"/>
+      <c r="BC60" s="104"/>
+      <c r="BD60" s="104"/>
+      <c r="BE60" s="104"/>
+      <c r="BF60" s="104"/>
+      <c r="BG60" s="104"/>
+      <c r="BH60" s="104"/>
+      <c r="BI60" s="104"/>
+      <c r="BJ60" s="104"/>
+      <c r="BK60" s="104"/>
+      <c r="BL60" s="104"/>
+      <c r="BM60" s="104"/>
+      <c r="BN60" s="104"/>
+      <c r="BO60" s="104"/>
+      <c r="BP60" s="104"/>
+      <c r="BQ60" s="104"/>
+      <c r="BR60" s="104"/>
+      <c r="BS60" s="104"/>
+      <c r="BT60" s="104"/>
+      <c r="BU60" s="104"/>
+      <c r="BV60" s="104"/>
+      <c r="BW60" s="104"/>
+      <c r="BX60" s="104"/>
+      <c r="BY60" s="169"/>
+      <c r="BZ60" s="169"/>
+      <c r="CA60" s="169"/>
+      <c r="CB60" s="169"/>
+      <c r="CC60" s="169"/>
+      <c r="CD60" s="169"/>
+      <c r="CE60" s="169"/>
+      <c r="CF60" s="169"/>
+      <c r="CG60" s="169"/>
+      <c r="CH60" s="105"/>
+      <c r="CI60" s="105"/>
+      <c r="CJ60" s="105"/>
+      <c r="CK60" s="106"/>
     </row>
-    <row r="61" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A61" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="179"/>
-      <c r="O61" s="179"/>
-      <c r="P61" s="179"/>
-      <c r="Q61" s="179"/>
-      <c r="R61" s="179"/>
-      <c r="S61" s="179"/>
-      <c r="T61" s="112"/>
-      <c r="U61" s="112"/>
-      <c r="V61" s="112"/>
-      <c r="W61" s="112"/>
-      <c r="X61" s="78"/>
-      <c r="Y61" s="78"/>
-      <c r="Z61" s="78"/>
-      <c r="AA61" s="79"/>
-      <c r="AB61" s="79"/>
-      <c r="AC61" s="79"/>
-      <c r="AD61" s="79"/>
-      <c r="AE61" s="79"/>
-      <c r="AF61" s="79"/>
-      <c r="AG61" s="79"/>
-      <c r="AH61" s="76"/>
-      <c r="AI61" s="76"/>
-      <c r="AJ61" s="76"/>
-      <c r="AK61" s="76"/>
-      <c r="AL61" s="76"/>
-      <c r="AM61" s="78"/>
-      <c r="AN61" s="78"/>
-      <c r="AO61" s="80"/>
-      <c r="AP61" s="80"/>
-      <c r="AQ61" s="80"/>
-      <c r="AR61" s="80"/>
-      <c r="AS61" s="80"/>
-      <c r="AT61" s="80"/>
-      <c r="AU61" s="80"/>
-      <c r="AV61" s="78"/>
-      <c r="AW61" s="78"/>
-      <c r="AX61" s="78"/>
-      <c r="AY61" s="78"/>
-      <c r="AZ61" s="78"/>
-      <c r="BA61" s="78"/>
-      <c r="BB61" s="78"/>
-      <c r="BC61" s="81"/>
-      <c r="BD61" s="81"/>
-      <c r="BE61" s="81"/>
-      <c r="BF61" s="81"/>
-      <c r="BG61" s="81"/>
-      <c r="BH61" s="81"/>
-      <c r="BI61" s="81"/>
-      <c r="BJ61" s="78"/>
-      <c r="BK61" s="78"/>
-      <c r="BL61" s="78"/>
-      <c r="BM61" s="78"/>
-      <c r="BN61" s="78"/>
-      <c r="BO61" s="78"/>
-      <c r="BP61" s="78"/>
-      <c r="BQ61" s="82"/>
-      <c r="BR61" s="82"/>
-      <c r="BS61" s="82"/>
-      <c r="BT61" s="82"/>
-      <c r="BU61" s="82"/>
-      <c r="BV61" s="82"/>
-      <c r="BW61" s="82"/>
-      <c r="BX61" s="76"/>
-      <c r="BY61" s="157"/>
-      <c r="BZ61" s="157"/>
-      <c r="CA61" s="157"/>
-      <c r="CB61" s="157"/>
-      <c r="CC61" s="157"/>
-      <c r="CD61" s="157"/>
-      <c r="CE61" s="84"/>
-      <c r="CF61" s="84"/>
-      <c r="CG61" s="84"/>
-      <c r="CH61" s="84"/>
-      <c r="CI61" s="84"/>
-      <c r="CJ61" s="84"/>
-      <c r="CK61" s="85"/>
+    <row r="61" ht="21.0" customHeight="1">
+      <c r="A61" s="47">
+        <v>4.0</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="53"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="53"/>
+      <c r="AD61" s="53"/>
+      <c r="AE61" s="53"/>
+      <c r="AF61" s="53"/>
+      <c r="AG61" s="53"/>
+      <c r="AH61" s="53"/>
+      <c r="AI61" s="53"/>
+      <c r="AJ61" s="53"/>
+      <c r="AK61" s="53"/>
+      <c r="AL61" s="53"/>
+      <c r="AM61" s="53"/>
+      <c r="AN61" s="53"/>
+      <c r="AO61" s="53"/>
+      <c r="AP61" s="53"/>
+      <c r="AQ61" s="53"/>
+      <c r="AR61" s="53"/>
+      <c r="AS61" s="53"/>
+      <c r="AT61" s="53"/>
+      <c r="AU61" s="53"/>
+      <c r="AV61" s="53"/>
+      <c r="AW61" s="53"/>
+      <c r="AX61" s="53"/>
+      <c r="AY61" s="53"/>
+      <c r="AZ61" s="53"/>
+      <c r="BA61" s="53"/>
+      <c r="BB61" s="53"/>
+      <c r="BC61" s="53"/>
+      <c r="BD61" s="53"/>
+      <c r="BE61" s="53"/>
+      <c r="BF61" s="53"/>
+      <c r="BG61" s="53"/>
+      <c r="BH61" s="53"/>
+      <c r="BI61" s="53"/>
+      <c r="BJ61" s="53"/>
+      <c r="BK61" s="53"/>
+      <c r="BL61" s="53"/>
+      <c r="BM61" s="53"/>
+      <c r="BN61" s="53"/>
+      <c r="BO61" s="53"/>
+      <c r="BP61" s="53"/>
+      <c r="BQ61" s="53"/>
+      <c r="BR61" s="53"/>
+      <c r="BS61" s="53"/>
+      <c r="BT61" s="53"/>
+      <c r="BU61" s="53"/>
+      <c r="BV61" s="53"/>
+      <c r="BW61" s="53"/>
+      <c r="BX61" s="53"/>
+      <c r="BY61" s="53"/>
+      <c r="BZ61" s="53"/>
+      <c r="CA61" s="53"/>
+      <c r="CB61" s="53"/>
+      <c r="CC61" s="53"/>
+      <c r="CD61" s="53"/>
+      <c r="CE61" s="53"/>
+      <c r="CF61" s="53"/>
+      <c r="CG61" s="53"/>
+      <c r="CH61" s="53"/>
+      <c r="CI61" s="53"/>
+      <c r="CJ61" s="53"/>
+      <c r="CK61" s="53"/>
     </row>
     <row r="62" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A62" s="71" t="s">
-        <v>138</v>
+      <c r="A62" s="181">
+        <v>43104.0</v>
       </c>
       <c r="B62" s="72" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C62" s="72"/>
       <c r="D62" s="73"/>
       <c r="E62" s="73"/>
-      <c r="F62" s="150"/>
+      <c r="F62" s="151"/>
       <c r="G62" s="97"/>
       <c r="H62" s="98"/>
       <c r="I62" s="99"/>
@@ -7490,12 +7556,12 @@
       <c r="K62" s="78"/>
       <c r="L62" s="76"/>
       <c r="M62" s="76"/>
-      <c r="N62" s="179"/>
-      <c r="O62" s="179"/>
-      <c r="P62" s="179"/>
-      <c r="Q62" s="179"/>
-      <c r="R62" s="179"/>
-      <c r="S62" s="179"/>
+      <c r="N62" s="180"/>
+      <c r="O62" s="180"/>
+      <c r="P62" s="180"/>
+      <c r="Q62" s="180"/>
+      <c r="R62" s="180"/>
+      <c r="S62" s="180"/>
       <c r="T62" s="112"/>
       <c r="U62" s="112"/>
       <c r="V62" s="112"/>
@@ -7553,12 +7619,12 @@
       <c r="BV62" s="82"/>
       <c r="BW62" s="82"/>
       <c r="BX62" s="76"/>
-      <c r="BY62" s="157"/>
-      <c r="BZ62" s="157"/>
-      <c r="CA62" s="157"/>
-      <c r="CB62" s="157"/>
-      <c r="CC62" s="157"/>
-      <c r="CD62" s="157"/>
+      <c r="BY62" s="158"/>
+      <c r="BZ62" s="158"/>
+      <c r="CA62" s="158"/>
+      <c r="CB62" s="158"/>
+      <c r="CC62" s="158"/>
+      <c r="CD62" s="158"/>
       <c r="CE62" s="84"/>
       <c r="CF62" s="84"/>
       <c r="CG62" s="84"/>
@@ -7568,16 +7634,16 @@
       <c r="CK62" s="85"/>
     </row>
     <row r="63" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A63" s="71" t="s">
-        <v>140</v>
+      <c r="A63" s="181">
+        <v>43135.0</v>
       </c>
       <c r="B63" s="72" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="73"/>
-      <c r="F63" s="150"/>
+      <c r="F63" s="151"/>
       <c r="G63" s="97"/>
       <c r="H63" s="98"/>
       <c r="I63" s="99"/>
@@ -7585,12 +7651,12 @@
       <c r="K63" s="78"/>
       <c r="L63" s="76"/>
       <c r="M63" s="76"/>
-      <c r="N63" s="179"/>
-      <c r="O63" s="179"/>
-      <c r="P63" s="179"/>
-      <c r="Q63" s="179"/>
-      <c r="R63" s="179"/>
-      <c r="S63" s="179"/>
+      <c r="N63" s="180"/>
+      <c r="O63" s="180"/>
+      <c r="P63" s="180"/>
+      <c r="Q63" s="180"/>
+      <c r="R63" s="180"/>
+      <c r="S63" s="180"/>
       <c r="T63" s="112"/>
       <c r="U63" s="112"/>
       <c r="V63" s="112"/>
@@ -7648,12 +7714,12 @@
       <c r="BV63" s="82"/>
       <c r="BW63" s="82"/>
       <c r="BX63" s="76"/>
-      <c r="BY63" s="157"/>
-      <c r="BZ63" s="157"/>
-      <c r="CA63" s="157"/>
-      <c r="CB63" s="157"/>
-      <c r="CC63" s="157"/>
-      <c r="CD63" s="157"/>
+      <c r="BY63" s="158"/>
+      <c r="BZ63" s="158"/>
+      <c r="CA63" s="158"/>
+      <c r="CB63" s="158"/>
+      <c r="CC63" s="158"/>
+      <c r="CD63" s="158"/>
       <c r="CE63" s="84"/>
       <c r="CF63" s="84"/>
       <c r="CG63" s="84"/>
@@ -7663,16 +7729,16 @@
       <c r="CK63" s="85"/>
     </row>
     <row r="64" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A64" s="71" t="s">
-        <v>142</v>
+      <c r="A64" s="181">
+        <v>44989.0</v>
       </c>
       <c r="B64" s="72" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C64" s="72"/>
-      <c r="D64" s="73"/>
+      <c r="D64" s="182"/>
       <c r="E64" s="73"/>
-      <c r="F64" s="150"/>
+      <c r="F64" s="151"/>
       <c r="G64" s="97"/>
       <c r="H64" s="98"/>
       <c r="I64" s="99"/>
@@ -7680,12 +7746,12 @@
       <c r="K64" s="78"/>
       <c r="L64" s="76"/>
       <c r="M64" s="76"/>
-      <c r="N64" s="179"/>
-      <c r="O64" s="179"/>
-      <c r="P64" s="179"/>
-      <c r="Q64" s="179"/>
-      <c r="R64" s="179"/>
-      <c r="S64" s="179"/>
+      <c r="N64" s="180"/>
+      <c r="O64" s="180"/>
+      <c r="P64" s="180"/>
+      <c r="Q64" s="180"/>
+      <c r="R64" s="180"/>
+      <c r="S64" s="180"/>
       <c r="T64" s="112"/>
       <c r="U64" s="112"/>
       <c r="V64" s="112"/>
@@ -7743,12 +7809,12 @@
       <c r="BV64" s="82"/>
       <c r="BW64" s="82"/>
       <c r="BX64" s="76"/>
-      <c r="BY64" s="157"/>
-      <c r="BZ64" s="157"/>
-      <c r="CA64" s="157"/>
-      <c r="CB64" s="157"/>
-      <c r="CC64" s="157"/>
-      <c r="CD64" s="157"/>
+      <c r="BY64" s="158"/>
+      <c r="BZ64" s="158"/>
+      <c r="CA64" s="158"/>
+      <c r="CB64" s="158"/>
+      <c r="CC64" s="158"/>
+      <c r="CD64" s="158"/>
       <c r="CE64" s="84"/>
       <c r="CF64" s="84"/>
       <c r="CG64" s="84"/>
@@ -7757,112 +7823,112 @@
       <c r="CJ64" s="84"/>
       <c r="CK64" s="85"/>
     </row>
-    <row r="65" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A65" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="150"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="179"/>
-      <c r="O65" s="179"/>
-      <c r="P65" s="179"/>
-      <c r="Q65" s="179"/>
-      <c r="R65" s="179"/>
-      <c r="S65" s="179"/>
-      <c r="T65" s="112"/>
-      <c r="U65" s="112"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="78"/>
-      <c r="Y65" s="78"/>
-      <c r="Z65" s="78"/>
-      <c r="AA65" s="79"/>
-      <c r="AB65" s="79"/>
-      <c r="AC65" s="79"/>
-      <c r="AD65" s="79"/>
-      <c r="AE65" s="79"/>
-      <c r="AF65" s="79"/>
-      <c r="AG65" s="79"/>
-      <c r="AH65" s="76"/>
-      <c r="AI65" s="76"/>
-      <c r="AJ65" s="76"/>
-      <c r="AK65" s="76"/>
-      <c r="AL65" s="76"/>
-      <c r="AM65" s="78"/>
-      <c r="AN65" s="78"/>
-      <c r="AO65" s="80"/>
-      <c r="AP65" s="80"/>
-      <c r="AQ65" s="80"/>
-      <c r="AR65" s="80"/>
-      <c r="AS65" s="80"/>
-      <c r="AT65" s="80"/>
-      <c r="AU65" s="80"/>
-      <c r="AV65" s="78"/>
-      <c r="AW65" s="78"/>
-      <c r="AX65" s="78"/>
-      <c r="AY65" s="78"/>
-      <c r="AZ65" s="78"/>
-      <c r="BA65" s="78"/>
-      <c r="BB65" s="78"/>
-      <c r="BC65" s="81"/>
-      <c r="BD65" s="81"/>
-      <c r="BE65" s="81"/>
-      <c r="BF65" s="81"/>
-      <c r="BG65" s="81"/>
-      <c r="BH65" s="81"/>
-      <c r="BI65" s="81"/>
-      <c r="BJ65" s="78"/>
-      <c r="BK65" s="78"/>
-      <c r="BL65" s="78"/>
-      <c r="BM65" s="78"/>
-      <c r="BN65" s="78"/>
-      <c r="BO65" s="78"/>
-      <c r="BP65" s="78"/>
-      <c r="BQ65" s="82"/>
-      <c r="BR65" s="82"/>
-      <c r="BS65" s="82"/>
-      <c r="BT65" s="82"/>
-      <c r="BU65" s="82"/>
-      <c r="BV65" s="82"/>
-      <c r="BW65" s="82"/>
-      <c r="BX65" s="76"/>
-      <c r="BY65" s="157"/>
-      <c r="BZ65" s="157"/>
-      <c r="CA65" s="157"/>
-      <c r="CB65" s="157"/>
-      <c r="CC65" s="157"/>
-      <c r="CD65" s="157"/>
-      <c r="CE65" s="84"/>
-      <c r="CF65" s="84"/>
-      <c r="CG65" s="84"/>
-      <c r="CH65" s="84"/>
-      <c r="CI65" s="84"/>
-      <c r="CJ65" s="84"/>
-      <c r="CK65" s="85"/>
+    <row r="65" ht="21.0" customHeight="1">
+      <c r="A65" s="47">
+        <v>5.0</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="53"/>
+      <c r="AA65" s="53"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="53"/>
+      <c r="AD65" s="53"/>
+      <c r="AE65" s="53"/>
+      <c r="AF65" s="53"/>
+      <c r="AG65" s="53"/>
+      <c r="AH65" s="53"/>
+      <c r="AI65" s="53"/>
+      <c r="AJ65" s="53"/>
+      <c r="AK65" s="53"/>
+      <c r="AL65" s="53"/>
+      <c r="AM65" s="53"/>
+      <c r="AN65" s="53"/>
+      <c r="AO65" s="53"/>
+      <c r="AP65" s="53"/>
+      <c r="AQ65" s="53"/>
+      <c r="AR65" s="53"/>
+      <c r="AS65" s="53"/>
+      <c r="AT65" s="53"/>
+      <c r="AU65" s="53"/>
+      <c r="AV65" s="53"/>
+      <c r="AW65" s="53"/>
+      <c r="AX65" s="53"/>
+      <c r="AY65" s="53"/>
+      <c r="AZ65" s="53"/>
+      <c r="BA65" s="53"/>
+      <c r="BB65" s="53"/>
+      <c r="BC65" s="53"/>
+      <c r="BD65" s="53"/>
+      <c r="BE65" s="53"/>
+      <c r="BF65" s="53"/>
+      <c r="BG65" s="53"/>
+      <c r="BH65" s="53"/>
+      <c r="BI65" s="53"/>
+      <c r="BJ65" s="53"/>
+      <c r="BK65" s="53"/>
+      <c r="BL65" s="53"/>
+      <c r="BM65" s="53"/>
+      <c r="BN65" s="53"/>
+      <c r="BO65" s="53"/>
+      <c r="BP65" s="53"/>
+      <c r="BQ65" s="53"/>
+      <c r="BR65" s="53"/>
+      <c r="BS65" s="53"/>
+      <c r="BT65" s="53"/>
+      <c r="BU65" s="53"/>
+      <c r="BV65" s="53"/>
+      <c r="BW65" s="53"/>
+      <c r="BX65" s="53"/>
+      <c r="BY65" s="53"/>
+      <c r="BZ65" s="53"/>
+      <c r="CA65" s="53"/>
+      <c r="CB65" s="53"/>
+      <c r="CC65" s="53"/>
+      <c r="CD65" s="53"/>
+      <c r="CE65" s="53"/>
+      <c r="CF65" s="53"/>
+      <c r="CG65" s="53"/>
+      <c r="CH65" s="53"/>
+      <c r="CI65" s="53"/>
+      <c r="CJ65" s="53"/>
+      <c r="CK65" s="53"/>
     </row>
     <row r="66" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A66" s="71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B66" s="72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" s="72"/>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
-      <c r="F66" s="150"/>
+      <c r="F66" s="151"/>
       <c r="G66" s="97"/>
       <c r="H66" s="98"/>
       <c r="I66" s="99"/>
@@ -7870,12 +7936,12 @@
       <c r="K66" s="78"/>
       <c r="L66" s="76"/>
       <c r="M66" s="76"/>
-      <c r="N66" s="179"/>
-      <c r="O66" s="179"/>
-      <c r="P66" s="179"/>
-      <c r="Q66" s="179"/>
-      <c r="R66" s="179"/>
-      <c r="S66" s="179"/>
+      <c r="N66" s="180"/>
+      <c r="O66" s="180"/>
+      <c r="P66" s="180"/>
+      <c r="Q66" s="180"/>
+      <c r="R66" s="180"/>
+      <c r="S66" s="180"/>
       <c r="T66" s="112"/>
       <c r="U66" s="112"/>
       <c r="V66" s="112"/>
@@ -7933,12 +7999,12 @@
       <c r="BV66" s="82"/>
       <c r="BW66" s="82"/>
       <c r="BX66" s="76"/>
-      <c r="BY66" s="157"/>
-      <c r="BZ66" s="157"/>
-      <c r="CA66" s="157"/>
-      <c r="CB66" s="157"/>
-      <c r="CC66" s="157"/>
-      <c r="CD66" s="157"/>
+      <c r="BY66" s="158"/>
+      <c r="BZ66" s="158"/>
+      <c r="CA66" s="158"/>
+      <c r="CB66" s="158"/>
+      <c r="CC66" s="158"/>
+      <c r="CD66" s="158"/>
       <c r="CE66" s="84"/>
       <c r="CF66" s="84"/>
       <c r="CG66" s="84"/>
@@ -7946,6 +8012,481 @@
       <c r="CI66" s="84"/>
       <c r="CJ66" s="84"/>
       <c r="CK66" s="85"/>
+    </row>
+    <row r="67" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A67" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="72"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="151"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="99"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="76"/>
+      <c r="M67" s="76"/>
+      <c r="N67" s="180"/>
+      <c r="O67" s="180"/>
+      <c r="P67" s="180"/>
+      <c r="Q67" s="180"/>
+      <c r="R67" s="180"/>
+      <c r="S67" s="180"/>
+      <c r="T67" s="112"/>
+      <c r="U67" s="112"/>
+      <c r="V67" s="112"/>
+      <c r="W67" s="112"/>
+      <c r="X67" s="78"/>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="78"/>
+      <c r="AA67" s="79"/>
+      <c r="AB67" s="79"/>
+      <c r="AC67" s="79"/>
+      <c r="AD67" s="79"/>
+      <c r="AE67" s="79"/>
+      <c r="AF67" s="79"/>
+      <c r="AG67" s="79"/>
+      <c r="AH67" s="76"/>
+      <c r="AI67" s="76"/>
+      <c r="AJ67" s="76"/>
+      <c r="AK67" s="76"/>
+      <c r="AL67" s="76"/>
+      <c r="AM67" s="78"/>
+      <c r="AN67" s="78"/>
+      <c r="AO67" s="80"/>
+      <c r="AP67" s="80"/>
+      <c r="AQ67" s="80"/>
+      <c r="AR67" s="80"/>
+      <c r="AS67" s="80"/>
+      <c r="AT67" s="80"/>
+      <c r="AU67" s="80"/>
+      <c r="AV67" s="78"/>
+      <c r="AW67" s="78"/>
+      <c r="AX67" s="78"/>
+      <c r="AY67" s="78"/>
+      <c r="AZ67" s="78"/>
+      <c r="BA67" s="78"/>
+      <c r="BB67" s="78"/>
+      <c r="BC67" s="81"/>
+      <c r="BD67" s="81"/>
+      <c r="BE67" s="81"/>
+      <c r="BF67" s="81"/>
+      <c r="BG67" s="81"/>
+      <c r="BH67" s="81"/>
+      <c r="BI67" s="81"/>
+      <c r="BJ67" s="78"/>
+      <c r="BK67" s="78"/>
+      <c r="BL67" s="78"/>
+      <c r="BM67" s="78"/>
+      <c r="BN67" s="78"/>
+      <c r="BO67" s="78"/>
+      <c r="BP67" s="78"/>
+      <c r="BQ67" s="82"/>
+      <c r="BR67" s="82"/>
+      <c r="BS67" s="82"/>
+      <c r="BT67" s="82"/>
+      <c r="BU67" s="82"/>
+      <c r="BV67" s="82"/>
+      <c r="BW67" s="82"/>
+      <c r="BX67" s="76"/>
+      <c r="BY67" s="158"/>
+      <c r="BZ67" s="158"/>
+      <c r="CA67" s="158"/>
+      <c r="CB67" s="158"/>
+      <c r="CC67" s="158"/>
+      <c r="CD67" s="158"/>
+      <c r="CE67" s="84"/>
+      <c r="CF67" s="84"/>
+      <c r="CG67" s="84"/>
+      <c r="CH67" s="84"/>
+      <c r="CI67" s="84"/>
+      <c r="CJ67" s="84"/>
+      <c r="CK67" s="85"/>
+    </row>
+    <row r="68" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A68" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="151"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="76"/>
+      <c r="M68" s="76"/>
+      <c r="N68" s="180"/>
+      <c r="O68" s="180"/>
+      <c r="P68" s="180"/>
+      <c r="Q68" s="180"/>
+      <c r="R68" s="180"/>
+      <c r="S68" s="180"/>
+      <c r="T68" s="112"/>
+      <c r="U68" s="112"/>
+      <c r="V68" s="112"/>
+      <c r="W68" s="112"/>
+      <c r="X68" s="78"/>
+      <c r="Y68" s="78"/>
+      <c r="Z68" s="78"/>
+      <c r="AA68" s="79"/>
+      <c r="AB68" s="79"/>
+      <c r="AC68" s="79"/>
+      <c r="AD68" s="79"/>
+      <c r="AE68" s="79"/>
+      <c r="AF68" s="79"/>
+      <c r="AG68" s="79"/>
+      <c r="AH68" s="76"/>
+      <c r="AI68" s="76"/>
+      <c r="AJ68" s="76"/>
+      <c r="AK68" s="76"/>
+      <c r="AL68" s="76"/>
+      <c r="AM68" s="78"/>
+      <c r="AN68" s="78"/>
+      <c r="AO68" s="80"/>
+      <c r="AP68" s="80"/>
+      <c r="AQ68" s="80"/>
+      <c r="AR68" s="80"/>
+      <c r="AS68" s="80"/>
+      <c r="AT68" s="80"/>
+      <c r="AU68" s="80"/>
+      <c r="AV68" s="78"/>
+      <c r="AW68" s="78"/>
+      <c r="AX68" s="78"/>
+      <c r="AY68" s="78"/>
+      <c r="AZ68" s="78"/>
+      <c r="BA68" s="78"/>
+      <c r="BB68" s="78"/>
+      <c r="BC68" s="81"/>
+      <c r="BD68" s="81"/>
+      <c r="BE68" s="81"/>
+      <c r="BF68" s="81"/>
+      <c r="BG68" s="81"/>
+      <c r="BH68" s="81"/>
+      <c r="BI68" s="81"/>
+      <c r="BJ68" s="78"/>
+      <c r="BK68" s="78"/>
+      <c r="BL68" s="78"/>
+      <c r="BM68" s="78"/>
+      <c r="BN68" s="78"/>
+      <c r="BO68" s="78"/>
+      <c r="BP68" s="78"/>
+      <c r="BQ68" s="82"/>
+      <c r="BR68" s="82"/>
+      <c r="BS68" s="82"/>
+      <c r="BT68" s="82"/>
+      <c r="BU68" s="82"/>
+      <c r="BV68" s="82"/>
+      <c r="BW68" s="82"/>
+      <c r="BX68" s="76"/>
+      <c r="BY68" s="158"/>
+      <c r="BZ68" s="158"/>
+      <c r="CA68" s="158"/>
+      <c r="CB68" s="158"/>
+      <c r="CC68" s="158"/>
+      <c r="CD68" s="158"/>
+      <c r="CE68" s="84"/>
+      <c r="CF68" s="84"/>
+      <c r="CG68" s="84"/>
+      <c r="CH68" s="84"/>
+      <c r="CI68" s="84"/>
+      <c r="CJ68" s="84"/>
+      <c r="CK68" s="85"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A69" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="72"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="151"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="99"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="180"/>
+      <c r="O69" s="180"/>
+      <c r="P69" s="180"/>
+      <c r="Q69" s="180"/>
+      <c r="R69" s="180"/>
+      <c r="S69" s="180"/>
+      <c r="T69" s="112"/>
+      <c r="U69" s="112"/>
+      <c r="V69" s="112"/>
+      <c r="W69" s="112"/>
+      <c r="X69" s="78"/>
+      <c r="Y69" s="78"/>
+      <c r="Z69" s="78"/>
+      <c r="AA69" s="79"/>
+      <c r="AB69" s="79"/>
+      <c r="AC69" s="79"/>
+      <c r="AD69" s="79"/>
+      <c r="AE69" s="79"/>
+      <c r="AF69" s="79"/>
+      <c r="AG69" s="79"/>
+      <c r="AH69" s="76"/>
+      <c r="AI69" s="76"/>
+      <c r="AJ69" s="76"/>
+      <c r="AK69" s="76"/>
+      <c r="AL69" s="76"/>
+      <c r="AM69" s="78"/>
+      <c r="AN69" s="78"/>
+      <c r="AO69" s="80"/>
+      <c r="AP69" s="80"/>
+      <c r="AQ69" s="80"/>
+      <c r="AR69" s="80"/>
+      <c r="AS69" s="80"/>
+      <c r="AT69" s="80"/>
+      <c r="AU69" s="80"/>
+      <c r="AV69" s="78"/>
+      <c r="AW69" s="78"/>
+      <c r="AX69" s="78"/>
+      <c r="AY69" s="78"/>
+      <c r="AZ69" s="78"/>
+      <c r="BA69" s="78"/>
+      <c r="BB69" s="78"/>
+      <c r="BC69" s="81"/>
+      <c r="BD69" s="81"/>
+      <c r="BE69" s="81"/>
+      <c r="BF69" s="81"/>
+      <c r="BG69" s="81"/>
+      <c r="BH69" s="81"/>
+      <c r="BI69" s="81"/>
+      <c r="BJ69" s="78"/>
+      <c r="BK69" s="78"/>
+      <c r="BL69" s="78"/>
+      <c r="BM69" s="78"/>
+      <c r="BN69" s="78"/>
+      <c r="BO69" s="78"/>
+      <c r="BP69" s="78"/>
+      <c r="BQ69" s="82"/>
+      <c r="BR69" s="82"/>
+      <c r="BS69" s="82"/>
+      <c r="BT69" s="82"/>
+      <c r="BU69" s="82"/>
+      <c r="BV69" s="82"/>
+      <c r="BW69" s="82"/>
+      <c r="BX69" s="76"/>
+      <c r="BY69" s="158"/>
+      <c r="BZ69" s="158"/>
+      <c r="CA69" s="158"/>
+      <c r="CB69" s="158"/>
+      <c r="CC69" s="158"/>
+      <c r="CD69" s="158"/>
+      <c r="CE69" s="84"/>
+      <c r="CF69" s="84"/>
+      <c r="CG69" s="84"/>
+      <c r="CH69" s="84"/>
+      <c r="CI69" s="84"/>
+      <c r="CJ69" s="84"/>
+      <c r="CK69" s="85"/>
+    </row>
+    <row r="70" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A70" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="72"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="151"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="180"/>
+      <c r="O70" s="180"/>
+      <c r="P70" s="180"/>
+      <c r="Q70" s="180"/>
+      <c r="R70" s="180"/>
+      <c r="S70" s="180"/>
+      <c r="T70" s="112"/>
+      <c r="U70" s="112"/>
+      <c r="V70" s="112"/>
+      <c r="W70" s="112"/>
+      <c r="X70" s="78"/>
+      <c r="Y70" s="78"/>
+      <c r="Z70" s="78"/>
+      <c r="AA70" s="79"/>
+      <c r="AB70" s="79"/>
+      <c r="AC70" s="79"/>
+      <c r="AD70" s="79"/>
+      <c r="AE70" s="79"/>
+      <c r="AF70" s="79"/>
+      <c r="AG70" s="79"/>
+      <c r="AH70" s="76"/>
+      <c r="AI70" s="76"/>
+      <c r="AJ70" s="76"/>
+      <c r="AK70" s="76"/>
+      <c r="AL70" s="76"/>
+      <c r="AM70" s="78"/>
+      <c r="AN70" s="78"/>
+      <c r="AO70" s="80"/>
+      <c r="AP70" s="80"/>
+      <c r="AQ70" s="80"/>
+      <c r="AR70" s="80"/>
+      <c r="AS70" s="80"/>
+      <c r="AT70" s="80"/>
+      <c r="AU70" s="80"/>
+      <c r="AV70" s="78"/>
+      <c r="AW70" s="78"/>
+      <c r="AX70" s="78"/>
+      <c r="AY70" s="78"/>
+      <c r="AZ70" s="78"/>
+      <c r="BA70" s="78"/>
+      <c r="BB70" s="78"/>
+      <c r="BC70" s="81"/>
+      <c r="BD70" s="81"/>
+      <c r="BE70" s="81"/>
+      <c r="BF70" s="81"/>
+      <c r="BG70" s="81"/>
+      <c r="BH70" s="81"/>
+      <c r="BI70" s="81"/>
+      <c r="BJ70" s="78"/>
+      <c r="BK70" s="78"/>
+      <c r="BL70" s="78"/>
+      <c r="BM70" s="78"/>
+      <c r="BN70" s="78"/>
+      <c r="BO70" s="78"/>
+      <c r="BP70" s="78"/>
+      <c r="BQ70" s="82"/>
+      <c r="BR70" s="82"/>
+      <c r="BS70" s="82"/>
+      <c r="BT70" s="82"/>
+      <c r="BU70" s="82"/>
+      <c r="BV70" s="82"/>
+      <c r="BW70" s="82"/>
+      <c r="BX70" s="76"/>
+      <c r="BY70" s="158"/>
+      <c r="BZ70" s="158"/>
+      <c r="CA70" s="158"/>
+      <c r="CB70" s="158"/>
+      <c r="CC70" s="158"/>
+      <c r="CD70" s="158"/>
+      <c r="CE70" s="84"/>
+      <c r="CF70" s="84"/>
+      <c r="CG70" s="84"/>
+      <c r="CH70" s="84"/>
+      <c r="CI70" s="84"/>
+      <c r="CJ70" s="84"/>
+      <c r="CK70" s="85"/>
+    </row>
+    <row r="71" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A71" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="72"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="151"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="76"/>
+      <c r="N71" s="180"/>
+      <c r="O71" s="180"/>
+      <c r="P71" s="180"/>
+      <c r="Q71" s="180"/>
+      <c r="R71" s="180"/>
+      <c r="S71" s="180"/>
+      <c r="T71" s="112"/>
+      <c r="U71" s="112"/>
+      <c r="V71" s="112"/>
+      <c r="W71" s="112"/>
+      <c r="X71" s="78"/>
+      <c r="Y71" s="78"/>
+      <c r="Z71" s="78"/>
+      <c r="AA71" s="79"/>
+      <c r="AB71" s="79"/>
+      <c r="AC71" s="79"/>
+      <c r="AD71" s="79"/>
+      <c r="AE71" s="79"/>
+      <c r="AF71" s="79"/>
+      <c r="AG71" s="79"/>
+      <c r="AH71" s="76"/>
+      <c r="AI71" s="76"/>
+      <c r="AJ71" s="76"/>
+      <c r="AK71" s="76"/>
+      <c r="AL71" s="76"/>
+      <c r="AM71" s="78"/>
+      <c r="AN71" s="78"/>
+      <c r="AO71" s="80"/>
+      <c r="AP71" s="80"/>
+      <c r="AQ71" s="80"/>
+      <c r="AR71" s="80"/>
+      <c r="AS71" s="80"/>
+      <c r="AT71" s="80"/>
+      <c r="AU71" s="80"/>
+      <c r="AV71" s="78"/>
+      <c r="AW71" s="78"/>
+      <c r="AX71" s="78"/>
+      <c r="AY71" s="78"/>
+      <c r="AZ71" s="78"/>
+      <c r="BA71" s="78"/>
+      <c r="BB71" s="78"/>
+      <c r="BC71" s="81"/>
+      <c r="BD71" s="81"/>
+      <c r="BE71" s="81"/>
+      <c r="BF71" s="81"/>
+      <c r="BG71" s="81"/>
+      <c r="BH71" s="81"/>
+      <c r="BI71" s="81"/>
+      <c r="BJ71" s="78"/>
+      <c r="BK71" s="78"/>
+      <c r="BL71" s="78"/>
+      <c r="BM71" s="78"/>
+      <c r="BN71" s="78"/>
+      <c r="BO71" s="78"/>
+      <c r="BP71" s="78"/>
+      <c r="BQ71" s="82"/>
+      <c r="BR71" s="82"/>
+      <c r="BS71" s="82"/>
+      <c r="BT71" s="82"/>
+      <c r="BU71" s="82"/>
+      <c r="BV71" s="82"/>
+      <c r="BW71" s="82"/>
+      <c r="BX71" s="76"/>
+      <c r="BY71" s="158"/>
+      <c r="BZ71" s="158"/>
+      <c r="CA71" s="158"/>
+      <c r="CB71" s="158"/>
+      <c r="CC71" s="158"/>
+      <c r="CD71" s="158"/>
+      <c r="CE71" s="84"/>
+      <c r="CF71" s="84"/>
+      <c r="CG71" s="84"/>
+      <c r="CH71" s="84"/>
+      <c r="CI71" s="84"/>
+      <c r="CJ71" s="84"/>
+      <c r="CK71" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -7984,7 +8525,7 @@
     <mergeCell ref="AO5:AU6"/>
     <mergeCell ref="AV5:BB6"/>
   </mergeCells>
-  <conditionalFormatting sqref="F9:F24 F27:F29 F31:F43 F45:F47 F49:F66">
+  <conditionalFormatting sqref="F9:F24 F27:F34 F36:F48 F50:F52 F54:F71">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7994,7 +8535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F24 F27:F29 F31:F43 F45:F47 F49:F66">
+  <conditionalFormatting sqref="F9:F24 F27:F34 F36:F48 F50:F52 F54:F71">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
